--- a/data/QTTY/Gold/QTTY3.xlsx
+++ b/data/QTTY/Gold/QTTY3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\HCMUS\Thesis\Automatic Sentence Alignment\QTTY\Gold\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\HCMUS\Thesis\Automatic Sentence Alignment\data\QTTY\Gold\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F00987-A5A4-4D9F-B7E9-89023514E609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8332DF44-737C-4DFC-99E5-178DD915371B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1570,775 +1570,775 @@
     <t>政 要 論 云 : 夫 著 作 書 論 者 乃 欲 闡 弘 大 道 述 明 聖 教 推 演 事 義 盡 極 情 類 記 是 貶 非 以 為 法 式 當 時 可 行 後 世 可 修 。</t>
   </si>
   <si>
-    <t>Sách Lễ Ký viết : Cái phần trời ban cho gọi là Tính , tuân theo Tính gọi là Đạo , sửa mình theo Đạo gọi là Giáo . Đạo ấy chẳng thể lìa xa ( ta ) giây phút nào , nếu lìa xa ( ta ) thì không phải Đạo vậy .</t>
-  </si>
-  <si>
-    <t>Sách Chu Dịch viết : ( Quẻ Kiền ) Giữ đúng với khí thái-hòa bèn lợi ích trinh bền . Là đầu mối xuất ra mọi vật , vạn quốc đều yên ổn .</t>
-  </si>
-  <si>
-    <t>Sách Lão Tử viết : Người bắt chước Đất , Đất bắt chước Trời , Trời bắt chước Đạo , Đạo bắt chước tự nhiên .</t>
-  </si>
-  <si>
-    <t>Sách Lão Tử viết : Bậc thánh-nhân không tích trữ , càng vì người , mình càng có . Đạo của trời lợi mà chẳng hại , đạo của thánh-nhân làm mà chẳng tranh .</t>
-  </si>
-  <si>
-    <t>Sách Khổng Tử Gia Ngữ viết : Hiếu-học gần với trí huệ , siêng làm gần với lòng nhân , biết thẹn gần với dũng cảm , biết được ba điều đó thì biết cách sửa mình , biết cách sửa mình thì biết cách trị người , biết cách trị người thì có khả năng làm thành công việc thiên-hạ , quốc-gia vậy .</t>
-  </si>
-  <si>
-    <t>Sách Dục Tử viết : Phát huy nền chính trị , ban hành mệnh lệnh vì hạnh phúc của thiên-hạ đó là Đạo . Trên dưới yêu mến nhau gọi là Hòa . Dân chẳng cầu mà được như lòng mong muốn gọi là Tín . Trừ bỏ mối hại của thiên-hạ gọi là ( đức ) Nhân . Nhân và Tín , Hòa và Đạo là bảo vật của bậc đế-vương .</t>
-  </si>
-  <si>
-    <t>Sách Lục Thao viết : Vua Văn-Vương hỏi : như thế nào mới có thể sửa trị thiên-hạ ?  . Thái-Công đáp : thưa lòng dạ lớn đủ trùm khắp thiên-hạ , rồi sau có thể bao dung thiên-hạ . Chữ tín lớn đủ trùm khắp thiên-hạ , rồi sau có thể ước hẹn với thiên-hạ . Lòng Nhân ( từ ) trùm khắp thiên-hạ , rồi sau mới có thể mong cầu ở thiên-hạ . Ân huệ trùm khắp thiên-hạ , rồi sau làm vua thiên-hạ . Quyền hành trùm khắp thiên-hạ , rồi sau mới có thể không mất thiên-hạ . Gặp việc không nghi ngờ , rồi sau cho thiên-hạ nhờ cậy . 6 việc đó đầy đủ mà sau có thể sửa trị việc chính trị thiên-hạ .</t>
-  </si>
-  <si>
-    <t>Sách Trung Luận viết : Nên bậc quân-tử chẳng sợ tuổi cao sẽ yếu dần , mà chỉ lo ý chí chán nản chẳng tẩm-đạo , chẳng túc-nghĩa . Nói mà chẳng làm là tẩm-đạo vậy , làm mà chẳng đúng thời là túc-nghĩa vậy .</t>
-  </si>
-  <si>
-    <t>Sách Chu Dịch viết : Quẻ Càn , tượng viết : Trời hành động mạnh mẽ , người quân-tử theo đó tự cường không ngừng nghỉ .</t>
-  </si>
-  <si>
-    <t>Sách Chu Dịch viết : Quẻ Khôn , Tượng viết : địa-thế quẻ Khôn , người quân-tử lấy đức hậu chở che mọi vật .</t>
-  </si>
-  <si>
-    <t>Sách Bão Phác Tử viết : Không tu việc thiện tức là người ác , không phụng sự bậc lớn là kẻ tiểu-nhân . Vua Trụ làm việc vô đạo nên xứng là kẻ vô đức , ngài Trọng-Ni là bậc bồi-thần nên được gọi là Tố-Vương . Tức là người quân-tử không hẳn phải ở việc được giàu sang vậy .</t>
-  </si>
-  <si>
-    <t>Sách Hiếu Kính viết : Hạnh hiếu-đễ thông đến thần minh , chiếu sáng đến bốn biển , không đâu chẳng thông .</t>
-  </si>
-  <si>
-    <t>Sách Mao Thi viết : Rau nga dài cộng rậm ren , chẳng là rau nữa cỏ hèn mà thôi . Xót thương cha mẹ ngậm ngùi , thật là cực khổ dưỡng bồi sinh ta . Không cha thì tựa vào đâu , mẹ mà không có dựa vào nơi ai . Đi ra ngậm mối ưu hoài , vào thì như chẳng biết rày đến đâu . Cha truyền hơi khí sinh ta , mẹ thì mang nặng đẻ ra nên người . Vỗ về nựng nịu dưỡng bồi , nuôi ta ấp ủ đến thời lớn khôn . Đi qua quay lại trông luôn , rao vào bỗng ằm chiêu nuông trong lòng . Báo đền ân đức ta mong , như trời to rộng vô cùng nghĩa ân .</t>
-  </si>
-  <si>
-    <t>Sách Lễ Ký viết : Hạnh hiếu có ba bậc , tiểu-hiếu dùng sức , trung-hiếu lao lực , đại-hiếu không ( để cha mẹ ) thiếu thốn . Nghĩ đến yêu thương quên đi lao khổ có thể gọi là dùng sức . Tôn sùng đức nhân , sống trong điều nghĩa có thể gọi là lao lực . Bố thí rộng , sắp đặt mọi vật có thể gọi là không ( để ) thiếu thốn . Cha mẹ yêu thì vui mà chẳng quên ơn , cha mẹ ghét thì sợ mà chẳng oán trách , cha mẹ có lỗi thì khuyên mà chẳng nghịch lại , cha mẹ đã mất ắt nhớ thương mãi , lấy lúa để cúng tế . Đó gọi là trọn vẹn lễ .</t>
-  </si>
-  <si>
-    <t>Sách Hiếu Kinh viết : Thân thể , lông , tóc nhận từ cha mẹ chẳng dám tổn thương đó là sự bắt đầu của hạnh hiếu . Tạo lập bản thân , thi hành đạo lý dương-danh đời sau để cho cha mẹ được vẻ vang đó là cái kết của hạnh hiếu . Hạnh hiếu bắt đầu từ phụng sự cha mẹ , giữa là phụng sự vua , kết thúc là tạo lập bản thân .</t>
-  </si>
-  <si>
-    <t>Sách Hiếu Kính viết : Ở chức trên chẳng kiêu thì ngôi cao mà không nguy khốn , tiết chế cẩn thận vừa phải lúc đầy đủ không phóng túng . Ngôi cao không nguy khốn để giữ sự tôn quý bền lâu , lúc đầy đủ không phóng túng để giữ sự giàu có dài mãi . Sự giàu có và tôn quý chẳng ly khỏi bản thân , mà sau có thể bảo toàn được xã-tắc mà cùng hòa vui với dân chúng . Đó là hạnh hiếu của chư-hầu . Kinh Thi viết : “ nơm nớp lo sợ , như đến vực sâu , như trên băng mỏng .” Nên Nơm nớp kinh sợ vậy .</t>
-  </si>
-  <si>
-    <t>Sách Hiếu Kinh viết : Chẳng đúng quy định của tiên-vương về pháp-phục , không dám mặc . Chẳng đúng quy định của tiên-vương về lời nói , không dám nói . Chẳng đúng việc làm đức hạnh của tiên-vương , không dám làm . Cho nên chẳng đúng phép không nói , chẳng đúng đạo lý không làm . Miệng không nói bậy , thân không làm bậy , lời nói đúng mực thiên-hạ không nói xấu , việc làm đúng mực thiên-hạ không oán ghét , ba điều ấy hoàn bị rồi , mà sau có thể giữ được tông-miếu . Đó là hạnh hiếu của quan khanh , quan đại-phu . Kinh Thi viết : “Làm việc sớm hôm chẳng trễ nãi , để hết lòng phụng sự một người ( vua ) .”</t>
-  </si>
-  <si>
-    <t>Sách Hiếu Kinh viết : Nên lấy hạnh hiếu phụng sự vua thì trung thành , lấy lòng kính phụng sự bậc lớn thì thuận theo . Trung thành và thuận theo chẳng mất , lấy đó để phụng sự trên mà sau có thể bảo đảm được bổng lộc tước vị và giữ được việc tế-tự . Đó là hạnh hiếu của kẻ sĩ vậy .</t>
-  </si>
-  <si>
-    <t>Sách Hiếu Kinh viết : Theo đạo của Trời là chia lợi cho Đất , giữ thân , tiết kiệm để phụng dưỡng cha mẹ . Đó là hạnh hiếu của thứ-dân . Nên từ thiên-tử cho đến thứ-dân , hạnh hiếu không có trước sau mà ( ai ) chẳng lo cho kịp được thì chưa từng có vậy .</t>
-  </si>
-  <si>
-    <t>Sách Hiếu Kinh viết : Đức Khổng-Tử nói : Con hiếu phụng sự cha mẹ , 1 .ở nhà thì hết lòng cung kính , 2 .phụng dưỡng thì hết lòng vui vẻ , 3 .bệnh tật hết lòng lo lắng , 4 .tang sự hết lòng thương xót , 5 .cúng dỗ hết lòng nghiêm trang . Năm điều ấy hoàn bị , mà sau có thể phụng sự cha mẹ .</t>
-  </si>
-  <si>
-    <t>Sách Lễ Ký viết : Thầy Tăng-Tử nói : thân thể này do cha mẹ ban cho , làm việc sử dụng thân thể cha mẹ ban cho dám không cẩn thận sao ?  . Ăn ở chẳng đoan trang không hiếu . Phụng sự vua chẳng hết lòng không hiếu . Làm quan chẳng cẩn thận không hiếu . Bạn bè chẳng giữ chữ tín không hiếu . Đánh trận chẳng dũng cảm không hiếu . Năm việc ấy chẳng tuân theo , tai vạ đến với cha mẹ , dám không cẩn thận sao ?  .</t>
-  </si>
-  <si>
-    <t>Sách Lễ Ký viết : Mỗi bước đi mà chẳng dám quên cha mẹ , mỗi khi nói mà chẳng dám quên cha mẹ . Mỗi bước đi mà chẳng dám quên cha mẹ nên hành đạo không theo lối tắt , đi thuyền mà chẳng dám bơi , chẳng dám trước lấy thân thể cha mẹ ban cho để làm việc nguy hiểm . Mỗi khi nói mà chẳng dám quên cha mẹ , cho nên lời ác chẳng xuất ra từ miệng thì những lời oán giận chẳng đến thân . Chẳng mang nhục đến thân thì chẳng làm xấu hổ cha mẹ , ( như thế ) có thể gọi là hiếu vậy .</t>
-  </si>
-  <si>
-    <t>Sách Hiếu Kinh viết : Nên chẳng yêu cha mẹ mà yêu người khác gọi là bội-đức ( trái đức ) , chẳng kính cha mẹ mà kính người khác gọi là bội-lễ ( trái lễ ) .</t>
-  </si>
-  <si>
-    <t>Sách Luận Ngữ viết : Thầy Tăng-Tử nói : kẻ sĩ không thể không có quyết tâm và hoài bão lớn , vì nhiệm vụ rất nặng mà đường lại xa , lấy việc dạy người lòng nhân từ là nhiệm vụ của mình há chẳng nặng ư ?  , chỉ khi nào chết đi mới dừng lại há chẳng xa ư ?  .</t>
-  </si>
-  <si>
-    <t>Sách Thân Giám viết : Có một lời mà có thể thường làm theo , đó là chữ “thứ” vậy . Có một việc làm mà có thể thường thực hiện , đó là chữ “chánh” vậy . Chữ “thứ” là phương pháp của Nhân vậy , chữ “chánh” là trọng yếu của Nghĩa vậy , thật quan trọng thay !</t>
-  </si>
-  <si>
-    <t>Sách Luận Ngữ viết : Thầy Nhan-Uyên hỏi lòng nhân . Đức Khổng-Tử đáp : khắc phục mình nương theo lễ đó là lòng nhân , một ngày khắc phục mình nương theo lễ thì thiên-hạ quy về lòng nhân . Lòng nhân do mình mà lẽ nào do người khác ?  . Thầy Nhan-Uyên hỏi : xin thầy nói các điều mục ấy , đức Khổng-Tử đáp : Việc phi lễ chớ nhìn , điều phi lễ chớ nghe , lời phi lễ chớ nói , vật phi lễ chớ lấy .</t>
-  </si>
-  <si>
-    <t>Sách Luận Ngữ viết : Thầy Trọng-Cung hỏi lòng nhân . đức Khổng-Tử đáp : ra khỏi cửa thì nghiêm trang như gặp khách quý , sai khiến dân thì thận trọng như làm lễ lớn . Điều gì mình không muốn chớ đem cho người , trong nước chớ làm ai thù , trong nhà chớ làm ai oán .</t>
-  </si>
-  <si>
-    <t>Sách Hậu Hán Thư viết : Lúc nghèo hèn quen biết không thể quên đi . Người vợ tào-khang không thể hắt hủi .</t>
-  </si>
-  <si>
-    <t>Sách Thể Luận viết : Trời đất có kỷ cương , chẳng chân thành thì không thể giáo hóa , nuôi dưỡng vạn vật . Vua tôi có nghĩa , chẳng chân thành thì không thể làm việc cùng . Cha con có lễ , chẳng chân thành thì xa cách . Vợ chồng có ân , chẳng chân thành thì ly biệt . Việc giao-tiếp có danh phận , chẳng chân thành thì đoạn tuyệt . Lấy đạo nghĩa để ứng xử thì thỏa đáng , thấy được tình lý của việc khúc mắt chỉ có chân thành ư !  .</t>
-  </si>
-  <si>
-    <t>Sách Tôn Khanh Tử viết : Người quân-tử dưỡng tâm chẳng gì tốt hơn chân thành . Đạt tới chân thành chẳng gì khác giữ gìn lòng nhân , làm việc nghĩa . Lòng chân thành giữ gìn lòng nhân thì có thể hóa vật . Lòng chân thành làm việc nghĩa thì có thể biến vật . Biến hóa thay đổi hưng thịnh gọi là Thiên-đức ( đức trời ) .</t>
-  </si>
-  <si>
-    <t>Sách Viên Tử Chính Thư viết : Chỉ người quân-tử có thể giữ chữ tín , một khi mất chữ tín thì suốt đời làm việc gì cũng vô dụng . Nên người quân-tử rất coi trọng nó .</t>
-  </si>
-  <si>
-    <t>Sách Trung Luận viết : Đức Khổng-Tử nói : muốn người tin mình thì nói ít mà dốc sức làm , dốc sức làm thì chổ dùng ngày càng lâu dài , chổ dùng ngày càng lâu dài thì công việc rõ ràng , công việc rõ ràng thì người có mắt chẳng lẽ không thấy , người có tai chẳng lẽ không nghe , lý nào là sự việc bịa đặt ?  .</t>
-  </si>
-  <si>
-    <t>Sách Luận Ngữ viết : Thầy Tử-Hạ nói người quân-tử giữ chữ tín mà sau khiến dân lao nhọc , chưa giữ được chữ tín thì dân sẽ coi mình là kẻ bạo ngược . Giữ chữ tín mà sau can gián , chưa giữ được chữ tín ( mà can gián ) thì mình bị coi là kẻ hủy báng .</t>
-  </si>
-  <si>
-    <t>Sách Phó Tử viết : Thành tín do cấp trên mà thiết lập . Nên vua lấy thành tín dạy bảo bề tôi thì bề tôi sẽ lấy thành tín hết lòng vì vua . Cha lấy thành tín răn dạy con thì con sẽ lấy thành tín hiếu thảo với cha . Chồng lấy thành tín đối trước với vợ thì vợ sẽ lấy thành tín thuận tòng theo chồng . Cấp trên giữ vững theo đạo thường để giáo hóa cấp dưới , thì cấp dưới sẽ tuân theo đạo thường mà ứng với cấp trên . Còn tuân theo đó mà không giáo hóa được ai , thì 100 việc chưa có 1 việc vậy .</t>
-  </si>
-  <si>
-    <t>Sách Thể Luận viết : Sắc mặt ra vẻ nhân từ mà thực tế trái lại , đó là hư-huyễn . Chẳng lấy chân thành đối đãi với bề tôi mà cứ mong mỏi bề tôi lấy chân thành phụng sự mình , đó là ngu-muội . Vua có hư-huyễn và ngu-muội thì chưa có thể được người làm tận lực đến chết vậy . Nên Kinh Thư nói : “vua như cái đầu , bề tôi như chân tay .” Đó là nói một thể , cần cùng nhau phối hợp mà thành công vậy .</t>
-  </si>
-  <si>
-    <t>Sách Hàn Tử viết : Xảo trá chẳng bằng vụng về thành thật .</t>
-  </si>
-  <si>
-    <t>Sách Thượng Thư viết : Làm việc đạo đức lòng thanh thản , ngày càng tốt lành . Làm việc dối trá lòng lao khổ , ngày càng kém cỏi .</t>
-  </si>
-  <si>
-    <t>Sách Khổng Tử Gia Ngữ viết : Thầy Tăng-Tử nói : xin hỏi thế nào là 7 loại giáo học ?  . Đức Khổng-Tử đáp : 1 .Trên kính trọng người già thì dưới càng hiếu thuận ; 2 .trên tôn trọng người cao tuổi thì dưới càng hòa thuận ; 3 .trên thích bố thí thì dưới càng khoan dung ; 4 .trên thân cận người hiền thì dưới biết chọn bạn kết giao ; 5 .trên thích đức hạnh thì dưới không ẩn dấu ; 6 .trên ghét sự tham lam thì dưới xấu hổ khi tranh nhau ; 7 .trên khiêm-nhượng thì dưới biết giữ tiết tháo , đó gọi là 7 loại giáo học vậy . 7 loại giáo học là gốc để trị dân , khi chính-giáo ( ấy ) an định thì gốc chánh vậy . Phàm trên là chuẩn mực của dân , chuẩn mực chánh thì có ai mà không chánh ?  .</t>
-  </si>
-  <si>
-    <t>Sách Luận Ngữ viết : Đức Khổng-Tử nói : bản thân chánh dù không ra lệnh mà ( dân cũng ) làm theo , bản thân không chánh dù ra lệnh ( dân ) cũng chẳng theo .</t>
-  </si>
-  <si>
-    <t>Sách Chính Yếu Luận viết : Nên người quân-tử làm chính trị lấy làm việc chánh mình trước nhất , còn việc giáo học và lệnh cấm thì theo sau .</t>
-  </si>
-  <si>
-    <t>Sách Lễ Ký viết : Đức Khổng-Tử nói : Dưới phụng sự trên , không nên chỉ theo mệnh lệnh  trên mà nên theo ( ý ) việc làm của trên . Trên thích vật đó thì cấp dưới hẳn thích nhiều hơn vậy . Nên việc ưa ghét của trên không thể không thận trọng . Đó là chuẩn mực của dân vậy .</t>
-  </si>
-  <si>
-    <t>Sách Xương Ngôn viết : Ta có lòng công bằng thì sĩ-dân chẳng dám có tâm niệm riêng tư . Ta có lòng bình đẳng thì sĩ-dân chẳng dám làm việc gian hiểm . Ta có lòng tiết kiệm thì sĩ-dân chẳng dám phóng túng đến xa xỉ . Việc đó mà đích thân làm thì là biểu trưng ( hình mẫu ) vậy .</t>
-  </si>
-  <si>
-    <t>Sách Lục Thao viết : Thái-Công nói làm tướng có 3 lễ , ngày mùa đông không mặc áo lông cừu , ngày mùa hạ không dùng quạt , trời mưa không che dù ( để biết nỗi khổ của lính ) , tên gọi là 3 lễ vậy .</t>
-  </si>
-  <si>
-    <t>Sách Khổng Tử Gia Ngữ viết : Đức Khổng-Tử nói người quân-tử có 3 ( việc không ) tha thứ : 1 .có vua chẳng thể phụng sự , có bề tôi mà mong sai khiến là việc không tha thứ . 2 .có cha mẹ chẳng thể hiếu dưỡng , có con mà mong báo đáp là việc không tha thứ . 3 .Có anh mà chẳng thể kính trọng , có em mà mong thuận theo là việc không tha thứ . Kẻ sĩ có thể làm rõ gốc của 3 ( việc không ) tha thứ đó thì có thể gọi là đoan chính bản thân vậy .</t>
-  </si>
-  <si>
-    <t>Sách Lễ Ký viết : Cho nên người quân-tử có hết ở mình sau mới cầu ở người , không có hết ở mình thì sau không ( thể cầu ) hết ở người .</t>
-  </si>
-  <si>
-    <t>Sách Tôn Khanh Tử viết : Người quân-tử có thể làm việc đáng quý trọng , nhưng không thể khiến người nhất định quý trọng mình . Có thể làm việc đáng tin tưởng , nhưng không thể khiến người nhất định tin tưởng mình . Có thể làm việc rất được trọng dụng , nhưng không thể khiến người nhất định trọng dụng mình . Nên người quân-tử xấu hổ khi chẳng tu học , chẳng xấu hổ khi thấy người ghét mình . Xấu hổ chẳng có chữ tín , chẳng xấu hổ khi thấy người không tin tưởng mình . Xấu hổ chẳng được giỏi , chẳng xấu hổ khi thấy người không trọng dụng mình . Thế nên họ không bị cám dỗ bởi lời khen ngợi , không sợ những lời chê bai , tuân theo đạo đức mà đi , tự đoan chánh mình , chẳng bị ngoài vật làm cho nghiêng lệch . Đó gọi là người quân-tử chân thành vậy .</t>
-  </si>
-  <si>
-    <t>Sách Hàn Tử viết : Vinh quang hay nhục nhã là trách nhiệm tại mình không phải tại người .</t>
-  </si>
-  <si>
-    <t>Sách Chu Dịch viết : Quẻ Gia-Nhân Tượng viết : người quân-tử lấy lời nói của người vật mà hành động theo lẽ thường .</t>
-  </si>
-  <si>
-    <t>Sách Yến Tử viết : Áo mũ đúng nên triều-đình không có y phục khác thường ; Lời nói hợp nghĩa nên dưới không báo cáo dối trên ; Thân hành động thích hợp thì  trị lý việc công bằng nên nước không có bè đảng a dua . Ba việc đó người quân-tử thường làm vậy .</t>
-  </si>
-  <si>
-    <t>Sách Tôn Khanh Tử viết : Nên âm thanh dù nhỏ lý nào chẳng ai nghe , hành động dù che dấu lý nào chẳng có hình dáng , ngọc ở núi mà cây cỏ thấm nhuận ấy , chổ sâu sinh ra châu ngọc mà ven núi không khô héo ấy . Làm thiện tích lũy , lý nào có chuyện người không nghe ư ?  .</t>
-  </si>
-  <si>
-    <t>Sách Hậu Hán Thư viết : Đế ( Quang Vũ Đế ) nói : kiến lập việc lớn chẳng đố kị oán nhỏ .</t>
-  </si>
-  <si>
-    <t>Sách Giả Tử viết : Đức Lão-Tử nói : lấy đức báo oán .</t>
-  </si>
-  <si>
-    <t>Sách Chu Dịch viết : Thoán viết : Quẻ Khiêm hanh thông , đạo trời giúp dưới mà sáng láng , đạo đất thấp mà đi lên trên , đạo trời giảm chỗ đầy mà tăng ích chỗ thiếu , đạo đất biến đổi chỗ đầy mà chảy vào chỗ thiếu , quỷ thần làm hại chỗ đầy mà ban phúc chỗ thiếu , đạo người ghét chỗ đầy mà thích chỗ thiếu . Khiêm ( tốn ) tôn quý mà sáng lạng , thấp mà không thể vượt qua , đó là cái chung cuộc của người quân-tử vậy .</t>
-  </si>
-  <si>
-    <t>Sách Thượng Thư viết : Chỉ đức hạnh mới cảm động trời đất , dù người xa mấy cũng đến quy phục . Tự mãn sẽ chiêu lấy tổn thất , khiêm nhượng nhận nhiều ích lợi , đó là đạo trời .</t>
-  </si>
-  <si>
-    <t>Sách Chu Dịch viết : Thoán viết : Người quân-tử lao nhọc mà khiêm nhường muôn dân phục vậy .</t>
-  </si>
-  <si>
-    <t>Sách Thượng Thư viết : Đức hạnh ngày càng tiến , các nước đều đến quy phục . Tự mãn cửu-tộc ( 9 họ ) bèn ly biệt .</t>
-  </si>
-  <si>
-    <t>Sách Thuyết Uyển viết : Nên Kinh Dịch viết : có một đạo , lớn đủ để giữ thiên-hạ , đủ để giữ quốc-gia , nhỏ đủ để giữ bản thân đó là đức khiêm nhường vậy .</t>
-  </si>
-  <si>
-    <t>Sách Thượng Thư viết : Nếu lên cao ắt bắt đầu từ chỗ thấp , nếu đi xa ắt bắt đầu từ chỗ gần .</t>
-  </si>
-  <si>
-    <t>Sách Lão Tử viết : Sông biển sở dĩ có khả nằng làm vua của trăm suối , là vì nó khéo đứng dưới thấp .</t>
-  </si>
-  <si>
-    <t>Sách Trung Luận viết : Người quân-tử thường để lòng dạ rỗng không , dung mạo thì cung kính , không tìm lỗi lầm quần chúng để cho mình tài trên mọi người . Thường xem người khác đều tài năng , tự xem mình kém tài năng . Nên người muốn khuyên bảo gì thì chẳng chán ghét , ai dạy gì thì chẳng mỏi mệt .</t>
-  </si>
-  <si>
-    <t>Sách Thượng Thư viết : Ngươi không khoe khoang , thiên-hạ chẳng ai cùng ngươi tranh tài . Ngươi không khoe công , thiên-hạ chẳng ai cùng ngươi tranh công .</t>
-  </si>
-  <si>
-    <t>Sách Ngụy Chí viết : Thường người có việc thiện , ít khi chẳng tự khoe công . Có tài năng , ít khi chẳng tự khoe khoang . Khoe công thì che lấp người , khoe khoang thì lấn hiếp người . Che lấp người lại bị người che lấp lại , lấn hiếp người lại bị người lấn hiếp lại .</t>
-  </si>
-  <si>
-    <t>Sách Luận Ngữ viết : Đức Khổng-Tử nói : ví như người có tài năng tốt đẹp như Chu-Công , mà  có tính kiêu ngạo lại keo kiệt , thì thật những thứ khác ta chẳng cần xem nữa .</t>
-  </si>
-  <si>
-    <t>Sách Chu Dịch viết : Rồng ở chổ cùng cực có sự ăn năng nghĩa là sao ?  . Đức Khổng-Tử nói : tôn quý mà không ngôi vị , cao mà không dân , người tài ở ngôi vị thấp kém mà không người phụ giúp , cho nên hành động có sự ăn năng vậy . “Kháng” là nói về hạng người , biết tiến mà không biết thoái , biết còn mà không biết mất , biết được mà không biết táng . Đó duy chỉ có bậc thánh-nhân sao ?  , tiến thoái , được mất mà chẳng mất sự chánh đáng , đó duy chỉ có bậc thánh-nhân sao ?  .</t>
-  </si>
-  <si>
-    <t>Sách Thượng Thư viết : Khi bậc thánh không suy nghĩ thì thành người ngông cuồng , khi người ngông cuồng biết khắc chế suy nghĩ thì làm bậc thánh .</t>
-  </si>
-  <si>
-    <t>Sách Ngô Chí viết : Truyện viết rằng : theo thiện như leo cao , theo ác như núi lở .</t>
-  </si>
-  <si>
-    <t>Sách Lễ Ký viết : Thiên Khúc Lễ viết rằng ; “ không gì chẳng cung kính , dáng vẻ trang trọng như suy tư , lời nói an định , yên ổn mọi người vậy .</t>
-  </si>
-  <si>
-    <t>Sách Thuyết Uyển viết : Địa vị càng cao thì ý nghĩ càng khiêm hạ , quan tước càng hiển đạt thì lòng càng thấy thấp kém , bổng lộc càng hậu hĩnh thì thận trọng chẳng dám nhận lấy .</t>
-  </si>
-  <si>
-    <t>Sách Văn Tử viết : Sinh ra mà tôn quý thì có tính kiêu ngạo , sinh ra mà giàu có thì có tính xa xỉ . Nên người giàu sang chẳng rõ đạo lý để tự xét mình mà có thể không làm việc sai trái thì rất ít vậy .</t>
-  </si>
-  <si>
-    <t>Sách Chu Dịch viết : Hào cửu tam nói : người quân-tử suốt ngày ( làm việc ) chăm chỉ , chiều hôm hằng kinh sợ gắng sức để không lầm lỗi nghĩa là sao ?  . Đức Khổng-Tử nói : người quân-tử tiến-đức , tu-nghiệp , nết trung-tín là để tiến-đức , sửa lời lập điều thành thực là cư nghiệp . Cho nên ở ngôi vị trên không kiêu căng , ở ngôi vị dưới không ưu buồn . Nên ( làm việc ) chăm chỉ nhân lúc đó mà cảnh giác , tuy nguy hiểm không lầm lỗi vậy .</t>
-  </si>
-  <si>
-    <t>Sách Lễ Ký viết : Đạo đó , không thể xa lìa ta giây phút nào , có thể xa lìa thì chẳng phải đạo vậy . Cho nên người quân-tử phải răn mình thận trọng ở chổ không ai trông thấy , phải sợ hãi ở chổ không ai nghe thấy . Đừng cho rằng che đậy mà không hiển lộ , đừng cho rằng dấu đi mà không ai thấy . Nên người quân-tử phải thận trọng khi ở một mình vậy .</t>
-  </si>
-  <si>
-    <t>Sách Thi Tử viết : Làm việc có 4 tiêu chuẩn : một là suy nghĩ không quên nhân từ , hai  dùng trí huệ không quên đạo nghĩa , ba làm việc không quên hết lòng , bốn nói chuyện không quên thành thực . Cẩn thận giữ 4 tiêu chuẩn cho bản thân đến suốt đời , thì công danh sẽ đến theo . Giống như hình theo bóng , âm thanh phát ra vọng lại vậy .</t>
-  </si>
-  <si>
-    <t>Sách Trung Luận viết : Người quân-tử miệng không nói lời đùa giỡn , thì lời nói ắt có phòng ngừa . Bản thân không đùa giỡn khi làm việc , thì làm việc ắt có kiểm soát . Lời nói ắt có phòng ngừa , làm việc ắt có kiểm soát dẫu thê-thiếp gần gũi cũng không thể khinh thường . Dù là bạn bè gần gũi cũng không thể coi thường . Ấy không phải là tức giận mà dạy nết tốt cho chốn khuê-môn , không răn dạy mà thay đổi phong hóa ( tốt đẹp ) cho xóm làng , như thế mới xứng là bậc đại-nhân làm chánh mình mà sau mọi vật chánh , đại khái gọi đó là thế vậy .</t>
-  </si>
-  <si>
-    <t>Sách Khổng Tử Gia Ngữ viết : Răn lắm thay !  , không nói nhiều , nói nhiều thì lắm thua thiệt . Không nhiều chuyện , nhiều chuyện thì lắm họa hoạn . Lúc an vui ắt răn mình , không làm chuyện đến nỗi hối hận .</t>
-  </si>
-  <si>
-    <t>Sách Chu Dịch viết : Đức Khổng Tử nói loạn sinh ra là do ngôn ngữ dẫn tới . Vua không cẩn mật thì mất bề tôi , bề tôi không cẩn mật thì mất thân , việc cơ-sự không cẩn mật thì hại thành công . Cho nên người quân-tử lấy sự thận trọng , cẩn mật mà không lộ ra ngoài vậy .</t>
-  </si>
-  <si>
-    <t>Sách Lão Tử viết : Người dễ hứa , ắt ít tin được . Kẻ xem gì cũng dễ , ắt gặp nhiều việc khó . Vậy nên bậc thánh-nhân xem việc gì cũng khó , nên trọn đời không gặp việc gì khó cả .</t>
-  </si>
-  <si>
-    <t>Sách Luận Ngữ viết : Đức Khổng Tử nói có 3 loại sở thích lợi ích , 3 loại sở thích tổn hại . * thích dùng lễ nhạc đều tiết cuộc sống , thích nói điều tốt của người , thích có bạn hiền đó là 3 loại sở thích lợi ích . + thích kiêu ngạo , thích chơi bời phóng túng , thích tiệc tùng đó là 3 loại sở thích tổn hại .</t>
-  </si>
-  <si>
-    <t>Sách Chu Dịch viết : Người quân-tử lấy tiết kiệm để dưỡng đức tránh nạn , không thể lấy lợi lộc để làm vinh quang .</t>
-  </si>
-  <si>
-    <t>Sách Lễ Ký viết : Nên người quân-tử giao tiếp nhạt như nước , kẻ tiểu nhân giao tiếp nồng như rượu nếp . Người quân-tử đạm bạc để thành công , kẻ tiểu-nhân ngọt ngào để hư hoại .</t>
-  </si>
-  <si>
-    <t>Sách Khổng Tử Gia Ngữ viết : Nên nói cùng ở với người thiện như vào nhà trồng hoa lan , loa chi lâu ngày mà không hay biết cái mùi thơm đó , dần dần cùng hóa theo nó hồi nào không hay . Ở cùng với người không thiện như vào hàng quán bán cá mắm , lâu ngày mà không hay biết cài mùi hôi thúi đó , lại cũng hóa theo nó hồi nào không hay . Nên thấy người quân-tử ắt phải thận trọng chọn người ở cùng mình vậy .</t>
-  </si>
-  <si>
-    <t>Sách Luận Ngữ viết : Đức Khổng-Tử nói bạn ích lợi có 3 loại , bạn tổn hại có 3 loại . * bạn chính trực , bạn thành tín , bạn hiểu biết nhiều đó là 3 loại bạn lợi ích . + bạn khéo giả bộ , bạn khéo lẻo mép , bạn khéo nịnh hót đó là 3 loại bạn tổn hại .</t>
-  </si>
-  <si>
-    <t>Sách Thi Tử viết : Học không mệt mỏi là để trị mình vậy . Dạy không chán nản là để trị người vậy .</t>
-  </si>
-  <si>
-    <t>Sách Chu Dịch viết : Người quân-tử học tập để tích lũy kiến thức , tra hỏi để biện bác rõ ràng , lấy sự khoan dung để ăn ở , lấy đức nhân từ để làm việc .</t>
-  </si>
-  <si>
-    <t>Sách Tiềm Phu Luận viết : Người thợ muốn làm tốt công việc ắt trước có đồ nghề sắc bén , kẻ sĩ muốn tuyên dương đạo nghĩa ắt trước phải đọc nhiều sách . Kinh Dịch viết : người quân-tử lấy ghi nhớ nhiều lời hay xưa , nết tốt cũ , để nuôi dưỡng đức của mình .</t>
-  </si>
-  <si>
-    <t>Sách Tăng Tử viết : Thầy Tăng-Tử nói người quân-tử phản đối việc ác , cầu thấy lỗi mình , nỗ lực làm những việc chưa có khả năng , bỏ đi lòng tư-dục , làm việc theo đạo nghĩa , như thế có thể gọi là học vậy .</t>
-  </si>
-  <si>
-    <t>Sách Luận Ngữ viết : Đức Khổng-Tử nói : ta đã từng cả ngày không ăn , suốt đêm không ngủ  chỉ để suy tư những việc vô ích , chẳng bằng học vậy .</t>
-  </si>
-  <si>
-    <t>Sách Tôn Khanh Tử viết : Thấy việc thiện ắt để nó trong lòng , thấy việc không thiện ắt tự phản tỉnh . Nên người nói lỗi ta mà đúng đó là thầy ta , người khen ta mà đúng đó là bạn ta , kẻ nịnh bợ ta đó là kẻ hủy hoại ta .</t>
-  </si>
-  <si>
-    <t>Sách Lão Tử viết : Cây to một vòng ôm , khởi sinh tại gốc nhỏ . Đài cao lớn chín tầng , khởi đầu nhúm đất con . Đi xa đến nghìn dặm , khởi đầu một bước chân .</t>
-  </si>
-  <si>
-    <t>Sách Tôn Khanh Tử viết : Nên không tích lũy nữa bước chân thì không đi đến cả ngàn dặm , không tích chứa những dòng chảy nhỏ thì không thể thành sông biển .</t>
-  </si>
-  <si>
-    <t>Sách Chu Dịch viết : ( Quẻ Phong Lôi Hằng ) Hào cửu tam : chẳng thường giữ đức tốt , có thể cái nhục sẽ theo . ( Tượng viết ) chẳng thường giữ đức tốt , không có chổ dung thân vậy .</t>
-  </si>
-  <si>
-    <t>Sách Chu Dịch viết : ( Quẻ Sơn Hỏa Bí ) Tượng viết xem thiên-văn để xét bốn mùa , xem văn vẻ người để giáo hóa thành công thiên-hạ .</t>
-  </si>
-  <si>
-    <t>Sách Chu Dịch viết : ( Quẻ Lôi Địa Dự ) Trời đất lấy thuận ( tự nhiên ) để động , nên mặt trời , mặt trăng không vượt quá , mà bốn mùa không biến đổi . Bậc thánh-nhân lấy thuận ( nhân tình ) để động , thì hình-phạt đơn giản , mà dân phục . Thời của quẻ Dự , nghĩa lớn lắm thay !  .</t>
-  </si>
-  <si>
-    <t>Sách Chu Dịch viết : ( Văn Ngôn viết ) Quẻ Khôn đến nhu thuận mà động . Cứng đến tĩnh mà đức vuông vắn . Sau được làm chủ mà có giữ đạo thường . Hàm chứa vạn vật mà biến hóa vẻ vang . Đạo Khôn thuận theo ư ?  . Vâng mệnh trời mà làm đúng thời .</t>
-  </si>
-  <si>
-    <t>Sách Chu Dịch viết : ( Quẻ Kiền viết ) Ôi bậc đại-nhân ấy cùng trời đất hòa hợp đức . Cùng mặt trời , mặt trăng hòa hợp ánh sáng . Cùng bốn mùa hòa hợp thứ tự . Cùng quỷ-thần hòa hợp tốt xấu . Ở trước trời mà không trái , ở sau trời mà vâng theo thiên thời .</t>
-  </si>
-  <si>
-    <t>Sách Chu Dịch viết : ( Hệ Từ Thượng viết ) Đức Khổng-Tử nói : Chổ trợ giúp của trời là thuận theo vậy . Chổ trợ giúp của người là thành tín vậy . Đi vào thành tín thì suy tư đến thuận theo . Cho nên tự trời giúp đó tốt lành , không gì không lợi .</t>
-  </si>
-  <si>
-    <t>Sách Thi Tử viết : Thường đạo lý đem ( dạy ) cho người thì khó mà làm thì dễ . Cho nên thầy Tăng-Tử nói : “cha mẹ thương thì vui mà chẳng quên , cha mẹ ghét thì sợ mà không bỏ” . Như thế thì yêu và ghét đều có thể làm trọn hạnh hiếu không ( nhất thiết phải ) chọn lựa vậy . Ông Sử-Thu nói : “ vua mến mà gần gủi , thì hết sức cung kính đến nhún nhường . Còn vẻ mặt mà xa cách , thì cung kính mà không oán giận” . Như thế thì gần gủi và xa cách đều có thể làm trọn lòng trung không ( nhất thiết phải ) chọn lựa vậy . Đức Khổng-Tử nói : ” tự vui sướng khi dùng ổn-quát uốn cong vật cho thẳng lại , mình thẳng mà không làm thẳng người , việc tốt phế đi mà chẳng u sầu , đó là hạnh tốt của ông Cừ-Bá-Ngọc” . Như thế thì hưng thịnh và phế bỏ đều có thể làm thành việc tốt không ( nhất thiết phải ) chọn lựa vậy . Ông Khuất-Hầu-Phụ nói : ”người hiền dễ nhận biết , xem lúc giàu có phân chia của cải ra sao , tiến cử người phát đạt thế nào , lúc khốn cùng xem chổ có nhận của bất nghĩa không” . Như thế thì khốn cùng và phát đạt đều có thể trở thành hiền-nhân không ( nhất thiết phải ) chọn lựa vậy . Cho nên yêu , ghét , gần gủi , xa cách , phế bỏ , hưng thịnh , khốn cùng , phát đạt đều có thể thành tựu đạo nghĩa .</t>
-  </si>
-  <si>
-    <t>Sách Dục Tử viết : Người quân-tử chẳng cùng người mưu tính thì thôi . Còn nếu cùng người mưu tính thì không thể nào trái đạo nghĩa . Nên người quân-tử mưu tính giỏi ắt dùng đạo nghĩa , còn chẳng giỏi ắt tiếp nhận . Có năng lực ắt làm hết mình , còn không có năng lực ắt thu nhận . Có năng lực ắt thành tín , còn không có năng lực thì nhìn nhận thành tín . Người quân-tử không trái đức nhân , chẳng nói ra lời lẽ mà chỉ thực hiện bằng hành động . Nên việc sai trái làm cho đúng lại , còn việc xấu ác thì làm cho tốt lại mà đạo đức tỏ rõ vậy .</t>
-  </si>
-  <si>
-    <t>Sách Chu Dịch viết : ( Quẻ Địa Phong Thăng ) Tượng viết : trong đất sinh cây là quẻ Thăng . Người quân-tử coi đó để thuận theo đức , tích nhỏ để thành cao lớn .</t>
-  </si>
-  <si>
-    <t>Sách Văn Tử viết : Bậc đế quý trọng đức , bậc vương tôn trọng nghĩa , bậc bá bức ép theo lý . Đạo hẹp thì sao người trí tín nhiệm ?  , đức mỏng thì sao sử dụng hình phạt ?  , trí cạn thì sao làm việc việc kĩ càng ?  .</t>
-  </si>
-  <si>
-    <t>Sách Lục Thao viết : Trời có mùa , đất có của cải , có thể cùng người cùng hưởng là lòng nhân vậy , lòng nhân là chỗ cho thiên-hạ quy về . Khiến người thoát chết , giải thoát người lúc khó khăn , cứu người lúc hoạn nạn , giúp người lúc nguy cấp đó là đức vậy , đức là chỗ cho thiên-hạ quy về . Cùng người cùng lo , cùng vui , cùng thích , cùng ghét đó là nghĩa , nghĩa là chỗ cho thiên-hạ quy về . Thường người ghét chết mà thích sống , thích được mà hướng về lợi ích , có thể sinh lợi ( ích cho mọi người ) là đạo . đạo là chỗ cho thiên-hạ quy về .</t>
-  </si>
-  <si>
-    <t>Sách Lục Thao viết : Vua Văn-Vương hỏi Thái-Công rằng : đạo của bậc thánh-nhân đời trước khanh có thể nói ta nghe được không ?  . Thái-Công đáp : thưa đạo nghĩa thắng lòng dục thì tốt đẹp , lòng dục thắng đạo nghĩa thì diệt vong , cung kính thắng khinh mạn thì tốt lành , khinh mạn thắng cung kính thì mất mát . Nên đạo nghĩa thắng khinh mạn thì thịnh vượng , khinh mạn thắng cung kính thì diệt vong .</t>
-  </si>
-  <si>
-    <t>Sách Thuyết Uyển viết : Đạo , đức , nhân , nghĩa an định mà thiên-hạ chánh đáng .</t>
-  </si>
-  <si>
-    <t>Sách Văn Tử viết : Có đạo thì dùng lý lẽ , luật pháp tuy ít nhưng đủ để trị vậy . Vô đạo thì đứng nhìn , mệnh lệnh tuy nhiều nhưng đủ để loạn vậy .</t>
-  </si>
-  <si>
-    <t>Sách Tả Truyện viết : Trời trái mùa thì gây thiên tai , đất trái vạn vật thì có chuyện quái dị , người trái đức thì loạn . Loạn thì chuyện quái dị và thiên tai sinh ra .</t>
-  </si>
-  <si>
-    <t>Sách Ngụy Chí viết : Hiếu thảo , cung kính , lòng nhân , việc nghĩa , cả trăm hạnh tốt nó đứng đầu và nên lấy đó gây dựng bản thân làm gốc . Có hiếu thảo , cung kính thì dòng họ an định . Có lòng nhân , việc nghĩa thì làng xóm coi trọng . Các Hạnh tốt đó thành ở trong , danh tiếng rõ rệt ở ngoài vậy .</t>
-  </si>
-  <si>
-    <t>Sách Ngụy Chí viết : Đạo của người làm con , chẳng gì lớn hơn bằng bảo vệ thân , giữ vẹn toàn hạnh tốt để hiển danh cha mẹ .</t>
-  </si>
-  <si>
-    <t>Sách Lễ Ký viết : Thầy Tăng-Tử nói con hiếu phụng dưỡng cha mẹ già , phải làm vui tai mắt , an ổn chốn ngủ , lấy việc ăn uống phụng dưỡng hết lòng . Cha mẹ yêu mến gì thì mình cũng yêu mến , cha mẹ kính trọng ai thì mình cũng kính trọng .</t>
-  </si>
-  <si>
-    <t>Sách Xương Ngôn viết : Người phụng sự cha mẹ , không được bỏ cha mẹ qua một bên , chẳng chán nản khi làm việc khổ nhục , vâng lời cha mẹ nói , tuân theo lòng mong muốn của cha mẹ . Khi thân thể ( cha mẹ ) chẳng an ổn thì chẳng được ngủ , đến khi bữa cơm ( cha mẹ ) không ăn no thì chẳng được ăn . Siêng năng làm như thế đến khi thân này chết đi .</t>
-  </si>
-  <si>
-    <t>Sách Tăng Tử viết : Lễ thì dùng sức lực , kính thì lo hết lòng . Kinh Thi nói : ”tối thì ngủ , sáng dậy ngay . Chớ làm cha mẹ nhục lây vì mình .” Chẳng để cha mẹ mang nhục đó là nết hiếu của người quân-tử vậy .</t>
-  </si>
-  <si>
-    <t>Sách Hiếu Kinh viết : Thầy Tăng-Tử nói như việc từ-ái , cung-kính , làm an lòng cha mẹ , làm rạng danh tiếng ( ở đời ) thì học trò nghe thầy giảng . Dám hỏi con nghe theo lệnh cha thì có thể gọi là hiếu không ?  . Đức Khổng-Tử đáp : “ sao nói thế ?  , sao nói thế ?  . Xưa kia thiên-tử có 7 người bề tôi can gián , tuy làm việc vô đạo chẳng mất thiên-hạ . Chư hầu có 5 người bề tôi can gián , tuy làm việc vô đạo chẳng mất nước . Quan đại-phu có 3 người bề tôi can gián , tuy làm việc vô đạo chẳng mất gia đình . Kẻ sĩ có bạn can gián thì thân chẳng mất danh tốt . Cha có con can gián thì thân chẳng mắc tội bất nghĩa . Nên đang làm việc bất nghĩa thì phải can gián . Sao nghe theo lệnh cha lại được cho là hiếu ?  .</t>
-  </si>
-  <si>
-    <t>Sách Ngụy Chí viết : Anh em như tay phải , tay trái vậy . Thí như người muốn đánh nhau mà chặt đứt tay phải rồi nói ta ắt thắng , như thế được sao ?  . Bỏ đi anh em mà chẳng gần gũi , vậy thiên-hạ ai chịu gần gũi .</t>
-  </si>
-  <si>
-    <t>Sách Viên Tử Chính Thư viết : Cái gọi là nhân từ là yêu người vậy , yêu người là hạnh tốt của bậc làm cha mẹ , bậc làm cha mẹ của dân ( là vua có hạnh tốt đó ) , nên có thể hưng khởi những ích lợi cho thiên-hạ . Cái gọi là việc nghĩa , là có thể nhận rõ lý của sự vật , thông rõ được lý của sự vật , nên có thể trừ đi những mối hại của thiên-hạ . Việc hưng khởi những ích lợi , trừ đi những mối hại đó sự nghiệp của bậc hiền-nhân vậy .</t>
-  </si>
-  <si>
-    <t>Sách Hậu Hán Thư viết : Thường người sở dĩ tôn quý hơn cầm thú là có lòng nhân-ái , biết kính nhau trong công việc .</t>
-  </si>
-  <si>
-    <t>Sách Hậu Hán Thư viết : Lòng nhân là gốc của hạnh tốt , lòng trung là chủ của việc nghĩa . Người có lòng nhân chẳng bỏ bạn cũ , người có lòng trung chẳng quên vua , đó là những hạnh tốt cao quý vậy .</t>
-  </si>
-  <si>
-    <t>Sách Mao Thi viết : Nhà Chu trung hậu , lòng nhân từ đến cỏ cây , nên trong có thể hòa mục cửu-tộc , ngoài tôn trọng việc người già , nuôi dưỡng người già xin ý kiến họ , để thành công ấy là phúc-lộc vậy .</t>
-  </si>
-  <si>
-    <t>Sách Thuyết Uyển viết : Bậc thánh-nhân ở thiên-hạ giống như đứng trên một triều-đường . Nay triều-đường có đông người đang ăn uống , như có một người lẽ loi tự nhiên hướng vào tường mà khóc , thì hẳn người cả một triều-đường ấy đều chẳng vui vậy . Bậc thánh-nhân ở thiên-hạ cũng giống như đứng trên một triều-đường . Có một người chẳng được chỗ thích hợp , thì con hiếu chẳng dám lấy lễ vật mà dâng lên vậy .</t>
-  </si>
-  <si>
-    <t>Sách Thượng Thư viết : Đức độ của nhà vua không lẫm lỗi , đối với người rất giản dị , cai trị rất khoan hồng ; Phạt tội không phạt đến người nối dõi , ban thưởng thì đến cả đời sau . Người lỡ phạm tội không làm lớn ra , người cố ý phạm tội không làm nhỏ lại ; Tội còn nghi ngờ thì phạt nhẹ , công lao còn nghi ngờ thì trọng thưởng cho ; Như giết lầm một người vô tội , thì thà không làm vậy .</t>
-  </si>
-  <si>
-    <t>Sách Luận Ngữ viết : Thầy Tử-Cống hỏi ( thầy ) có một lời khuyên ( nào cho con ) mà có thể thực hành cho bản thân đến suốt đời không ?  . Đức Khổng-Tử đáp “ là chữ thứ ( suy bụng ta ra bụng người ) ư !  , điều gì mình không muốn , thì đừng làm cho người .</t>
-  </si>
-  <si>
-    <t>Sách Văn Tử viết : Bậc thánh-nhân lấy nhân-nghĩa làm mực thước , trúng mực thước thì gọi là người quân-tử , chẳng trúng thì gọi là kẻ tiểu-nhân . Người quân-tử tuy chết mà danh tiếng không mất , kẻ tiểu-nhân tuy có được thế lực mà tội lỗi không thể tiêu trừ . Tay trái chiếm giữ mưu tính việc thiên-hạ , mà tay phải dùng dao đâm vào cổ họng , dù kẻ ngu cũng chẳng làm vì họ quý bản thân huống hồ là người thiên-hạ . Chết vì vua , vì cha mẹ là việc khó , thấy cái chết giống như trở về đạo nghĩa , vì nó trọng hơn thân vậy . Xem cái lợi lớn của thiên-hạ so với bản thân thì nhỏ , bản thân rất quan trọng vậy mà so với đạo nghĩa vì sao lại xem nhẹ ?  . Đó là lấy nhân-nghĩa làm chuẩn mực vậy .</t>
-  </si>
-  <si>
-    <t>Sách Thể Luận viết : Đức Khổng-Tử nói : ( làm việc ) bất nghĩa mà được giàu lại sang , đối với ta thì xem nó như mây bay vậy .</t>
-  </si>
-  <si>
-    <t>Sách Luận Ngữ viết : Đức Khổng-Tử nói người quân-tử không lìa xa lòng nhân dù trong một bữa ăn . Dẫu lúc vội vàng ắt giữ vững như thế , hay gặp cảnh nguy khốn ắt giữ vững như thế .</t>
-  </si>
-  <si>
-    <t>Sách Ngụy Chí viết : Thầy Mạnh-Kha ( Mạnh-Tử ) nói giết một người vô tội để chiếm lấy thiên-hạ , người nhân từ không làm vậy .</t>
-  </si>
-  <si>
-    <t>Thầy Mạnh Tử nói : Chưa có người có lòng nhân mà bỏ đi cha mẹ , chưa có người có đạo nghĩa mà để việc của vua ra sau .</t>
-  </si>
-  <si>
-    <t>Sách Văn Tử viết : Có công lao mà lìa nhân-nghĩa thì liền bị nghi ngờ , có tội mà không mất đi lòng nhân từ ắt được tín nhiệm . Vậy nhân-nghĩa là đạo thường nên thuận theo , là danh tước tôn quý của thiên-hạ . Dù có được mưu kế thích đáng , để lo toan giải trừ những tai họa trước mắt , hay suy tính cho đất nước trường tồn những công việc đó nếu lìa nhân-nghĩa thì dù có thành tích ắt sẽ không được toại nguyện vậy .</t>
-  </si>
-  <si>
-    <t>Sách Phó Tử viết : Mở đến con đường công bằng , giữ vững tấm lòng bình đẳng , thi hành hình mẫu lớn đến cùng , chỉ có chân thành mà thôi vậy . Dốc lòng chân thành thì trời đất cảm động huống hồ là người !  .</t>
-  </si>
-  <si>
-    <t>Sách Phó Tử viết : Thường người làm bậc trên , mà dốc hết lòng chân thành , mở ra thành- tín để đối đãi cấp dưới thì người bụng thành-tín sẽ tự nhiên vui vẻ mà giúp sức , không thành-tín tự nhiên thẹn đỏ mặt mà ( cấp dưới không ) hồi đáp ý kiến vậy .</t>
-  </si>
-  <si>
-    <t>Sách Ngụy Chí viết : Lòng tin của dân là bảo vật lớn của quốc gia . Đức Trọng-Ni nói : xưa nay ai không chết , không có lòng tin ( của dân thì ) chẳng làm được gì .</t>
-  </si>
-  <si>
-    <t>Sách Điển Ngữ viết : Vua tín nhiệm bề tôi , như thân tin tưởng tay . Bề tôi phụng sự vua lại nên như tay buộc với thân . An định thì chung vui , đau khổ thì cùng buồn . Đến trên dưới đồng tâm để trị lý việc thế-sự , thì chẳng đợi mệnh trời mà tự siêng năng , chẳng cầu vẻ mặt mà tự thân thiết là sao ? là tin tưởng nhau hết lòng rõ rệt vậy .</t>
-  </si>
-  <si>
-    <t>Sách Luận Ngữ viết : Thầy Tử-Trương hỏi về cách đi lại cho trót lọt . Đức Khổng-Tử đáp : “Lời nói trung-tín , làm việc dốc sức cung kính , tuy ở nước mọi rợ vẫn đi lại trót lọt . Lời nói chẳng trung-tín , làm việc chẳng dốc sức cung kính , tuy ở quê hương há đi lại trót lọt .” Thầy Tử-Trương liền chép hai điều ấy vào đai áo .</t>
-  </si>
-  <si>
-    <t>Sách Luận Ngữ viết : Đức Khổng-Tử nói : người mà không có chữ tín ( ta ) chẳng biết họ làm được gì . Như xe bò lớn không có nghê ( đòn ngang máng bò ) , như xe ngựa nhỏ không có ngột ( đòn cong máng ngựa ) , như vậy làm sao có thể đi được ?  .</t>
-  </si>
-  <si>
-    <t>Sách Tả Truyện viết : Chữ tín không được biết , đạo nghĩa không chổ đứng .</t>
-  </si>
-  <si>
-    <t>Sách Chu Dịch viết : Người quân tử cung kính để lấy sự thẳng thắng bên trong , làm việc nghĩa để lấy sự vuông-vắn bên ngoài . Cung kính và làm việc nghĩa được gây dựng mà đạo đức không lẻ loi .</t>
-  </si>
-  <si>
-    <t>Sách Luận Ngữ viết : Đức Khổng-Tử nói nếu giữ thân mình chánh , thì theo làm chính trị có khó gì ?  . Còn thân mình không chánh , thì sao làm người khác chánh được ?  .</t>
-  </si>
-  <si>
-    <t>Sách Thi Tử viết : Trời che phủ , đất nâng đỡ , bậc thánh-nhân sửa trị . Bậc thánh-nhân như mặt trời , mặt trời nhìn tròn một thước đo , ánh sáng chiếu tràn đầy cả trời đất . Bậc thánh-nhân thân thể nhỏ , mà soi sáng đến xa , bậc thánh-nhân làm mình chánh đáng mà bốn phương an trị vậy .</t>
-  </si>
-  <si>
-    <t>Sách Hán Thư viết : Đức Khổng-Tử là một người bình thường , lấy niềm vui trong học đạo , làm chánh bản thân không biếng nhác . Nên trong bốn biển , vua trong thiên-hạ nếu không có lời dạy của đức Khổng-Tử thì không thể chiết-trung ( việc làm đúng đắn vừa phải ) .</t>
-  </si>
-  <si>
-    <t>Sách Hán Thư viết : Nên không có lòng nhân-ái thì không thể tụ hợp người , không thể tụ hợp người thì không thể thắng vạn vật ( tự nhiên ) , không thể thắng vạn vật thì việc ăn uống không đầy đủ . Tụ hợp người mà không đầy đủ , lòng tranh nhau khởi lên , bậc thánh-nhân xưa kia rất cao siêu , nên trước thi hành đức kính-nhượng , bác-ái , nên lòng mọi người vui thích mà làm theo . Làm theo thì thành quần , thế rồi họ làm vua . Khắp nơi quy thuận , nhờ thế rồi họ làm đế-vương vậy .</t>
-  </si>
-  <si>
-    <t>Sách Thượng Thư viết : Làm vua biết sửa mình , đức tốt hòa hiệp cả người dưới , ấy là vị vua sáng suốt . Xưa tiên-vương coi kẻ khốn cùng như con , hay gia ơn cho , dân đều cảm phục không ai không vui lòng . Thờ tổ tiên phải có hiếu , tiếp người dưới phải cung kính . Coi việc xa rất minh sát , nghe lời nói hay rất tinh thông .</t>
-  </si>
-  <si>
-    <t>Sách Hán Thư viết : Chưa có ( vua ) thân sửa chánh đáng mà bề tôi , cấp dưới gian tà . Chưa có chốn khuê-môn an trị mà thiên-hạ loạn . Chưa có người thân cận trái phải chánh đáng mà trăm quan cong quẹo . Chưa có việc người có công được thưởng ở trước mặt , nhiều người hiền được xếp đặt ở các chức quan mà nước không an trị . Chưa có ( vị vua ) đức dầy quan lại lương thiện mà dân chúng làm phản .</t>
-  </si>
-  <si>
-    <t>Sách Ngụy Chí viết : Ngăn cái lạnh chẳng gì bằng mặc nhiều áo lông cừu , ngừa phỉ báng chẳng gì bằng tự tu dưỡng . Đó là lời nói đáng tin vậy .</t>
-  </si>
-  <si>
-    <t>Sách Tăng Tử viết : Bản thân người quân-tử thiện thì cũng vui với cái thiện của người . Bản thân tài giỏi thì cũng vui với sự tài giỏi của người . Người quân-tử thích người làm thiện mà chẳng thúc giục , người làm việc bất thiện mà chẳng ghét giận . Chẳng trước người làm ác , chằng nghi người không thành thật , chẳng vui lỗi người , mà thành tựu cái tốt đẹp của người .</t>
-  </si>
-  <si>
-    <t>Sách Thể Luận viết : Nên nói nhớ công lao của người , quên lầm lỗi của người mới xứng đáng làm vua vậy . Người có đức dầy không hỏi những tiểu-tiết nhỏ nhặt , người có danh dự lớn không chỉ trích những cớ nhỏ nhặt . Từ xưa đến nay chưa ai có thể có hạnh tốt vẹn toàn cả .</t>
-  </si>
-  <si>
-    <t>Sách Viên Tử Chính Thư viết : Hán Cao Tổ ( Lưu Bang ) chỉ là một người bình thường ở đất Sơn-Đông . Khởi binh trong một ngày mà các bậc anh hùng hiền đức trong thiên-hạ chạy vội cùng đến quy phục . Các bậc hiền-sĩ cùng tụ hợp lại cùng vui , vì họ được trọng dụng . Nên ngài được làm vua thiên-hạ mà chẳng ai có thể ngăn cản được . Chỉ vì ngài dùng chính sách đơn giản , mở lòng để tiếp nhận các bậc hiền tài trong thiên-hạ vậy .</t>
-  </si>
-  <si>
-    <t>Sách Lưu Dực Chính Luận viết : Thường tự cho đủ mà thật chẳng đủ , tự cho sáng suốt mà thật chẳng sáng suốt . Mặt trời , mặt trăng rất sáng , rất lớn mà có chổ không chiếu đến , bởi vì ở trên cao hơn mọi vật . Đèn đuốc rất bé , rất nhỏ mà không gì không thể chiếu đến , bởi vì ánh sáng ở dưới có thể chiếu đến những nơi mà mặt trời , mặt trăng không thể chiếu đến vậy .</t>
-  </si>
-  <si>
-    <t>Sách Chu Dịch viết : Đức Khổng-Tử nói : Lao nhọc mà không khoe công , có công mà không nhận có đức , thật là đến chổ dầy dặn . Nói đến công của mình là kẻ hèn hạ vậy .</t>
-  </si>
-  <si>
-    <t>Sách Khổng Tử Gia Ngữ viết : Thầy Tử-Lộ tiến đến nói : xin hỏi nắm giữ sự viên mãn theo đạo là sao ?  . Đức Khổng-Tử đáp : thông minh , hiểu biết giữ lấy sự ngu muội . Công cao khắp thiên-hạ giữ lấy sự khiêm nhượng . Dũng mãnh cái thế giữ lấy sự sợ sệt . Giàu có khắp cả bốn biển giữ lấy sự nhún nhường . Đó gọi là bớt rồi lại bớt đi theo đạo vậy .</t>
-  </si>
-  <si>
-    <t>Sách Bão Phác Tử viết : Có công lao mà tự khiêm-hư thì người phụ giúp đông . Kiêu-mạn , ngang bướng thì người bỏ đi nhiều . Người phụ giúp đông thì điềm báo an ổn , người bỏ đi nhiều thì đoán là sắp nguy vong .</t>
-  </si>
-  <si>
-    <t>Sách Lão Tử viết : Biết đó vinh , giữ đó nhục , làm cái hang cho thiên-hạ .</t>
-  </si>
-  <si>
-    <t>Sách Lục Thao viết : Có tài đức mà làm như người hèn hạ , ai mà không theo ?  . Có địa vị cao quý mà lắng nghe theo lời đúng sai của người , ai mà không phục ?  .</t>
-  </si>
-  <si>
-    <t>Sách Ngụy Chí viết : Thường người có thể khuất phục để duỗi ra , khiêm nhượng để đạt được , nhu nhược để mạnh mẽ , ít khi không được thỏa lòng vậy .</t>
-  </si>
-  <si>
-    <t>Sách Ngụy Chí viết : Đạo lý của sự tự tôn-trọng , là ở chổ lấy sự tôn-quý đối với hèn-mọn , biết thấp kém để tự tu dưỡng mình . Còn sai trái cho đó là vậy , rồi suy kém tệ-tục , bị cao-manh đến tàn phế , cớ sao lại phải làm , thật bi ai vậy .</t>
-  </si>
-  <si>
-    <t>Sách Thượng Thư viết : Vua có nhiều đức tốt , thì không khinh nhờn ai . Nếu khinh nhờn bậc quân-tử , họ sẽ không hết lòng trung thành . Khinh nhờn kẻ thường dân , họ làm việc sẽ không tận hết sức .</t>
-  </si>
-  <si>
-    <t>Sách Thượng Thư viết : Có thể được thầy dạy bảo cho , thì làm vương . Tự cho mình không ai bằng , thì diệt vong . Thích học hỏi thì bụng dạ rộng rãi , tự đắc thì bụng dạ nhỏ nhen .</t>
-  </si>
-  <si>
-    <t>Sách Văn Tử viết : Cho nên thông minh hiểu rộng thì giữ lấy sự ngu muội , nghe nhiều nói giỏi thì giữ lấy sự thiếu kém , mạnh mẽ cương nghị thì giữ lấy sự sợ sệt , giàu sang rộng lớn giữ lấy sự ít nhỏ , đức bố thí khắp thiên-hạ giữ lấy sự khiêm nhượng . Năm điều đó bậc tiên-vương dùng để giữ thiên-hạ vậy .</t>
-  </si>
-  <si>
-    <t>Sách Thượng Thư viết : Lòng người thiên về vật dục rất nguy hiểm , cái đạo nơi tâm thì kính đáo , chỉ một lòng chuyên nhất , giữ theo đạo trung dung . Những lời nói vu vơ không có căn cứ thì chớ nghe , những mưu tính không bàn bạc trước thì chớ dùng .</t>
-  </si>
-  <si>
-    <t>Sách Chu Dịch viết : Đức Khổng-Tử nói : người quân-tử ở trong nhà nói ra một lời tốt thì ngoài ngàn dặm cũng hưởng ứng theo huống chi là gần sao ?  , còn ở trong nhà nói ra một lời không tốt thì ngoài ngàn dặm cũng không theo huống chi là gần sao ?  . Lời nói ở bản thân ra , dân chúng thêm vào , nói phát ra ở gần mà hiện ra xa . Lời nói là phần trọng yếu nhất của người quân-tử , phần trọng yếu phát ra là chủ của sự vinh nhục vậy . Lời nói của người quân tử có thể động đến trời đất , có thể không thận trọng sao ?  .</t>
-  </si>
-  <si>
-    <t>Sách Mao Thi viết : Chẳng ham hùng mạnh hay sao . Bốn phương thiên hạ nhìn vào cùng noi ?  . Hễ có đức sáng soi thẳng thắn . Nước bốn phương đều hẳn thuận tùng . Kế to hiệu lệnh định xong . Mưu xa thời lệnh mọi vùng truyền đi . Kính trọng lấy uy nghi tốt đẹp . Mới làm nên khuôn phép toàn dân . Cẩn thận khi lời nói phát ra . Uy nghi cung kính sâu xa . Không gì lại chẳng được là đẹp thay . Ngọc bạch khuê bị trầy bị mẻ . Mài láng trơn có thể thành công . Lời sai lầm trót nói xong . Chẳng làm gì được , răn lòng khắc ghi .</t>
-  </si>
-  <si>
-    <t>Sách Lễ Ký viết : Đức Khổng-tử nói : bậc quân-tử lấy lời nói chỉ dẫn người , cấm người dùng hành động . Nên nói ắt phải lo đến kết cuộc , làm việc ắt xem xét đến sự tệ hại , thế thì dân cẩn thận lời nói và thận trọng làm việc .</t>
-  </si>
-  <si>
-    <t>Sách Bão Phác Tử viết : Tia chớp bắn ra không thể đuổi kịp lời nói sai , ông Ban-Luân không thể mài trắng lời nói lầm . Dù không thể suy nghĩ nhiều khi nói ra những lời thấu tình đạt lý , nhưng có thể ngưng những lời nói bỡn cợt để ngăn chặn tại họa mới manh nha .</t>
-  </si>
-  <si>
-    <t>Sách Quản Tử viết : Lời nói mà không thể hồi lại , vua không nói . Việc làm mà không thể tiếp tục , vua không làm . Thường lời nói mà không thể hồi lại , việc làm mà không không thể tiếp tục , là việc cấm lớn của người có quốc gia .</t>
-  </si>
-  <si>
-    <t>Sách Hán Thư viết : Thiên-tử tôn quý nhất trong bốn biển , nghĩa là không ai chẳng phải là bề tôi của họ . Nhưng họ phải phụng dưỡng bậc Tam-Lão ở trường  Thái-Học , tiến cử người hiền để phò tá , tìm kẻ sĩ giúp trị lý để đưa ra lời can gián thẳng . Nên tôn trọng , phụng dưỡng bậc Tam- Lão là biểu thị hiếu vậy . Lập bề tôi ( hiền ) phò tá vì sợ tính kiêu ngạo vậy . Bố trí kẻ sĩ can gián là sợ không được nghe lỗi lầm ( của mình ) vậy .</t>
-  </si>
-  <si>
-    <t>Sách Lưu Dực Chính Luận viết : Thường làm chính trị , khinh xuất một lỗi mà không cẩn thận thì như ngồi xe mà không có chốt , lúc an vui tiến lên ít , nên không trông thấy cái họa , để chỉnh đốn lại những trở ngại . Cái họa của xe thì gần , nên không ai chẳng thấy . Cái họa của quốc gia thì xa , nên không ai chẳng coi thường . Biết cái thể của nó , thì nên sớm hôm cảnh giác , giống như dũng mãnh giữ gìn ( bảo vật ) sợ mất đi vậy .</t>
-  </si>
-  <si>
-    <t>Sách Chu Dịch viết : Cùng loại thì tụ hợp nhau , vạn vật lấy đó để phân ra bầy đàn . Việc tốt xấu sinh ra vậy .</t>
-  </si>
-  <si>
-    <t>Sách Trung Luận viết : Đức Khổng-Tử nói nơi sống mà có được bạn hiền đức là được phước tới vậy .</t>
-  </si>
-  <si>
-    <t>Sách Tôn Khanh Tử viết : Thường người dù có bản chất tốt đẹp và lòng biện biệt sáng suốt ắt phải tìm thầy giỏi , tìm bạn hiền để kết giao . Được thầy giỏi dạy dỗ thì nghe được đạo lý của vua Nghiêu , Thuấn , Vũ , Thang . Tìm được bạn hiền để kết giao thì thấy được nết trung , tín , kính , nhượng . Bản thân mỗi ngày tiến đến nhân-nghĩa mà tự mình không biết , rồi chuyển theo hồi nào không hay vậy .</t>
-  </si>
-  <si>
-    <t>Sách Xương Ngôn viết : Người kết giao với kẻ sĩ , ( thì biết ) lòng nhân ái , trung hậu , khoan thứ , khiêm tốn , kính nhượng , trung thành phát ra từ bên trong , sự tín nhiệm phát rõ ra ở bên ngoài . Những lời nói đồn đại không nhận lấy , yêu ghét không thiên vị , ở nơi kính đáo ( không ) công kích chổ yếu của người , hội hợp bạn bè kể lại cái hay của người . Có người phụ bạc ta lại càng đối đãi trọng hậu hơn , có người hoài nghi ta phải càng thành tín hơn . Hoạn nạn ắt đến giúp đỡ , hành động lặng lẽ tích đức mà không cầu báo đáp , âm thầm làm việc mà không cầu danh tiếng . Cứ cần mẫn làm thế , cho bản thân đến hết đời vậy có ai ở cùng người ấy mà chán ghét bao giờ ?</t>
-  </si>
-  <si>
-    <t>Sách Thi Tử viết : Người thời nay đều biết mài giũa thanh kiếm mà chẳng biết mài giũa bản thân . Việc học tập là dùi mài bản thân vậy .</t>
-  </si>
-  <si>
-    <t>Sách Tôn Khanh Tử viết : Người quân-tử học rộng mà hàng ngày có ba lần phản tỉnh chính mình , thì hiểu biết rõ ràng và hành động không lầm lỗi vậy . Nên chẳng lên núi cao không biết được trời cao hơn , chẳng vào hang sâu thì không biết được đất sâu hơn , chẳng nghe được di-ngôn của bậc tiên-vương thì không biết học vấn nó rộng lớn thế nào .</t>
-  </si>
-  <si>
-    <t>Sách Hán Thư viết : Bậc học-giả xưa kia tự cày nuôi sống mình , ba năm thì tinh thông một kỹ năng , vì họ biết được cái đại thể , và nhiều lần vui đùa trong kinh văn mà thôi . Cho nên tuy hàng ngày dụng công rất ít , mà họ bồi dưỡng đức hạnh rất nhiều , ba mươi năm thì thông thạo Ngũ-Kinh vậy .</t>
-  </si>
-  <si>
-    <t>Sách Tăng Tử viết : Người quân-tử đã học thì lo không thông suốt . Đã thông suốt thì lo không được luyện tập . Đã luyện tập thì lo không hiểu biết . Đã hiểu biết thì lo không thể thực hành . Đã có thể thực hành thì lo không thể khiêm nhượng . Cái học của người quân-tử chỉ có năm điều đó mà thôi vậy .</t>
-  </si>
-  <si>
-    <t>Sách Chu Dịch viết : Thoán viết : đạo của trời đất thường lâu bền mà không thôi vậy . Mặt trời , mặt trăng được ở trên trời mà có thể chiếu sáng , bốn mùa biến hóa mà có thể thành tựu lâu bền , bậc thánh-nhân ở lâu trong đạo mà thiên-hạ hóa thành công . Xem chổ thường hằng mà cái tình của vạn vật có thể thấy vậy .</t>
-  </si>
-  <si>
-    <t>Sách Viên Tử Chính Thư viết : Bậc thánh-nhân quý ở sự lâu bền , lâu bền thì đức kiêng cố vậy . Bậc thánh-nhân lâu dài với đạo mà thiên-hạ hóa thành công . Chưa từng có việc không lâu bền mà có thể thành tựu đạo đức , và việc không đạo đức mà có thể gìn giữ lâu dài vậy .</t>
-  </si>
-  <si>
-    <t>Sách Bão Phác Tử viết : Kẻ sĩ có khí tiết không thể khiến người cung kính mình và cũng không thể đoạt đi ý chí của họ vậy . Không thể khiến người không ghét bỏ mình và bắt họ theo một đường lối vậy . Không thể khiến người không nhục mạ mình và bắt họ mang lại vẻ vang cho ta vậy . Không thể khiến người gạt bỏ mình và bắt họ làm những việc không thể thay đổi vậy .</t>
-  </si>
-  <si>
-    <t>Sách Chu Dịch viết : Người quân-tử thể hội lòng nhân đủ để đứng đầu người , đãi tiệc lớn đầy đủ để hợp lễ , lợi ích vật đủ để hòa nghĩa , trinh bền đủ để làm việc .</t>
-  </si>
-  <si>
-    <t>Sách Luận Ngữ viết : Đức Khổng-Tử nói về ông Tử-Sản có bốn đạo của người quân-tử . Giao thiệp với người thì giữ mình rất khiêm cung . Phụng sự bậc trên thì rất cung kính . Nuôi nấng dân thì ban ơn huệ . Sai khiến dân thì theo lẽ phải .</t>
-  </si>
-  <si>
-    <t>Sách Chu Dịch viết : Đức Khổng-Tử nói : cùng tiếng ứng nhau , cùng khí tìm nhau , nước chảy xuống chổ thấp , lửa cháy chổ khô ráo , mây theo rồng , gió theo hổ , bậc thánh-nhân khởi lên mà vạn vật đều thấy .</t>
-  </si>
-  <si>
-    <t>Sách Chu Dịch viết : Quẻ Cấn , người quân-tử coi đó mà suy tư , chẳng ra khỏi chức vị của mình .</t>
-  </si>
-  <si>
-    <t>Sách Hàn Thi Ngoại Truyện viết : Tôn quý mà xem như hạ-tiện thì mọi người không ghét bỏ . Giàu có chịu phân chia cho người nghèo khổ thì kẻ sĩ nghèo cùng không ghét bỏ . Có trí huệ mà dạy kẻ ngu muội thì trẻ con thất học không ghét vậy .</t>
-  </si>
-  <si>
-    <t>Sách Khổng Tử Gia Ngữ viết : Đức Khổng-Tử nói : Số giàu sang mà hạ mình trước người , thì ai mà chẳng mong ở cùng chứ ?  . Số giàu sang mà biết yêu người , thì ai mà chẳng thân cận chứ ?  . Phát ngôn không trái nghịch có thể gọi là biết nói chuyện vậy .</t>
-  </si>
-  <si>
-    <t>Sách Luận Ngữ viết : Trong một lúc tức giận ( làm bậy ) , quên cả bản thân để liên lụy đến cha mẹ , như thế chẳng phải là không phân biệt được tốt xấu sao ?  .</t>
-  </si>
-  <si>
-    <t>Sách Doãn Văn Tử viết : Nên có lý mà vô-ích với việc cai trị , thì người quân-tử không nói . Có thể làm mà vô-ích với công việc , thì người quân-tử không làm . Người quân-tử không thích nói nhiều , nhưng nói những lời có ích cho việc cai trị , nếu không được gì thì chẳng nói . Người quân- tử không thích làm nhiều , nhưng làm thì làm những chuyện hữu-ích cho công việc , nếu không được gì thì chẳng làm .</t>
-  </si>
-  <si>
-    <t>Sách Văn Tử viết : Văn-Tử hỏi đạo với Đức Lão-Tử rằng : Đạo thực hành nhỏ thì được phúc nhỏ , thực hành lớn thì được phúc lớn , tận lực thực hành thì thiên-hạ quy phục .</t>
-  </si>
-  <si>
-    <t>Sách Văn Tử viết : Quốc gia sở dĩ tồn tại là có đường lối phù hợp , còn sở dĩ diệt vong là do đường lối bị bế tắc . Nên được tồn tại do có đường lối đúng , dù nhỏ ắt thành lớn . Còn ( không có đường lối tốt là ) dấu hiệu của diệt vong , tuy thành công ắt thất bại . Quốc gia bị diệt vong , dẫu lớn chẳng đủ nương dựa . Đường lối thi hành được , dù nhỏ cũng không thể xem thường . Nên tồn tại là có được đường lối đúng , không phải tại ( quốc gia ) nhỏ . Còn diệt vong là tại đánh mất đường lối đúng , không phải tại ( quốc gia ) lớn .</t>
-  </si>
-  <si>
-    <t>Sách Hán Thư viết : Vua Kiệt , vua Trụ làm ác nhận lãnh trừng phạt của trời . Vua Vũ , vua Thang nhân vì tích đức nên làm vua thiên-hạ . Xem kỹ thì đức trời không riêng tư , tùy thuận thì khởi lên yên ổn , trái nghịch thì tai hại sinh . Đó là phép tắc xem thiên-văn , địa-lý , nhân-sự vậy .</t>
-  </si>
-  <si>
-    <t>Sách Lã Thị Xuân Thu viết : Tình người mong trường thọ mà ghét chết yểu , mong an ổn mà ghét nguy hiểm , mong vinh quang mà ghét nhục nhã , mong an nhàn mà ghét lao khổ . Như bốn lòng mong đó đạt được , thì bốn cái ghét sẽ tiêu trừ , lòng dạ sẽ dễ chịu vậy . Bốn lòng mong đó đạt được là ở làm đúng đạo lý . Làm đúng đạo lý để trị thân thì sinh mệnh bảo toàn , sinh mệnh bảo toàn thì sống lâu . Làm đúng đạo lý để trị quốc thì luật pháp gây dựng , luật pháp gây dựng thì thiên-hạ phục . Nên lòng dạ dễ chịu nên lo việc làm đúng theo đạo lý vậy .</t>
-  </si>
-  <si>
-    <t>Sách Tả Truyện viết : Chuyện quái dị dấy lên là do con người . Con người không lầm lỗi , thì chuyện quái dị không tự khởi lên . Con người bỏ đi đạo-thường thì những chuyện quái dị nổi lên vậy .</t>
-  </si>
-  <si>
-    <t>Sách Mạnh Tử viết : Không có lòng trắc-ẩn không phải là người . Không có lòng xấu hổ việc ác không phải là người . Không có lòng từ-nhượng không phải là người . Không có lòng phân biệt thị-phi không phải là người . Lòng trắc-ẩn là đầu mối của Nhân . lòng xấu hổ việc ác là đầu mối của Nghĩa . Lòng từ-nhượng là đầu mối của Lễ . Lòng phân biệt thị-phi là đầu mối của Trí . Người mà có đủ bốn đầu mối trên giống như cơ thể có đủ tứ-chi vậy . Người mà có đủ bốn đầu mối trên mà tự nói không thể làm , là tự làm hại mình vậy . Còn nói vị vua nào mà không thể làm , là tự làm hại vua vậy .</t>
-  </si>
-  <si>
-    <t>Sách Chu Dịch viết : Xưa kia bậc thánh-nhân làm ra sách Dịch , đều lấy theo cái lý thuận tính-mệnh , thế cho nên lập ra đạo trời gọi là Âm và Dương , lập ra đạo đất gọi là Nhu và Cương , lập ra đạo người gọi là Nhân và Nghĩa .</t>
-  </si>
-  <si>
-    <t>Sách Thi Tử viết : Vua-tôi , cha-con , trên-dưới , lớn-nhỏ , sang-hèn , thân-sơ làm đúng phận thì an trị . Yêu đúng phận gọi là Nhân . Cho đúng phận gọi là Nghĩa . Lo đúng phận gọi là Trí . Hành động đúng phận gọi là Thích . Nói đúng phận gọi là Tín . Khi các nơi đều đúng phận mà sau mới thành người .</t>
-  </si>
-  <si>
-    <t>Sách Trang Tử viết : Đến trời đất rất linh thiên , mà vẫn có thứ tự tôn-ty , trước-sau huống chi là đạo người !  . Nơi tông-miếu tôn trọng thân tộc , chốn triều-đình tôn trọng bậc cao quý , ở làng quê tôn trọng người già cả , khi làm việc tôn trọng bậc hiền-nhân , đó là thứ tự của đạo lớn vậy .</t>
-  </si>
-  <si>
-    <t>Sách Chu Dịch viết : Đạo của trời-đất là xem xét sự trinh bền . Đạo của mặt trời , mặt trăng tỏa sáng trinh bền . Cái động của thiên-hạ là một cách trinh bền vậy .</t>
-  </si>
-  <si>
-    <t>Sách Chu Dịch viết : Đức Khổng-Tử nói : quẻ Lý là nền móng của đức , quẻ Khiêm là cái cán của đức , quẻ Phục là gốc của đức , quẻ Hằng là sự kiên cố của đức , quẻ Tổn là sự tu sửa của đức , quẻ Ích là sự thừa thãi của đức , quẻ Khốn là sự biện luận của đức .</t>
-  </si>
-  <si>
-    <t>Sách Chu Dịch viết : Quẻ Tùy Tượng viết : trong đầm có sấm là quẻ Tùy , người quân-tử lấy đó gần tối vào ( nhà ) nghỉ ngơi .</t>
-  </si>
-  <si>
-    <t>Sách Trang Tử viết : Người học đạo thì mỗi ngày một bớt đi rồi lại bớt đi để đến cảnh giới vô vi , vô vi mà không gì chẳng làm được vậy . Trời đất có cái đẹp lớn mà chẳng nói , bốn mùa có quy luật rõ ràng mà chẳng bàn luận , vạn vật có được lý mà chẳng nói , đến con người không làm gì , bậc đại-thánh chẳng tạo nên , đó gọi là xem xét trời đất vậy .</t>
-  </si>
-  <si>
-    <t>Sách Văn Tử viết : Cái gọi là vô-vi , không phải cho là dẫn không đến , mời không đi , bức bách mà không ứng lại , cảm hóa mà không lay động , cố chấp mà không ứng biến , uống nắn mà không giãn ra . Mà đó là không đem ý riêng để xen vào lẽ công bằng , không đem thị-dục để bẻ cong phương pháp đúng đắn , tuân theo đạo lý mà làm việc , dựa vào điều kiện có sẵn mà làm nên công nghiệp , tìm lẽ tự nhiên của tình thế vậy .</t>
-  </si>
-  <si>
-    <t>Sách Lễ Ký viết : Ông Nhạc-Chính-Tử từ nhà xuống bị thương ở chân , rất nhiều tháng chẳng ra khỏi nhà , nên có sắc mặt rất ưu buồn . Người đệ tử hỏi : chân của thầy khỏi rồi , sao nhiều tháng chẳng ra khỏi nhà , lại có sắc mặt ưu buồn đến thế ?  . Nhạc-Chính-Tử đáp : ta nghe thầy Tăng-Tử dạy : cha mẹ sinh ra toàn vẹn , khi chết cũng phải toàn vẹn vậy mới gọi là hiếu . Không hủy hoại thân thể , không để tấm thân này màng nhục mới gọi là toàn vẹn . Nên người quân-tử đi nữa bước chân chẳng dám quên hiếu . Nay ta đã quên đạo hiếu , bởi vậy ta có sắc mặt ưu buồn vậy .</t>
-  </si>
-  <si>
-    <t>Sách Tăng Tử viết : Người sinh ra , trong một đời đều có tật bệnh . Nên người quân-tử lo lắng về cái không thể trở về mà làm trước vậy . Khi người thân-thích đã chết dù muốn báo hiếu thì sao hiếu được đây ?  . Khi tuổi đã lớn dù muốn kính nhường thì sao kính nhường được đây ?  . Nên làm trọn đạo hiếu có lúc chẳng đủ , còn việc kính nhường có lúc đã trễ thời . Điều đó nói lên thế ư !  .</t>
-  </si>
-  <si>
-    <t>Sách Lễ Ký viết : Đức Khổng-Tử nói : vua Võ-Vương , Chu-Công đã thông đạt Hiếu ư !  . Hiếu vì khéo kế thừa chí nguyện cha ông , khéo noi theo công việc của cha ông vậy .</t>
-  </si>
-  <si>
-    <t>Sách Hiếu Kinh viết : Đức Khổng-Tử nói : xưa kia các vi vua sáng suốt phụng sự cha hiếu nên thờ trời sáng tỏ , phụng sự mẹ hiếu nên thờ đất rõ ràng , lớn nhỏ thuận hòa nên trên dưới an trị , trời-đất rõ ràng , thần-minh rõ rệt vậy . Nên dù thiên-tử ắt được chổ tôn quý , lời nói của cha ắt có được chổ được trước , và lời nói của anh vậy .</t>
-  </si>
-  <si>
-    <t>Sách Xương Ngôn viết : Cha mẹ trách móc lỗi người , dù không đúng , thì chỉ xét hỏi rõ không nên làm trái lại mà không nói chuyện . Cha mẹ muốn cùng người lấy quan-vị , tước-lộc mà tài năng thật không đủ , thì có thể làm trái mà không theo . cha mẹ muốn làm việc xa xỉ , thái quá , hào hoa để cho thỏa lòng , khoái ý , thì có thể làm trái mà không hứa hẹn . Cha mẹ không thích học-vấn , ghét con cháu làm thế , thì có thể làm trái mà vẫn học tập . Cha mẹ không thích bậc học vấn tài giỏi , ghét con cháu giao du với họ , thì có thể trái mà vẫn giao hữu với họ . Khi bạn bè có hoạn nạn đợi mình đến giúp đỡ , cha mẹ không muốn làm vậy , thì có thể làm trái mà vẫn đến . Nên không thể làm trái mà vẫn làm trái là không hiếu , có thể làm trái mà không thể làm trái lại là không hiếu , thích không làm trái là không hiếu , thích làm trái lại không hiếu , nên xét cho đạt nghĩa lý mà thôi vậy .</t>
-  </si>
-  <si>
-    <t>Sách Tăng Tử viết : Thầy Tăng-Tử nói : Người quân-tử gây dựng nết hiếu là ở chổ dụng của lòng trung , là chổ quý của lễ . Nên người làm con mà không thể hiếu với cha , thì không dám nói với cha người về việc không thể nuôi con . Người làm em mà không thể kính phụng anh , thì không dám nói anh người về việc không thể hòa thuận với em . Người làm bề tôi mà không thể phụng sự vua , thì không dám nói vua người về việc không thể sai khiến bề tôi . Nên cùng với cha người nói , thì nói về việc nuôi con . Cùng với con người nói , thì nói về việc hiếu thảo cha . Cùng với anh người nói , thì nói về việc thuận hòa em . Cùng với em người nói , thì nói về việc kính phụng anh . Cùng với vua người nói , thì nói về việc sai khiến bề tôi . Cùng với bề tôi người nói , thì nói về việc phụng sự vua . Nết hiếu của người quân-tử là lòng trung-ái để cung kính mọi người , làm trái lại thì loạn vậy .</t>
-  </si>
-  <si>
-    <t>Sách Lễ Ký viết : Hiếu đạo được gây dựng mà trời đất được lấp đầy dẫy , mở rộng mà ngang dọc đến bốn biển , lưu truyền cho hậu-thế mà không mất đi . Kinh Thi viết : “ Từ đông , từ tây . Từ nam , từ bắc . Không ( ai ) nghĩ chẳng phục .” Đó đang là nói ( hiếu đạo ) vậy .</t>
-  </si>
-  <si>
-    <t>Sách Mao Thi viết : Hoa thường-lệ tưng bừng đua nở . Há lại không rực rỡ xinh tươi . Giờ đây tất cả những người . Thì chẳng gì bằng anh em ơi . Trên gò cao tích-linh đậu lại . Anh em đang gặp phải gian nguy . Bạn bè tốt thì có thiếu gì . Bạn thì thở dài cứu được chi . Tuy trong tường anh em chống đối . Ngăn nhục ngoài đã vội hợp nhau .</t>
-  </si>
-  <si>
-    <t>Sách Tả Truyện viết : Ông Huệ-Bá nói : tang sự là việc cuối cùng đối với người thân . Tuy không thể có bắt đầu tốt nhưng kết thúc ( tốt ) thì có thể vậy . Ông Sử-Dật có nói : Anh em rất tốt đẹp , cứu giúp lúc thiếu thốn , chúc mừng việc tốt , thăm hỏi khi có nạn , cúng tế cung kính , có tang thì thương xót , dù tình cảm bất-đồng không mất đi lòng yêu thương . Đó là đạo lý với người thân vậy .</t>
-  </si>
-  <si>
-    <t>Sách Tôn Khanh Tử viết : Người nhân yêu người , người nghĩa noi theo đạo lý .</t>
-  </si>
-  <si>
-    <t>Sách Mạnh Tử viết : Thầy Mạnh-tử nói : ba triều đại ( Hạ , Thương , Chu ) có được thiên-hạ là nhờ có lòng nhân-từ , mà mất đi thiên-hạ cũng bởi mất đi lòng nhân-từ . Quốc-gia sở dĩ suy bại , hưng thịnh , tồn tại , mất đi đều cũng như thế . Thiên-tử không nhân-từ không bảo vệ được bốn biển trong thiên-hạ . Chư-hầu không nhân-từ không bảo vệ được xã-tắc . Quan Khanh , Đại-Phu , không nhân-từ không bảo về được tông-miếu . Kẻ sĩ và thứ dân không nhân-từ không bảo toàn được thân thể . Người thời nay ghét sự chết chóc mà thích bất nhân , giống như ghét say mà cố uống rượu vậy .</t>
-  </si>
-  <si>
-    <t>Sách Phó Tử viết : Ngày xưa bậc thánh-nhân tôn sùng đức nhân từ , lấy đó làm hưng thịnh những lợi ích cho người trong thiên-hạ . Những lợi ích hoặc không thi hành được , thì phải dùng đức nhân từ để cứu tế thiên-hạ . Như có chổ chẳng làm được , thì giống như mình xô đẩy họ xuống ngòi rãnh vậy . Người nhân từ sẽ suy mình ra người . Nên mình có chổ không muốn thì chẳng làm cho người . Suy ra điều mình muốn đều mong người thiên-hạ có được . Suy ra lòng mình hiếu thảo cha mẹ để đối với người thiên-hạ , thì những người làm con trong thiên-hạ chẳng đánh mất đạo lý phụng sự người thân vậy . Suy ra lòng mình có vui vẻ với vợ con để đối với người thiên-hạ , thì những người làm cha trong thiên-hạ chẳng đánh mất quan điểm về gia đình vậy . Suy ra mình không nhẫn tâm thấy cảnh đói rét để đối với người thiên-hạ thì những sinh linh không còn cái lo về đói rét vậy . Ba quan điểm đó không khó thấy cái lý , không khó để thực hành , chỉ là không suy lòng mình đối với người đó ư !  , như không suy tư , thì chẳng phải xa ( đạo ) lắm sao ?  .</t>
-  </si>
-  <si>
-    <t>Sách Chu Dịch viết : Quẻ Lôi Thủy Giải , Tượng viết : sấm mưa nổi lên , là quẻ Giải , người quân-tử lấy đó mà ân xá lỗi lầm , tha thứ tội lỗi .</t>
-  </si>
-  <si>
-    <t>Sách Chu Lễ viết : Thiện-phu ( đầu bếp ) là người giữ chức quan dâng đồ ăn uống ngon cho vua . Khi có tang lễ lớn thì không dâng lên ( đồ ngon ) , năm mất mùa lớn thì không dâng lên , gặp ôn dịch lớn thì không dâng lên , trời đất có tai ương thì không dâng lên , nước nguyên nhân có việc lớn thì không dâng lên .</t>
-  </si>
-  <si>
-    <t>Sách Lễ Ký viết : Vào tháng trọng-xuân , nuôi sưỡng trẻ nhỏ , bảo bọc các trẻ mồ côi . Lệnh cho quan hữu-tư coi xét nhà tù , bỏ đi gông cùm , không phạt đánh roi , không tháo cạn nước sông hồ , không để nước hồ chứa khô cạn , không đốt phá rừng .</t>
-  </si>
-  <si>
-    <t>Sách Lễ Ký viết : Quốc-quân săn bắn vào mùa xuân không vây hết một đồng . Quan đại-phu không bắt hết cả bầy thú . Kẻ sĩ không bắt lấy thú con và trứng .</t>
-  </si>
-  <si>
-    <t>Sách Lễ Ký viết : Đức Khổng-Tử nói : lòng nhân có ba điều . Cùng lòng nhân đồng công lao mà khác tình cảm , cùng người đồng công lao còn lòng nhân chưa có thể biết được , cùng lòng nhân đồng lỗi lầm mà sau lòng nhân có thể biết được . Người nhân-từ an trong lòng nhân từ , người trí lợi ích lòng nhân , người sợ tội mạnh mẽ trong lòng nhân .</t>
-  </si>
-  <si>
-    <t>Sách Yến Tử viết : ( Tề ) Cảnh-Công hỏi ông Yến-Tử rằng : Mưu tính ắt đạt được , làm việc ắt thành công có phương pháp đó không ?  . Yến-Tử đáp : thưa có . Cảnh-Công hỏi : thế phương pháp như thế nào ?  . Yến-Tử đáp : thưa mưu tính theo đạo nghĩa ắt đạt được , làm việc tùy theo người dân ắt thành công , còn trái đạo nghĩa mà mưu tính , bỏ đi dân mà hành động , thần chưa từng nghe có chuyện đó . Ngày xưa ba triều đại ( Hạ , Thương , Chu ) được hưng thịnh , thì mưu tính ắt theo đạo nghĩa , làm việc ắt tùy theo người dân . Đến thời kỳ suy bại , thì mưu tính trái đạo nghĩa , bắt đầu làm việc thì tổn thương người dân . Nên theo đạo nghĩa , tùy theo người dân là phương pháp mưu tính và làm việc vậy .</t>
-  </si>
-  <si>
-    <t>Sách Hạt Quan Tử viết : Thường người quân-tử dễ thân cận mà khó đùa bỡn , họ lo sợ tai vạ mà khó bức ép , họ ham thích lợi mà không làm việc sai trái , thời buổi động loạn thì họ an định mà không làm việc tùy tiện . Thân thể cho dù an ổn mà họ chẳng dám xử trí ( tùy tiện ) rồi sau lễ sinh ra vậy . Lòng tùy theo dục vọng mà chẳng dám nói ( sai trái ) rồi sau nghĩa sinh ra vậy . Thường nghĩa thì tiết chế dục vọng mà sửa trị , lễ thì làm trái lại tình cảm mà biện biệt ( rõ ) .</t>
-  </si>
-  <si>
-    <t>Sách Tả Truyện viết : Thiên tai hoành hành khắp nơi , quốc gia đại diện cứu tai giúp đỡ nước láng giềng đó là đạo . Làm theo đạo thì có phúc .</t>
-  </si>
-  <si>
-    <t>Sách Thể Luận viết : Người quân-tử tu dưỡng lòng chẳng gì tốt bằng ( chân ) thành . Có thành vì thế người quân-tử bao dung hết vạn vật vậy . Trời chẳng nói mà người khen cao lớn , đất chẳng nói mà người khen dày dặn , bốn mùa chẳng nói mà người vẫn mong mỏi . Đó là dùng lòng chí-thành vậy .</t>
-  </si>
-  <si>
-    <t>Sách Phó Tử viết : Trời đất thành tín rõ rệt mà bốn mùa chẳng loạn . Mặt trời , mặt trăng thành tín rõ rệt mà sáng tối có thường . Bậc vương làm theo thành tín mà vạn-quốc lấy đó để an định . Chư-hầu theo thành tín mà nội bộ lấy đó để hòa hợp . Người quân-tử thực hiện thành tín mà bản thân lấy đó để đứng vững . Ngay xưa vua thánh , bề tôi hiền đức phò tá , muốn biến đổi thế tục cho tốt đẹp , bỏ đi thành tín trong chốc lát mà có thể an định trên và cai trị dân được là chưa có vậy .</t>
-  </si>
-  <si>
-    <t>Sách Hàn Tử viết : Vợ thầy Tăng-Tử đi chợ , đứa con chạy theo khóc , người mẹ nói : “con về nhà đi rồi mẹ sẽ giết lợn cho con ăn” . Người vợ đi chợ về , thầy Tăng-Tử muốn bắt lợn giết , người vợ dừng lại nói : “ tôi và con nhỏ chỉ giỡn thôi .” Thầy Tăng-Tử nói : “ đối với con nhỏ không được làm như thế .” Cha mẹ làm như thế nào thì con sẽ học theo thế đấy . Nay nàng lừa dối con , thế là dạy con lừa dối . Mẹ lừa con , con không tin , thì mẹ không thể dạy con nên người được . Thầy Tăng-Tử liền giết lợn .</t>
-  </si>
-  <si>
-    <t>Sách Thi Tử viết : Chữ Thứ ( suy bụng ta ra bụng người ) là bản thân phải độ lượng . Điều gì mình không muốn thì không làm cho mọi người . Ghét cái xấu của mọi người thì trước bỏ đi mọi cái xấu của mình . Muốn mọi người điều gì thì trước cầu ở mình . Đó là chữ Thứ vậy .</t>
-  </si>
-  <si>
-    <t>Sách Xương Ngôn viết : Phụng sự cha mẹ mà cha mẹ không thân thiết , là biết được hiếu đạo chưa tới nơi vậy . Phụng sự vua mà vua không theo , là biết được lòng trung chưa tới nơi vậy . Cùng người kết giao mà người không thân , là biết được tín-nghĩa chưa tới nơi vậy .</t>
-  </si>
-  <si>
-    <t>Sách Tả Truyện viết : Người quân-tử tại vị nên lo sợ , thí-xả nên yêu thích , tiến-thoái có mức độ , qua lại có phép tắc , dung nghi dễ nhìn , làm việc tuân theo pháp luật , đức-hạnh làm hình tượng mẫu , giọng nói vui vẻ , động-tác có văn vẻ , ngôn-ngữ có trật tự mạch lạc , lấy đó để đối đãi cấp dưới thì gọi là có uy-nghi vậy .</t>
-  </si>
-  <si>
-    <t>Sách Văn Tử viết : Không thờ ơ sự thật , không thể sáng tánh đức . Không yên tĩnh , không thể suy tính xa . Không có lòng khoan dung lớn , không thể che chở mọi vật . Không công bình chánh trực , không thể đưa ra phán đoán đúng .</t>
-  </si>
-  <si>
-    <t>Sách Lễ Ký viết : Bậc đại-nhân không nói lời phù phiếm . Có thể nói , không thể làm , người quân-tử chẳng nói . Có thể làm , không thể nói , người quân-tử chẳng làm . Thế thì dân biết , nói không nguy lúc làm , và làm không nguy lúc nói vậy .</t>
-  </si>
-  <si>
-    <t>Sách Hàn Tử viết : Trên lòng dạ không như trời thì dưới chẳng dốc hết sức . Lòng dạ không như đại địa thì không che chở hết vạn vật . Núi Thái-Sơn không tạo nên sự ưa ghét , nên có thể thành cao lớn . Sông biển không kén chọn dòng chảy nhỏ , nên có thể thành giàu có . Nên bậc đại- nhân gửi hình hài mình như trời đất mà vạn-vật hoàn bị . Đặt lòng mình như núi biển mà quốc-gia giàu có .</t>
-  </si>
-  <si>
-    <t>Sách Tả Truyện viết : Vua ( Sở Chiêu Vương ) thưởng cho ông Đấu-Tân , Vương Tôn Do Vu , Thân Bao Tự , Đấu Hoài . Ông Tử Tây nói : “xin đại vương không thưởng cho Đấu Hoài .” Vua nói : lấy đức lớn diệt đi oán nhỏ là đạo .</t>
-  </si>
-  <si>
-    <t>Sách Văn Tử viết : Tình của con người cảm phục ở đức độ , chẳng cảm phục ở vũ lực . Nên thời xưa bậc thánh-vương lúc nói năng ở dưới người , thân đứng sau người , thì người thiên-hạ nghĩ nhớ đến mà chẳng ghét bỏ , quý trọng mà không cho là nặng nề . Đó là đức có dư và hòa khí thuận . Nên biết cùng người đạt được , biết đứng sau mà được ra trước thì đã gần đạo vậy .</t>
-  </si>
-  <si>
-    <t>Sách Khổng Tử Gia Ngữ viết : Bậc học-giả phải giảm bớt tính tự cao , để lòng rỗng không tiếp nhận sự vật . Đạo trời thành tựu thì ắt biến đổi . Thường giữ sự tự mãn mà có thế dài lâu là chư từng có . Nên nói rằng tự cho mình hiền , thì những lời tốt đẹp trong thiên-hạ không nghe được vào tai vậy .</t>
-  </si>
-  <si>
-    <t>Sách Lão Tử viết : Không xem mình là sáng , nên sáng . Không cho mình là phải , nên chói . Không cho mình có công , nên có công . Không khoe mình , nên đứng đầu . Chỉ vì không tranh , nên thiên-hạ không ai tranh nổi với mình .</t>
-  </si>
-  <si>
-    <t>Sách Thể Luận viết : Người quân-tử lo tu sửa hết ở bên trong mà khiêm nhượng hiện ra ở ngoài , lo tích lũy đức hạnh cho bản thân mà cảm thấy xử thế chẳng đủ .</t>
-  </si>
-  <si>
-    <t>Sách Chu Dịch viết : Quẻ Địa Sơn Khiêm , Tượng viết : trong đất có núi là quẻ Khiêm , người quân-tử lấy chổ nhiều bù chổ ít , thí xả công bình xứng đáng cho người vật .</t>
-  </si>
-  <si>
-    <t>Sách Hậu Hán Thư viết : Thường đức khiêm là sáng , sách Chu-Dịch cho là đẹp . Ở tại vị mà phóng túng , đó là giới cấm của đạo-gia . Nên người quân-tử phúc lớn thì lo sợ , tước vị cao thì khiêm cung . Xét xa nhìn gần thì cử chỉ động tác đều có phép tắc , họ lấy đó ghi hết vào ghế gậy , khắc hết vào mâm gỗ , bồn tắm , đau đáu sợ hãi không yên , không bỏ đi như thế thì trăm phúc đến , tiếp nối không dứt vậy .</t>
-  </si>
-  <si>
-    <t>Sách Thể Luận viết : Thường cái họa của việc lấy bỏ , ở chổ thấy được rồi tham mà không lo nghĩ đến thất bại , thấy được lợi mà không lo nghĩ đến cái hại . Nên cử động gần với nguy hiểm nhục nhã . Xưa kia Tôn-Thúc-Ngao ba lần làm thừa tướng nước Sở mà lòng thấy thấp hèn , mỗi khi được ban nhiều bỗng lộc thì đem tặng người rộng hơn , khi chức vị càng cao thì lễ mạo rất khiêm cung . Ngài Chánh-Khảo-Phụ khúm núm mà đi bộ . Ông Yến-Bình-Trọng từ chối thành ấp được ban tặng . Đó là giữ sự tràn đầy để lặng lẽ làm một người bề tôi mẫu mực vậy .</t>
-  </si>
-  <si>
-    <t>Sách Ngụy Chí viết : Vua Thuấn răn ông Vũ rằng : “gần thay ! , gần thay !  .” Lời nói thận trọng với người thân cận vậy . Chu-Công răn vua Thành-Vương rằng : “ ấy bằng hữu , ấy bằng hữu .” Lời nói thận trọng khi ở cùng với người vậy .</t>
-  </si>
-  <si>
-    <t>Sách Thi Tử viết : Đức Khổng-Tử nói : “gặp việc mà không sợ sệt , ít khi chẳng nên việc” . Kinh Dịch viết : “dẵm đuôi cọp , ( lo sợ ) chung cuộc tốt lành” . Như quần-thần mọi người đều răn giữ thận trọng , sợ sệt như dẫm đuôi cọp thì có việc gì chẳng nên ?</t>
-  </si>
-  <si>
-    <t>Sách Trung Luận viết : Cho nên người quân-tử kính trọng người cô-độc và thận trọng nơi hoang vu vắng vẻ . Dù ở nơi ẩn khuất quỷ-thần chẳng lẽ không thấy được , huống chi ở chốn ăn chơi ư !  .</t>
-  </si>
-  <si>
-    <t>Sách Thượng Thư viết : Lúc được yêu mến nghĩ đến lúc nguy , không điều gì không kính sợ . Nếu không biết kính sợ , thế nào cũng lâm vào cảnh đáng sợ .</t>
-  </si>
-  <si>
-    <t>Sách Trung Luận viết : Người quân-tử đối với chính mình , không việc gì mà chẳng e sợ . Ta  được thiện lành , nhưng chỉ sợ người chưa thích ta . Ta có điều bất thiện , thì sợ người sẽ ghét ta . Thấy người thiện lành , thì sợ ta không có thể làm theo . Thấy người bất thiện , thì sợ ta sẽ giống như họ .</t>
-  </si>
-  <si>
-    <t>Sách Hoài Nam Tử viết : Mắt xem bậy thì buông thả , tai nghe bậy thì mê hoặc , miệng nói bậy thì rối loạn . Ba cửa ải này không thể không giữ gìn cẩn thận vậy .</t>
-  </si>
-  <si>
-    <t>Sách Lưu Dực Chính Luận viết : Giỏi làm chính trị thì phải biết dù một việc cũng không thể khuyết thiếu . Nên không việc gì mà không chuẩn bị , biết một việc đúng thì không thể để mất nó đi vậy . Nên mọi ý kiến dù không đúng cũng nên cùng nhau lắng nghe . Như không biết gì , rồi xem nhẹ một việc cho rằng là nhỏ rồi lơ là mà khuyết thiếu đi , không biết được đông đảo sự việc kết hợp cùng nhau mà thành nhiều . Thấy một sai lầm rồi làm nhỏ đi , xem nhẹ nó mà lao vào . Đó là không biết cái đúng theo số nhiều , rồi cùng nhau phạm sai lầm vậy .</t>
-  </si>
-  <si>
-    <t>Sách Chu Dịch viết : Quẻ Sơn Lôi Di , Tượng viết : Dưới núi có sấm là quẻ Di , người quân-tử phải thận trọng nói năng , ăn uống phải chừng mực .</t>
-  </si>
-  <si>
-    <t>Sách Ngụy Chí viết : Ông Văn-Học và Ông Phòng-Phụ cùng nhau tấu trình khen ngợi sự tốt đẹp của Tào-Cổn . Tào-Cổn nghe được thì rất sợ hãi mà trách Văn-Học rằng : “sửa mình , là việc giữ gìn của người thường làm thôi , mà các ông lại tấu trình lên trên , việc này nghe được thì chỉ khiến tôi tăng thêm lo lắng . Như tôi có sự tốt đẹp lẽ nào sợ người không nghe biết ? mà sao các ông vội vàng cùng làm như thế , nói chuyện thị phi để giúp tôi . “ Khuyên răn thận trọng khi làm như thế .</t>
-  </si>
-  <si>
-    <t>Sách Tăng Tử viết : Người quân-tử thận trọng khi chọn nơi đi tới . Cùng người quân-tử vui chơi như ngày dày thêm ích lợi mà không tự biết vậy . Cùng kẻ tiểu-nhân vui chơi như đi qua băng mỏng , mỗi bước thì chỉ rớt xuống , bao nhiêu người không rơi vào cảnh đó đây !  .</t>
-  </si>
-  <si>
-    <t>Sách Luận Ngữ viết : Người sinh ra đã hiểu biết , đó là bậc thượng ( 1 ) . Người học rồi mới hiểu biết , đó là bậc thứ ( 2 ) . Gặp cảnh khốn khó mới chịu học , đó là hạng dưới bậc thứ ( 3 ) . Còn gặp cảnh khốn khó mà không chịu học , đó là hạng thấp nhất rồi ( 4 ) !  .</t>
-  </si>
-  <si>
-    <t>Sách Ngô Chí viết : Nghe nói người quân-tử thấy sỉ nhục vào thời trẻ mà không tạo lập được công danh gì . Giận đến lúc chết mà danh tiếng không xứng đáng . Nên nói học như chẳng đủ , cảm thấy sợ khi mất đi . Vì thế thời xưa kẻ chí-sĩ tiếc thời gian trôi qua sẽ già đi và sợ danh tiếng không được gây dựng . Nên họ chuyên cần rèn luyện bản thân đến không có thời gian nghỉ ngơi . Như thấy bậc thánh-nhân Tây-Bá , tài năng của Cơ-Phát , Chu-Công mà còn lao lực đến khi mặt trời lặn . Nên họ có thể làm tốt đẹp sự nghiệp vương-đạo lưu truyền danh tiếng đến ngàn năm . Huống hồ là một bề tôi thường mà không gắng sức ư !  .</t>
-  </si>
-  <si>
-    <t>Sách Luận Ngữ viết : Thầy Tử-Hạ nói : Hầu hạ cha mẹ tận tâm hết sức lực , làm việc cho vua tận hết khả năng của bản thân , cùng bạn bè giao tiếp nói lời giữ chữ tín . Người làm được vậy tuy nói là chưa được học , ta ắt xem người đó có học rồi vậy .</t>
-  </si>
-  <si>
-    <t>Sách Viên Tử Chính Thư viết : Người khéo học sẽ nương theo bậc tiên-vương để suy xét đạo lý . Người khéo noi theo sẽ lợi dụng trí huệ của người để sử lý công việc .  Nên nương theo mắt người để thấy , đâu chỉ thấy việc từ hai phía . Nương theo tai người để nghe , đâu chỉ nghe việc từ hai phía . Nương theo trí huệ của người để mưu toan , đâu chỉ điều tra việc từ hai phía .</t>
-  </si>
-  <si>
-    <t>Sách Chu Dịch viết : Sở dĩ bậc thánh-nhân lấy sự cùng cực , thâm xâu để tìm tòi cái cơ vi . Chỉ khi tìm tòi thâm sâu , nên có thể thông cái chí của thiên-hạ . Chỉ khi tìm tòi cái cơ vi , nên có thể lo thành công việc của thiên-hạ . Chỉ khi có thần , nên không lẹ mà nhanh , không đi mà đến .</t>
-  </si>
-  <si>
-    <t>Sách Hoài Nam Tử viết : Người chẳng ai không biết học là việc hữu ích cho mình . Tuy nhiên họ chẳng thể làm được , chỉ vì đùa nghịch mà làm hại vậy . Người đều lấy nhiều việc vô-dụng để hại việc hữu-dụng , nên sự hiểu biết không rộng mà thời gian lại chẳng đủ dùng . Lấy việc so sánh khi dùng sức đào ao hồ và cày ruộng , việc cày ruộng thì đất hoang ắt sẽ được mở mang vậy . Lấy việc so sánh đấp đất thành núi cao và tu phòng đê đập , việc tu phong đê đập thì nước dùng ắt đầy đủ vậy . Lấy việc so sánh chi phí nuôi chó , ngựa , chim hồng , chim nhạn để nuôi kẻ sĩ , việc nuôi kẻ sĩ thì danh dự ắt vẻ vang vậy . Lấy việc so sánh hàng ngày vui chơi săn bắn và đọc tụng Thi-Thư , việc đọc tụng Thi-Thư thì khiến thức ắt rộng vậy .</t>
-  </si>
-  <si>
-    <t>Sách Luận Ngữ viết :  Đức Khổng-Tử nói : Đạo đức mà không biết tu dưỡng . Học tập mà không biết giảng giải . Nghe thấy việc nghĩa mà không làm . Có điều bất thiện mà không sửa đỗi . Đó là những mối lo của ta .</t>
-  </si>
-  <si>
-    <t>Sách Viên Tử Chính Thư viết : Bậc thánh-nhân thường thường quý ở đức vững bền . Bậc thánh-nhân lâu dài ở đạo mà thiên-hạ hóa thành tựu . Chưa có việc không lâu bền mà có thể thành tựu đạo đức , và không đạo đức mà có thể gìn giữ lâu dài vậy .</t>
-  </si>
-  <si>
-    <t>Sách Xương Ngôn viết : Như 15 tuổi đặt chí hướng vào việc học , cùng bạn bè giảng giả , tập luyện , nỗ lực không ngừng nghỉ thì đạo đức và tuổi tiến lên dần . Đến 70 tuổi thì tự nhiên tùy lòng mình mà không ra khỏi quy củ . Huống hồ ở việc không đạt trúng quy củ , vậy mà không tự cố gắng ư ?  .</t>
-  </si>
-  <si>
-    <t>Sách Tôn Khanh Tử viết : Khiến hết lòng người trong thiên-hạ phục . Là cao-thượng , tôn-quý không kiêu ngạo với người . Thông-minh , thánh-trí không lấy đó để ép người . Ban tặng , nhanh nhẹn không tranh trước người . Cương-nghị , dũng-cảm không lấy đó để tổn thương người . Không biết thì hỏi . Không giỏi thi học . Tuy giỏi cũng phải khiêm nhượng .</t>
-  </si>
-  <si>
-    <t>Sách Doãn Văn Tử viết : Đã thiện mà khiến đại chúng cùng làm theo . Đã khéo giỏi mà khiến đại chúng cùng giỏi theo . Đó là thiện trong thiện , khéo trong khéo vậy . Nên cái quý của bậc thánh-nhân ở việc trị nước , không quý ở một mình trị nước , mà quý có thể cùng mọi người cùng trị nước vậy . Cái quý của người thợ Thùy khéo léo , không quý ở chổ một mình khéo léo , mà quý ở chổ cùng mọi người chung khéo léo vậy .</t>
-  </si>
-  <si>
-    <t>Sách Chu Dịch viết : Cùng người trước gào khóc sau tươi cười . Đức Khổng-Tử nói : đạo của người quân-tử , hoặc ra , hoặc ở , hoặc lặng yên , hoặc nói chuyện . Hai người đồng lòng thì như dao bén chặt đứt sắt thép . Nói là đồng lòng , cái mùi nó như hoa lan vậy .</t>
-  </si>
-  <si>
-    <t>Sách Lễ Ký viết : Không lấy miệng khen người ( quá đáng ) thì dân khởi lên trung thành . Nên người quân-tử hỏi khi người bị lạnh , thì ban áo . Khi hỏi người bị đói , thì ban thức ăn . Khi khen cái đẹp của người , thì ban tước vị .</t>
-  </si>
-  <si>
-    <t>Sách Hoài Nam Tử viết : Có người đi thuyền mà gặp gió lớn , rồi cơn sóng đến , người ấy sợ sệt liền nhảy xuống nước chết . Việc đó chẳng phải tham sống sợ chết ,  mà ở chổ người ấy hỗn loạn sợ chết mà quên mất cơ hội sống sót . Nên người có thị-dục lại cũng như thế . Cho nên người đạt-đạo không tùy tiện lấy , không nhường phúc phần , cái có được không bỏ đi , cái không có được không đòi hỏi . Thường đầy mà không tràn , thường trống rỗng mà không dễ đủ .</t>
-  </si>
-  <si>
-    <t>Sách Tấn Thư viết : Bậc thánh nhân vua Đại-Vũ , còn quý tiếc từng tấc thời gian , đến như mọi người , đáng lẽ phải tiếc thời gian , há lại có thể vui chơi , hưởng lạc trong rượu chè . Sống vô-ích , đến thời chết đi hậu-thế không ai biết đến . Đó là tự vứt bỏ mình vậy .</t>
-  </si>
-  <si>
-    <t>Sách Chính Yếu Luận viết : Việc làm ra kinh sách là muốn mở rộng truyền đạt đạo lớn , thuật lại rõ lời dạy của thánh hiền , suy diễn sự việc và nghĩa lý , đến hết mức thấu tình đạt lý ,  ghi chép điều phải , phê bình việc sai trái để làm phép tắc khuôn mẫu cho đương thời có thể làm , và đời sau có thể học tập theo .</t>
+    <t>Sách Lễ Ký viết : Cái phần trời ban cho gọi là Tính, tuân theo Tính gọi là Đạo, sửa mình theo Đạo gọi là Giáo. Đạo ấy chẳng thể lìa xa (ta) giây phút nào, nếu lìa xa (ta) thì không phải Đạo vậy.</t>
+  </si>
+  <si>
+    <t>Sách Chu Dịch viết : (Quẻ Kiền) Giữ đúng với khí thái-hòa bèn lợi ích trinh bền. Là đầu mối xuất ra mọi vật, vạn quốc đều yên ổn.</t>
+  </si>
+  <si>
+    <t>Sách Lão Tử viết : Người bắt chước Đất, Đất bắt chước Trời, Trời bắt chước Đạo, Đạo bắt chước tự nhiên.</t>
+  </si>
+  <si>
+    <t>Sách Lão Tử viết : Bậc thánh-nhân không tích trữ, càng vì người, mình càng có. Đạo của trời lợi mà chẳng hại, đạo của thánh-nhân làm mà chẳng tranh.</t>
+  </si>
+  <si>
+    <t>Sách Khổng Tử Gia Ngữ viết : Hiếu-học gần với trí huệ, siêng làm gần với lòng nhân, biết thẹn gần với dũng cảm, biết được ba điều đó thì biết cách sửa mình, biết cách sửa mình thì biết cách trị người, biết cách trị người thì có khả năng làm thành công việc thiên-hạ, quốc-gia vậy.</t>
+  </si>
+  <si>
+    <t>Sách Dục Tử viết : Phát huy nền chính trị, ban hành mệnh lệnh vì hạnh phúc của thiên-hạ đó là Đạo. Trên dưới yêu mến nhau gọi là Hòa. Dân chẳng cầu mà được như lòng mong muốn gọi là Tín. Trừ bỏ mối hại của thiên-hạ gọi là (đức) Nhân. Nhân và Tín, Hòa và Đạo là bảo vật của bậc đế-vương.</t>
+  </si>
+  <si>
+    <t>Sách Lục Thao viết : Vua Văn-Vương hỏi : như thế nào mới có thể sửa trị thiên-hạ ?. Thái-Công đáp : thưa lòng dạ lớn đủ trùm khắp thiên-hạ, rồi sau có thể bao dung thiên-hạ. Chữ tín lớn đủ trùm khắp thiên-hạ, rồi sau có thể ước hẹn với thiên-hạ. Lòng Nhân (từ) trùm khắp thiên-hạ, rồi sau mới có thể mong cầu ở thiên-hạ. Ân huệ trùm khắp thiên-hạ, rồi sau làm vua thiên-hạ. Quyền hành trùm khắp thiên-hạ, rồi sau mới có thể không mất thiên-hạ. Gặp việc không nghi ngờ, rồi sau cho thiên-hạ nhờ cậy. 6 việc đó đầy đủ mà sau có thể sửa trị việc chính trị thiên-hạ.</t>
+  </si>
+  <si>
+    <t>Sách Trung Luận viết : Nên bậc quân-tử chẳng sợ tuổi cao sẽ yếu dần, mà chỉ lo ý chí chán nản chẳng tẩm-đạo, chẳng túc-nghĩa. Nói mà chẳng làm là tẩm-đạo vậy, làm mà chẳng đúng thời là túc-nghĩa vậy.</t>
+  </si>
+  <si>
+    <t>Sách Chu Dịch viết : Quẻ Càn, tượng viết : Trời hành động mạnh mẽ, người quân-tử theo đó tự cường không ngừng nghỉ.</t>
+  </si>
+  <si>
+    <t>Sách Chu Dịch viết : Quẻ Khôn, Tượng viết : địa-thế quẻ Khôn, người quân-tử lấy đức hậu chở che mọi vật.</t>
+  </si>
+  <si>
+    <t>Sách Bão Phác Tử viết : Không tu việc thiện tức là người ác, không phụng sự bậc lớn là kẻ tiểu-nhân. Vua Trụ làm việc vô đạo nên xứng là kẻ vô đức, ngài Trọng-Ni là bậc bồi-thần nên được gọi là Tố-Vương. Tức là người quân-tử không hẳn phải ở việc được giàu sang vậy.</t>
+  </si>
+  <si>
+    <t>Sách Hiếu Kính viết : Hạnh hiếu-đễ thông đến thần minh, chiếu sáng đến bốn biển, không đâu chẳng thông.</t>
+  </si>
+  <si>
+    <t>Sách Mao Thi viết : Rau nga dài cộng rậm ren, chẳng là rau nữa cỏ hèn mà thôi. Xót thương cha mẹ ngậm ngùi, thật là cực khổ dưỡng bồi sinh ta. Không cha thì tựa vào đâu, mẹ mà không có dựa vào nơi ai. Đi ra ngậm mối ưu hoài, vào thì như chẳng biết rày đến đâu. Cha truyền hơi khí sinh ta, mẹ thì mang nặng đẻ ra nên người. Vỗ về nựng nịu dưỡng bồi, nuôi ta ấp ủ đến thời lớn khôn. Đi qua quay lại trông luôn, rao vào bỗng ằm chiêu nuông trong lòng. Báo đền ân đức ta mong, như trời to rộng vô cùng nghĩa ân.</t>
+  </si>
+  <si>
+    <t>Sách Lễ Ký viết : Hạnh hiếu có ba bậc, tiểu-hiếu dùng sức, trung-hiếu lao lực, đại-hiếu không (để cha mẹ) thiếu thốn. Nghĩ đến yêu thương quên đi lao khổ có thể gọi là dùng sức. Tôn sùng đức nhân, sống trong điều nghĩa có thể gọi là lao lực. Bố thí rộng, sắp đặt mọi vật có thể gọi là không (để) thiếu thốn. Cha mẹ yêu thì vui mà chẳng quên ơn, cha mẹ ghét thì sợ mà chẳng oán trách, cha mẹ có lỗi thì khuyên mà chẳng nghịch lại, cha mẹ đã mất ắt nhớ thương mãi, lấy lúa để cúng tế. Đó gọi là trọn vẹn lễ.</t>
+  </si>
+  <si>
+    <t>Sách Hiếu Kinh viết : Thân thể, lông, tóc nhận từ cha mẹ chẳng dám tổn thương đó là sự bắt đầu của hạnh hiếu. Tạo lập bản thân, thi hành đạo lý dương-danh đời sau để cho cha mẹ được vẻ vang đó là cái kết của hạnh hiếu. Hạnh hiếu bắt đầu từ phụng sự cha mẹ, giữa là phụng sự vua, kết thúc là tạo lập bản thân.</t>
+  </si>
+  <si>
+    <t>Sách Hiếu Kính viết : Ở chức trên chẳng kiêu thì ngôi cao mà không nguy khốn, tiết chế cẩn thận vừa phải lúc đầy đủ không phóng túng. Ngôi cao không nguy khốn để giữ sự tôn quý bền lâu, lúc đầy đủ không phóng túng để giữ sự giàu có dài mãi. Sự giàu có và tôn quý chẳng ly khỏi bản thân, mà sau có thể bảo toàn được xã-tắc mà cùng hòa vui với dân chúng. Đó là hạnh hiếu của chư-hầu. Kinh Thi viết : “ nơm nớp lo sợ, như đến vực sâu, như trên băng mỏng.” Nên Nơm nớp kinh sợ vậy.</t>
+  </si>
+  <si>
+    <t>Sách Hiếu Kinh viết : Chẳng đúng quy định của tiên-vương về pháp-phục, không dám mặc. Chẳng đúng quy định của tiên-vương về lời nói, không dám nói. Chẳng đúng việc làm đức hạnh của tiên-vương, không dám làm. Cho nên chẳng đúng phép không nói, chẳng đúng đạo lý không làm. Miệng không nói bậy, thân không làm bậy, lời nói đúng mực thiên-hạ không nói xấu, việc làm đúng mực thiên-hạ không oán ghét, ba điều ấy hoàn bị rồi, mà sau có thể giữ được tông-miếu. Đó là hạnh hiếu của quan khanh, quan đại-phu. Kinh Thi viết : “Làm việc sớm hôm chẳng trễ nãi, để hết lòng phụng sự một người (vua).”</t>
+  </si>
+  <si>
+    <t>Sách Hiếu Kinh viết : Nên lấy hạnh hiếu phụng sự vua thì trung thành, lấy lòng kính phụng sự bậc lớn thì thuận theo. Trung thành và thuận theo chẳng mất, lấy đó để phụng sự trên mà sau có thể bảo đảm được bổng lộc tước vị và giữ được việc tế-tự. Đó là hạnh hiếu của kẻ sĩ vậy.</t>
+  </si>
+  <si>
+    <t>Sách Hiếu Kinh viết : Theo đạo của Trời là chia lợi cho Đất, giữ thân, tiết kiệm để phụng dưỡng cha mẹ. Đó là hạnh hiếu của thứ-dân. Nên từ thiên-tử cho đến thứ-dân, hạnh hiếu không có trước sau mà (ai) chẳng lo cho kịp được thì chưa từng có vậy.</t>
+  </si>
+  <si>
+    <t>Sách Hiếu Kinh viết : Đức Khổng-Tử nói : Con hiếu phụng sự cha mẹ, 1.ở nhà thì hết lòng cung kính, 2.phụng dưỡng thì hết lòng vui vẻ, 3.bệnh tật hết lòng lo lắng, 4.tang sự hết lòng thương xót, 5.cúng dỗ hết lòng nghiêm trang. Năm điều ấy hoàn bị, mà sau có thể phụng sự cha mẹ.</t>
+  </si>
+  <si>
+    <t>Sách Lễ Ký viết : Thầy Tăng-Tử nói : thân thể này do cha mẹ ban cho, làm việc sử dụng thân thể cha mẹ ban cho dám không cẩn thận sao ?. Ăn ở chẳng đoan trang không hiếu. Phụng sự vua chẳng hết lòng không hiếu. Làm quan chẳng cẩn thận không hiếu. Bạn bè chẳng giữ chữ tín không hiếu. Đánh trận chẳng dũng cảm không hiếu. Năm việc ấy chẳng tuân theo, tai vạ đến với cha mẹ, dám không cẩn thận sao ?.</t>
+  </si>
+  <si>
+    <t>Sách Lễ Ký viết : Mỗi bước đi mà chẳng dám quên cha mẹ, mỗi khi nói mà chẳng dám quên cha mẹ. Mỗi bước đi mà chẳng dám quên cha mẹ nên hành đạo không theo lối tắt, đi thuyền mà chẳng dám bơi, chẳng dám trước lấy thân thể cha mẹ ban cho để làm việc nguy hiểm. Mỗi khi nói mà chẳng dám quên cha mẹ, cho nên lời ác chẳng xuất ra từ miệng thì những lời oán giận chẳng đến thân. Chẳng mang nhục đến thân thì chẳng làm xấu hổ cha mẹ, (như thế) có thể gọi là hiếu vậy.</t>
+  </si>
+  <si>
+    <t>Sách Hiếu Kinh viết : Nên chẳng yêu cha mẹ mà yêu người khác gọi là bội-đức (trái đức), chẳng kính cha mẹ mà kính người khác gọi là bội-lễ (trái lễ).</t>
+  </si>
+  <si>
+    <t>Sách Luận Ngữ viết : Thầy Tăng-Tử nói : kẻ sĩ không thể không có quyết tâm và hoài bão lớn, vì nhiệm vụ rất nặng mà đường lại xa, lấy việc dạy người lòng nhân từ là nhiệm vụ của mình há chẳng nặng ư ?, chỉ khi nào chết đi mới dừng lại há chẳng xa ư ?.</t>
+  </si>
+  <si>
+    <t>Sách Thân Giám viết : Có một lời mà có thể thường làm theo, đó là chữ “thứ” vậy. Có một việc làm mà có thể thường thực hiện, đó là chữ “chánh” vậy. Chữ “thứ” là phương pháp của Nhân vậy, chữ “chánh” là trọng yếu của Nghĩa vậy, thật quan trọng thay !</t>
+  </si>
+  <si>
+    <t>Sách Luận Ngữ viết : Thầy Nhan-Uyên hỏi lòng nhân. Đức Khổng-Tử đáp : khắc phục mình nương theo lễ đó là lòng nhân, một ngày khắc phục mình nương theo lễ thì thiên-hạ quy về lòng nhân. Lòng nhân do mình mà lẽ nào do người khác ?. Thầy Nhan-Uyên hỏi : xin thầy nói các điều mục ấy, đức Khổng-Tử đáp : Việc phi lễ chớ nhìn, điều phi lễ chớ nghe, lời phi lễ chớ nói, vật phi lễ chớ lấy.</t>
+  </si>
+  <si>
+    <t>Sách Luận Ngữ viết : Thầy Trọng-Cung hỏi lòng nhân. đức Khổng-Tử đáp : ra khỏi cửa thì nghiêm trang như gặp khách quý, sai khiến dân thì thận trọng như làm lễ lớn. Điều gì mình không muốn chớ đem cho người, trong nước chớ làm ai thù, trong nhà chớ làm ai oán.</t>
+  </si>
+  <si>
+    <t>Sách Hậu Hán Thư viết : Lúc nghèo hèn quen biết không thể quên đi. Người vợ tào-khang không thể hắt hủi.</t>
+  </si>
+  <si>
+    <t>Sách Thể Luận viết : Trời đất có kỷ cương, chẳng chân thành thì không thể giáo hóa, nuôi dưỡng vạn vật. Vua tôi có nghĩa, chẳng chân thành thì không thể làm việc cùng. Cha con có lễ, chẳng chân thành thì xa cách. Vợ chồng có ân, chẳng chân thành thì ly biệt. Việc giao-tiếp có danh phận, chẳng chân thành thì đoạn tuyệt. Lấy đạo nghĩa để ứng xử thì thỏa đáng, thấy được tình lý của việc khúc mắt chỉ có chân thành ư !.</t>
+  </si>
+  <si>
+    <t>Sách Tôn Khanh Tử viết : Người quân-tử dưỡng tâm chẳng gì tốt hơn chân thành. Đạt tới chân thành chẳng gì khác giữ gìn lòng nhân, làm việc nghĩa. Lòng chân thành giữ gìn lòng nhân thì có thể hóa vật. Lòng chân thành làm việc nghĩa thì có thể biến vật. Biến hóa thay đổi hưng thịnh gọi là Thiên-đức (đức trời).</t>
+  </si>
+  <si>
+    <t>Sách Viên Tử Chính Thư viết : Chỉ người quân-tử có thể giữ chữ tín, một khi mất chữ tín thì suốt đời làm việc gì cũng vô dụng. Nên người quân-tử rất coi trọng nó.</t>
+  </si>
+  <si>
+    <t>Sách Trung Luận viết : Đức Khổng-Tử nói : muốn người tin mình thì nói ít mà dốc sức làm, dốc sức làm thì chổ dùng ngày càng lâu dài, chổ dùng ngày càng lâu dài thì công việc rõ ràng, công việc rõ ràng thì người có mắt chẳng lẽ không thấy, người có tai chẳng lẽ không nghe, lý nào là sự việc bịa đặt ?.</t>
+  </si>
+  <si>
+    <t>Sách Luận Ngữ viết : Thầy Tử-Hạ nói người quân-tử giữ chữ tín mà sau khiến dân lao nhọc, chưa giữ được chữ tín thì dân sẽ coi mình là kẻ bạo ngược. Giữ chữ tín mà sau can gián, chưa giữ được chữ tín (mà can gián) thì mình bị coi là kẻ hủy báng.</t>
+  </si>
+  <si>
+    <t>Sách Phó Tử viết : Thành tín do cấp trên mà thiết lập. Nên vua lấy thành tín dạy bảo bề tôi thì bề tôi sẽ lấy thành tín hết lòng vì vua. Cha lấy thành tín răn dạy con thì con sẽ lấy thành tín hiếu thảo với cha. Chồng lấy thành tín đối trước với vợ thì vợ sẽ lấy thành tín thuận tòng theo chồng. Cấp trên giữ vững theo đạo thường để giáo hóa cấp dưới, thì cấp dưới sẽ tuân theo đạo thường mà ứng với cấp trên. Còn tuân theo đó mà không giáo hóa được ai, thì 100 việc chưa có 1 việc vậy.</t>
+  </si>
+  <si>
+    <t>Sách Thể Luận viết : Sắc mặt ra vẻ nhân từ mà thực tế trái lại, đó là hư-huyễn. Chẳng lấy chân thành đối đãi với bề tôi mà cứ mong mỏi bề tôi lấy chân thành phụng sự mình, đó là ngu-muội. Vua có hư-huyễn và ngu-muội thì chưa có thể được người làm tận lực đến chết vậy. Nên Kinh Thư nói : “vua như cái đầu, bề tôi như chân tay.” Đó là nói một thể, cần cùng nhau phối hợp mà thành công vậy.</t>
+  </si>
+  <si>
+    <t>Sách Hàn Tử viết : Xảo trá chẳng bằng vụng về thành thật.</t>
+  </si>
+  <si>
+    <t>Sách Thượng Thư viết : Làm việc đạo đức lòng thanh thản, ngày càng tốt lành. Làm việc dối trá lòng lao khổ, ngày càng kém cỏi.</t>
+  </si>
+  <si>
+    <t>Sách Khổng Tử Gia Ngữ viết : Thầy Tăng-Tử nói : xin hỏi thế nào là 7 loại giáo học ?. Đức Khổng-Tử đáp : 1.Trên kính trọng người già thì dưới càng hiếu thuận ; 2.trên tôn trọng người cao tuổi thì dưới càng hòa thuận ; 3.trên thích bố thí thì dưới càng khoan dung ; 4.trên thân cận người hiền thì dưới biết chọn bạn kết giao ; 5.trên thích đức hạnh thì dưới không ẩn dấu ; 6.trên ghét sự tham lam thì dưới xấu hổ khi tranh nhau ; 7.trên khiêm-nhượng thì dưới biết giữ tiết tháo, đó gọi là 7 loại giáo học vậy. 7 loại giáo học là gốc để trị dân, khi chính-giáo (ấy) an định thì gốc chánh vậy. Phàm trên là chuẩn mực của dân, chuẩn mực chánh thì có ai mà không chánh ?.</t>
+  </si>
+  <si>
+    <t>Sách Luận Ngữ viết : Đức Khổng-Tử nói : bản thân chánh dù không ra lệnh mà (dân cũng) làm theo, bản thân không chánh dù ra lệnh (dân) cũng chẳng theo.</t>
+  </si>
+  <si>
+    <t>Sách Chính Yếu Luận viết : Nên người quân-tử làm chính trị lấy làm việc chánh mình trước nhất, còn việc giáo học và lệnh cấm thì theo sau.</t>
+  </si>
+  <si>
+    <t>Sách Lễ Ký viết : Đức Khổng-Tử nói : Dưới phụng sự trên, không nên chỉ theo mệnh lệnh trên mà nên theo (ý) việc làm của trên. Trên thích vật đó thì cấp dưới hẳn thích nhiều hơn vậy. Nên việc ưa ghét của trên không thể không thận trọng. Đó là chuẩn mực của dân vậy.</t>
+  </si>
+  <si>
+    <t>Sách Xương Ngôn viết : Ta có lòng công bằng thì sĩ-dân chẳng dám có tâm niệm riêng tư. Ta có lòng bình đẳng thì sĩ-dân chẳng dám làm việc gian hiểm. Ta có lòng tiết kiệm thì sĩ-dân chẳng dám phóng túng đến xa xỉ. Việc đó mà đích thân làm thì là biểu trưng (hình mẫu) vậy.</t>
+  </si>
+  <si>
+    <t>Sách Lục Thao viết : Thái-Công nói làm tướng có 3 lễ, ngày mùa đông không mặc áo lông cừu, ngày mùa hạ không dùng quạt, trời mưa không che dù (để biết nỗi khổ của lính), tên gọi là 3 lễ vậy.</t>
+  </si>
+  <si>
+    <t>Sách Khổng Tử Gia Ngữ viết : Đức Khổng-Tử nói người quân-tử có 3 (việc không) tha thứ : 1.có vua chẳng thể phụng sự, có bề tôi mà mong sai khiến là việc không tha thứ. 2.có cha mẹ chẳng thể hiếu dưỡng, có con mà mong báo đáp là việc không tha thứ. 3.Có anh mà chẳng thể kính trọng, có em mà mong thuận theo là việc không tha thứ. Kẻ sĩ có thể làm rõ gốc của 3 (việc không) tha thứ đó thì có thể gọi là đoan chính bản thân vậy.</t>
+  </si>
+  <si>
+    <t>Sách Lễ Ký viết : Cho nên người quân-tử có hết ở mình sau mới cầu ở người, không có hết ở mình thì sau không (thể cầu) hết ở người.</t>
+  </si>
+  <si>
+    <t>Sách Tôn Khanh Tử viết : Người quân-tử có thể làm việc đáng quý trọng, nhưng không thể khiến người nhất định quý trọng mình. Có thể làm việc đáng tin tưởng, nhưng không thể khiến người nhất định tin tưởng mình. Có thể làm việc rất được trọng dụng, nhưng không thể khiến người nhất định trọng dụng mình. Nên người quân-tử xấu hổ khi chẳng tu học, chẳng xấu hổ khi thấy người ghét mình. Xấu hổ chẳng có chữ tín , chẳng xấu hổ khi thấy người không tin tưởng mình. Xấu hổ chẳng được giỏi, chẳng xấu hổ khi thấy người không trọng dụng mình. Thế nên họ không bị cám dỗ bởi lời khen ngợi, không sợ những lời chê bai, tuân theo đạo đức mà đi, tự đoan chánh mình, chẳng bị ngoài vật làm cho nghiêng lệch. Đó gọi là người quân-tử chân thành vậy.</t>
+  </si>
+  <si>
+    <t>Sách Hàn Tử viết : Vinh quang hay nhục nhã là trách nhiệm tại mình không phải tại người.</t>
+  </si>
+  <si>
+    <t>Sách Chu Dịch viết : Quẻ Gia-Nhân Tượng viết : người quân-tử lấy lời nói của người vật mà hành động theo lẽ thường.</t>
+  </si>
+  <si>
+    <t>Sách Yến Tử viết : Áo mũ đúng nên triều-đình không có y phục khác thường ; Lời nói hợp nghĩa nên dưới không báo cáo dối trên ; Thân hành động thích hợp thì trị lý việc công bằng nên nước không có bè đảng a dua. Ba việc đó người quân-tử thường làm vậy.</t>
+  </si>
+  <si>
+    <t>Sách Tôn Khanh Tử viết : Nên âm thanh dù nhỏ lý nào chẳng ai nghe, hành động dù che dấu lý nào chẳng có hình dáng, ngọc ở núi mà cây cỏ thấm nhuận ấy, chổ sâu sinh ra châu ngọc mà ven núi không khô héo ấy. Làm thiện tích lũy, lý nào có chuyện người không nghe ư ?.</t>
+  </si>
+  <si>
+    <t>Sách Hậu Hán Thư viết : Đế (Quang Vũ Đế) nói : kiến lập việc lớn chẳng đố kị oán nhỏ.</t>
+  </si>
+  <si>
+    <t>Sách Giả Tử viết : Đức Lão-Tử nói : lấy đức báo oán.</t>
+  </si>
+  <si>
+    <t>Sách Chu Dịch viết : Thoán viết : Quẻ Khiêm hanh thông, đạo trời giúp dưới mà sáng láng, đạo đất thấp mà đi lên trên, đạo trời giảm chỗ đầy mà tăng ích chỗ thiếu, đạo đất biến đổi chỗ đầy mà chảy vào chỗ thiếu, quỷ thần làm hại chỗ đầy mà ban phúc chỗ thiếu, đạo người ghét chỗ đầy mà thích chỗ thiếu. Khiêm (tốn) tôn quý mà sáng lạng, thấp mà không thể vượt qua, đó là cái chung cuộc của người quân-tử vậy.</t>
+  </si>
+  <si>
+    <t>Sách Thượng Thư viết : Chỉ đức hạnh mới cảm động trời đất, dù người xa mấy cũng đến quy phục. Tự mãn sẽ chiêu lấy tổn thất, khiêm nhượng nhận nhiều ích lợi, đó là đạo trời.</t>
+  </si>
+  <si>
+    <t>Sách Chu Dịch viết : Thoán viết : Người quân-tử lao nhọc mà khiêm nhường muôn dân phục vậy.</t>
+  </si>
+  <si>
+    <t>Sách Thượng Thư viết : Đức hạnh ngày càng tiến, các nước đều đến quy phục. Tự mãn cửu-tộc (9 họ) bèn ly biệt.</t>
+  </si>
+  <si>
+    <t>Sách Thuyết Uyển viết : Nên Kinh Dịch viết : có một đạo, lớn đủ để giữ thiên-hạ, đủ để giữ quốc-gia, nhỏ đủ để giữ bản thân đó là đức khiêm nhường vậy.</t>
+  </si>
+  <si>
+    <t>Sách Thượng Thư viết : Nếu lên cao ắt bắt đầu từ chỗ thấp, nếu đi xa ắt bắt đầu từ chỗ gần.</t>
+  </si>
+  <si>
+    <t>Sách Lão Tử viết : Sông biển sở dĩ có khả nằng làm vua của trăm suối, là vì nó khéo đứng dưới thấp.</t>
+  </si>
+  <si>
+    <t>Sách Trung Luận viết : Người quân-tử thường để lòng dạ rỗng không, dung mạo thì cung kính, không tìm lỗi lầm quần chúng để cho mình tài trên mọi người. Thường xem người khác đều tài năng, tự xem mình kém tài năng. Nên người muốn khuyên bảo gì thì chẳng chán ghét, ai dạy gì thì chẳng mỏi mệt.</t>
+  </si>
+  <si>
+    <t>Sách Thượng Thư viết : Ngươi không khoe khoang, thiên-hạ chẳng ai cùng ngươi tranh tài. Ngươi không khoe công, thiên-hạ chẳng ai cùng ngươi tranh công.</t>
+  </si>
+  <si>
+    <t>Sách Ngụy Chí viết : Thường người có việc thiện, ít khi chẳng tự khoe công. Có tài năng, ít khi chẳng tự khoe khoang. Khoe công thì che lấp người, khoe khoang thì lấn hiếp người. Che lấp người lại bị người che lấp lại, lấn hiếp người lại bị người lấn hiếp lại.</t>
+  </si>
+  <si>
+    <t>Sách Luận Ngữ viết : Đức Khổng-Tử nói : ví như người có tài năng tốt đẹp như Chu-Công, mà có tính kiêu ngạo lại keo kiệt, thì thật những thứ khác ta chẳng cần xem nữa.</t>
+  </si>
+  <si>
+    <t>Sách Chu Dịch viết : Rồng ở chổ cùng cực có sự ăn năng nghĩa là sao ?. Đức Khổng-Tử nói : tôn quý mà không ngôi vị, cao mà không dân, người tài ở ngôi vị thấp kém mà không người phụ giúp, cho nên hành động có sự ăn năng vậy. “Kháng” là nói về hạng người, biết tiến mà không biết thoái, biết còn mà không biết mất, biết được mà không biết táng. Đó duy chỉ có bậc thánh-nhân sao ?, tiến thoái, được mất mà chẳng mất sự chánh đáng, đó duy chỉ có bậc thánh-nhân sao ?.</t>
+  </si>
+  <si>
+    <t>Sách Thượng Thư viết : Khi bậc thánh không suy nghĩ thì thành người ngông cuồng, khi người ngông cuồng biết khắc chế suy nghĩ thì làm bậc thánh.</t>
+  </si>
+  <si>
+    <t>Sách Ngô Chí viết : Truyện viết rằng : theo thiện như leo cao, theo ác như núi lở.</t>
+  </si>
+  <si>
+    <t>Sách Lễ Ký viết : Thiên Khúc Lễ viết rằng ; “ không gì chẳng cung kính, dáng vẻ trang trọng như suy tư, lời nói an định, yên ổn mọi người vậy.</t>
+  </si>
+  <si>
+    <t>Sách Thuyết Uyển viết : Địa vị càng cao thì ý nghĩ càng khiêm hạ, quan tước càng hiển đạt thì lòng càng thấy thấp kém, bổng lộc càng hậu hĩnh thì thận trọng chẳng dám nhận lấy.</t>
+  </si>
+  <si>
+    <t>Sách Văn Tử viết : Sinh ra mà tôn quý thì có tính kiêu ngạo, sinh ra mà giàu có thì có tính xa xỉ. Nên người giàu sang chẳng rõ đạo lý để tự xét mình mà có thể không làm việc sai trái thì rất ít vậy.</t>
+  </si>
+  <si>
+    <t>Sách Chu Dịch viết : Hào cửu tam nói : người quân-tử suốt ngày (làm việc) chăm chỉ, chiều hôm hằng kinh sợ gắng sức để không lầm lỗi nghĩa là sao ?. Đức Khổng-Tử nói : người quân-tử tiến-đức, tu-nghiệp, nết trung-tín là để tiến-đức, sửa lời lập điều thành thực là cư nghiệp. Cho nên ở ngôi vị trên không kiêu căng, ở ngôi vị dưới không ưu buồn. Nên (làm việc) chăm chỉ nhân lúc đó mà cảnh giác, tuy nguy hiểm không lầm lỗi vậy.</t>
+  </si>
+  <si>
+    <t>Sách Lễ Ký viết : Đạo đó, không thể xa lìa ta giây phút nào, có thể xa lìa thì chẳng phải đạo vậy. Cho nên người quân-tử phải răn mình thận trọng ở chổ không ai trông thấy, phải sợ hãi ở chổ không ai nghe thấy. Đừng cho rằng che đậy mà không hiển lộ, đừng cho rằng dấu đi mà không ai thấy. Nên người quân-tử phải thận trọng khi ở một mình vậy.</t>
+  </si>
+  <si>
+    <t>Sách Thi Tử viết : Làm việc có 4 tiêu chuẩn : một là suy nghĩ không quên nhân từ, hai dùng trí huệ không quên đạo nghĩa, ba làm việc không quên hết lòng, bốn nói chuyện không quên thành thực. Cẩn thận giữ 4 tiêu chuẩn cho bản thân đến suốt đời, thì công danh sẽ đến theo. Giống như hình theo bóng, âm thanh phát ra vọng lại vậy.</t>
+  </si>
+  <si>
+    <t>Sách Trung Luận viết : Người quân-tử miệng không nói lời đùa giỡn, thì lời nói ắt có phòng ngừa. Bản thân không đùa giỡn khi làm việc, thì làm việc ắt có kiểm soát. Lời nói ắt có phòng ngừa, làm việc ắt có kiểm soát dẫu thê-thiếp gần gũi cũng không thể khinh thường. Dù là bạn bè gần gũi cũng không thể coi thường. Ấy không phải là tức giận mà dạy nết tốt cho chốn khuê-môn, không răn dạy mà thay đổi phong hóa (tốt đẹp) cho xóm làng, như thế mới xứng là bậc đại-nhân làm chánh mình mà sau mọi vật chánh, đại khái gọi đó là thế vậy.</t>
+  </si>
+  <si>
+    <t>Sách Khổng Tử Gia Ngữ viết : Răn lắm thay !, không nói nhiều, nói nhiều thì lắm thua thiệt. Không nhiều chuyện, nhiều chuyện thì lắm họa hoạn. Lúc an vui ắt răn mình, không làm chuyện đến nỗi hối hận.</t>
+  </si>
+  <si>
+    <t>Sách Chu Dịch viết : Đức Khổng Tử nói loạn sinh ra là do ngôn ngữ dẫn tới. Vua không cẩn mật thì mất bề tôi, bề tôi không cẩn mật thì mất thân, việc cơ-sự không cẩn mật thì hại thành công. Cho nên người quân-tử lấy sự thận trọng, cẩn mật mà không lộ ra ngoài vậy.</t>
+  </si>
+  <si>
+    <t>Sách Lão Tử viết : Người dễ hứa , ắt ít tin được. Kẻ xem gì cũng dễ, ắt gặp nhiều việc khó. Vậy nên bậc thánh-nhân xem việc gì cũng khó, nên trọn đời không gặp việc gì khó cả.</t>
+  </si>
+  <si>
+    <t>Sách Luận Ngữ viết : Đức Khổng Tử nói có 3 loại sở thích lợi ích, 3 loại sở thích tổn hại. * thích dùng lễ nhạc đều tiết cuộc sống, thích nói điều tốt của người, thích có bạn hiền đó là 3 loại sở thích lợi ích. + thích kiêu ngạo, thích chơi bời phóng túng, thích tiệc tùng đó là 3 loại sở thích tổn hại.</t>
+  </si>
+  <si>
+    <t>Sách Chu Dịch viết : Người quân-tử lấy tiết kiệm để dưỡng đức tránh nạn, không thể lấy lợi lộc để làm vinh quang.</t>
+  </si>
+  <si>
+    <t>Sách Lễ Ký viết : Nên người quân-tử giao tiếp nhạt như nước, kẻ tiểu nhân giao tiếp nồng như rượu nếp. Người quân-tử đạm bạc để thành công, kẻ tiểu-nhân ngọt ngào để hư hoại.</t>
+  </si>
+  <si>
+    <t>Sách Khổng Tử Gia Ngữ viết : Nên nói cùng ở với người thiện như vào nhà trồng hoa lan, loa chi lâu ngày mà không hay biết cái mùi thơm đó, dần dần cùng hóa theo nó hồi nào không hay. Ở cùng với người không thiện như vào hàng quán bán cá mắm, lâu ngày mà không hay biết cài mùi hôi thúi đó, lại cũng hóa theo nó hồi nào không hay. Nên thấy người quân-tử ắt phải thận trọng chọn người ở cùng mình vậy.</t>
+  </si>
+  <si>
+    <t>Sách Luận Ngữ viết : Đức Khổng-Tử nói bạn ích lợi có 3 loại, bạn tổn hại có 3 loại. * bạn chính trực, bạn thành tín, bạn hiểu biết nhiều đó là 3 loại bạn lợi ích. + bạn khéo giả bộ, bạn khéo lẻo mép, bạn khéo nịnh hót đó là 3 loại bạn tổn hại.</t>
+  </si>
+  <si>
+    <t>Sách Thi Tử viết : Học không mệt mỏi là để trị mình vậy. Dạy không chán nản là để trị người vậy.</t>
+  </si>
+  <si>
+    <t>Sách Chu Dịch viết : Người quân-tử học tập để tích lũy kiến thức, tra hỏi để biện bác rõ ràng, lấy sự khoan dung để ăn ở, lấy đức nhân từ để làm việc.</t>
+  </si>
+  <si>
+    <t>Sách Tiềm Phu Luận viết : Người thợ muốn làm tốt công việc ắt trước có đồ nghề sắc bén, kẻ sĩ muốn tuyên dương đạo nghĩa ắt trước phải đọc nhiều sách. Kinh Dịch viết : người quân-tử lấy ghi nhớ nhiều lời hay xưa, nết tốt cũ, để nuôi dưỡng đức của mình.</t>
+  </si>
+  <si>
+    <t>Sách Tăng Tử viết : Thầy Tăng-Tử nói người quân-tử phản đối việc ác, cầu thấy lỗi mình, nỗ lực làm những việc chưa có khả năng, bỏ đi lòng tư-dục, làm việc theo đạo nghĩa, như thế có thể gọi là học vậy.</t>
+  </si>
+  <si>
+    <t>Sách Luận Ngữ viết : Đức Khổng-Tử nói : ta đã từng cả ngày không ăn, suốt đêm không ngủ chỉ để suy tư những việc vô ích, chẳng bằng học vậy.</t>
+  </si>
+  <si>
+    <t>Sách Tôn Khanh Tử viết : Thấy việc thiện ắt để nó trong lòng, thấy việc không thiện ắt tự phản tỉnh. Nên người nói lỗi ta mà đúng đó là thầy ta, người khen ta mà đúng đó là bạn ta, kẻ nịnh bợ ta đó là kẻ hủy hoại ta.</t>
+  </si>
+  <si>
+    <t>Sách Lão Tử viết : Cây to một vòng ôm, khởi sinh tại gốc nhỏ. Đài cao lớn chín tầng, khởi đầu nhúm đất con. Đi xa đến nghìn dặm, khởi đầu một bước chân.</t>
+  </si>
+  <si>
+    <t>Sách Tôn Khanh Tử viết : Nên không tích lũy nữa bước chân thì không đi đến cả ngàn dặm, không tích chứa những dòng chảy nhỏ thì không thể thành sông biển.</t>
+  </si>
+  <si>
+    <t>Sách Chu Dịch viết : (Quẻ Phong Lôi Hằng) Hào cửu tam : chẳng thường giữ đức tốt, có thể cái nhục sẽ theo. (Tượng viết) chẳng thường giữ đức tốt, không có chổ dung thân vậy.</t>
+  </si>
+  <si>
+    <t>Sách Chu Dịch viết : (Quẻ Sơn Hỏa Bí) Tượng viết xem thiên-văn để xét bốn mùa, xem văn vẻ người để giáo hóa thành công thiên-hạ.</t>
+  </si>
+  <si>
+    <t>Sách Chu Dịch viết : (Quẻ Lôi Địa Dự) Trời đất lấy thuận (tự nhiên) để động, nên mặt trời, mặt trăng không vượt quá, mà bốn mùa không biến đổi. Bậc thánh-nhân lấy thuận (nhân tình) để động, thì hình-phạt đơn giản, mà dân phục. Thời của quẻ Dự, nghĩa lớn lắm thay !.</t>
+  </si>
+  <si>
+    <t>Sách Chu Dịch viết : (Văn Ngôn viết) Quẻ Khôn đến nhu thuận mà động. Cứng đến tĩnh mà đức vuông vắn. Sau được làm chủ mà có giữ đạo thường. Hàm chứa vạn vật mà biến hóa vẻ vang. Đạo Khôn thuận theo ư ?. Vâng mệnh trời mà làm đúng thời.</t>
+  </si>
+  <si>
+    <t>Sách Chu Dịch viết : (Quẻ Kiền viết) Ôi bậc đại-nhân ấy cùng trời đất hòa hợp đức. Cùng mặt trời, mặt trăng hòa hợp ánh sáng. Cùng bốn mùa hòa hợp thứ tự. Cùng quỷ-thần hòa hợp tốt xấu. Ở trước trời mà không trái, ở sau trời mà vâng theo thiên thời.</t>
+  </si>
+  <si>
+    <t>Sách Chu Dịch viết : (Hệ Từ Thượng viết) Đức Khổng-Tử nói : Chổ trợ giúp của trời là thuận theo vậy. Chổ trợ giúp của người là thành tín vậy. Đi vào thành tín thì suy tư đến thuận theo. Cho nên tự trời giúp đó tốt lành, không gì không lợi.</t>
+  </si>
+  <si>
+    <t>Sách Thi Tử viết : Thường đạo lý đem (dạy) cho người thì khó mà làm thì dễ. Cho nên thầy Tăng-Tử nói : “cha mẹ thương thì vui mà chẳng quên, cha mẹ ghét thì sợ mà không bỏ”. Như thế thì yêu và ghét đều có thể làm trọn hạnh hiếu không (nhất thiết phải) chọn lựa vậy. Ông Sử-Thu nói : “ vua mến mà gần gủi, thì hết sức cung kính đến nhún nhường. Còn vẻ mặt mà xa cách, thì cung kính mà không oán giận”. Như thế thì gần gủi và xa cách đều có thể làm trọn lòng trung không (nhất thiết phải) chọn lựa vậy. Đức Khổng-Tử nói :” tự vui sướng khi dùng ổn-quát uốn cong vật cho thẳng lại, mình thẳng mà không làm thẳng người, việc tốt phế đi mà chẳng u sầu, đó là hạnh tốt của ông Cừ-Bá-Ngọc”. Như thế thì hưng thịnh và phế bỏ đều có thể làm thành việc tốt không (nhất thiết phải) chọn lựa vậy. Ông Khuất-Hầu-Phụ nói :”người hiền dễ nhận biết, xem lúc giàu có phân chia của cải ra sao, tiến cử người phát đạt thế nào, lúc khốn cùng xem chổ có nhận của bất nghĩa không”. Như thế thì khốn cùng và phát đạt đều có thể trở thành hiền-nhân không (nhất thiết phải) chọn lựa vậy. Cho nên yêu, ghét, gần gủi, xa cách, phế bỏ, hưng thịnh, khốn cùng, phát đạt đều có thể thành tựu đạo nghĩa.</t>
+  </si>
+  <si>
+    <t>Sách Dục Tử viết : Người quân-tử chẳng cùng người mưu tính thì thôi. Còn nếu cùng người mưu tính thì không thể nào trái đạo nghĩa. Nên người quân-tử mưu tính giỏi ắt dùng đạo nghĩa, còn chẳng giỏi ắt tiếp nhận. Có năng lực ắt làm hết mình, còn không có năng lực ắt thu nhận. Có năng lực ắt thành tín, còn không có năng lực thì nhìn nhận thành tín. Người quân-tử không trái đức nhân, chẳng nói ra lời lẽ mà chỉ thực hiện bằng hành động. Nên việc sai trái làm cho đúng lại, còn việc xấu ác thì làm cho tốt lại mà đạo đức tỏ rõ vậy.</t>
+  </si>
+  <si>
+    <t>Sách Chu Dịch viết : (Quẻ Địa Phong Thăng) Tượng viết : trong đất sinh cây là quẻ Thăng. Người quân-tử coi đó để thuận theo đức, tích nhỏ để thành cao lớn.</t>
+  </si>
+  <si>
+    <t>Sách Văn Tử viết : Bậc đế quý trọng đức, bậc vương tôn trọng nghĩa, bậc bá bức ép theo lý. Đạo hẹp thì sao người trí tín nhiệm ?, đức mỏng thì sao sử dụng hình phạt ?, trí cạn thì sao làm việc việc kĩ càng ?.</t>
+  </si>
+  <si>
+    <t>Sách Lục Thao viết : Trời có mùa, đất có của cải, có thể cùng người cùng hưởng là lòng nhân vậy, lòng nhân là chỗ cho thiên-hạ quy về. Khiến người thoát chết, giải thoát người lúc khó khăn, cứu người lúc hoạn nạn, giúp người lúc nguy cấp đó là đức vậy, đức là chỗ cho thiên-hạ quy về. Cùng người cùng lo, cùng vui, cùng thích, cùng ghét đó là nghĩa, nghĩa là chỗ cho thiên-hạ quy về. Thường người ghét chết mà thích sống, thích được mà hướng về lợi ích, có thể sinh lợi (ích cho mọi người) là đạo. đạo là chỗ cho thiên-hạ quy về.</t>
+  </si>
+  <si>
+    <t>Sách Lục Thao viết : Vua Văn-Vương hỏi Thái-Công rằng : đạo của bậc thánh-nhân đời trước khanh có thể nói ta nghe được không ?. Thái-Công đáp : thưa đạo nghĩa thắng lòng dục thì tốt đẹp, lòng dục thắng đạo nghĩa thì diệt vong, cung kính thắng khinh mạn thì tốt lành, khinh mạn thắng cung kính thì mất mát. Nên đạo nghĩa thắng khinh mạn thì thịnh vượng, khinh mạn thắng cung kính thì diệt vong.</t>
+  </si>
+  <si>
+    <t>Sách Thuyết Uyển viết : Đạo, đức, nhân, nghĩa an định mà thiên-hạ chánh đáng.</t>
+  </si>
+  <si>
+    <t>Sách Văn Tử viết : Có đạo thì dùng lý lẽ, luật pháp tuy ít nhưng đủ để trị vậy. Vô đạo thì đứng nhìn, mệnh lệnh tuy nhiều nhưng đủ để loạn vậy.</t>
+  </si>
+  <si>
+    <t>Sách Tả Truyện viết : Trời trái mùa thì gây thiên tai, đất trái vạn vật thì có chuyện quái dị, người trái đức thì loạn. Loạn thì chuyện quái dị và thiên tai sinh ra.</t>
+  </si>
+  <si>
+    <t>Sách Ngụy Chí viết : Hiếu thảo, cung kính, lòng nhân, việc nghĩa, cả trăm hạnh tốt nó đứng đầu và nên lấy đó gây dựng bản thân làm gốc. Có hiếu thảo, cung kính thì dòng họ an định. Có lòng nhân, việc nghĩa thì làng xóm coi trọng. Các Hạnh tốt đó thành ở trong, danh tiếng rõ rệt ở ngoài vậy.</t>
+  </si>
+  <si>
+    <t>Sách Ngụy Chí viết : Đạo của người làm con, chẳng gì lớn hơn bằng bảo vệ thân, giữ vẹn toàn hạnh tốt để hiển danh cha mẹ.</t>
+  </si>
+  <si>
+    <t>Sách Lễ Ký viết : Thầy Tăng-Tử nói con hiếu phụng dưỡng cha mẹ già, phải làm vui tai mắt, an ổn chốn ngủ, lấy việc ăn uống phụng dưỡng hết lòng. Cha mẹ yêu mến gì thì mình cũng yêu mến, cha mẹ kính trọng ai thì mình cũng kính trọng.</t>
+  </si>
+  <si>
+    <t>Sách Xương Ngôn viết : Người phụng sự cha mẹ, không được bỏ cha mẹ qua một bên, chẳng chán nản khi làm việc khổ nhục, vâng lời cha mẹ nói, tuân theo lòng mong muốn của cha mẹ. Khi thân thể (cha mẹ) chẳng an ổn thì chẳng được ngủ, đến khi bữa cơm (cha mẹ) không ăn no thì chẳng được ăn. Siêng năng làm như thế đến khi thân này chết đi.</t>
+  </si>
+  <si>
+    <t>Sách Tăng Tử viết : Lễ thì dùng sức lực, kính thì lo hết lòng. Kinh Thi nói :”tối thì ngủ, sáng dậy ngay. Chớ làm cha mẹ nhục lây vì mình.” Chẳng để cha mẹ mang nhục đó là nết hiếu của người quân-tử vậy.</t>
+  </si>
+  <si>
+    <t>Sách Hiếu Kinh viết : Thầy Tăng-Tử nói như việc từ-ái, cung-kính, làm an lòng cha mẹ, làm rạng danh tiếng (ở đời) thì học trò nghe thầy giảng. Dám hỏi con nghe theo lệnh cha thì có thể gọi là hiếu không ?. Đức Khổng-Tử đáp : “ sao nói thế ?, sao nói thế ?. Xưa kia thiên-tử có 7 người bề tôi can gián, tuy làm việc vô đạo chẳng mất thiên-hạ. Chư hầu có 5 người bề tôi can gián, tuy làm việc vô đạo chẳng mất nước. Quan đại-phu có 3 người bề tôi can gián, tuy làm việc vô đạo chẳng mất gia đình. Kẻ sĩ có bạn can gián thì thân chẳng mất danh tốt. Cha có con can gián thì thân chẳng mắc tội bất nghĩa. Nên đang làm việc bất nghĩa thì phải can gián. Sao nghe theo lệnh cha lại được cho là hiếu ?.</t>
+  </si>
+  <si>
+    <t>Sách Ngụy Chí viết : Anh em như tay phải, tay trái vậy. Thí như người muốn đánh nhau mà chặt đứt tay phải rồi nói ta ắt thắng, như thế được sao ?. Bỏ đi anh em mà chẳng gần gũi, vậy thiên-hạ ai chịu gần gũi.</t>
+  </si>
+  <si>
+    <t>Sách Viên Tử Chính Thư viết : Cái gọi là nhân từ là yêu người vậy, yêu người là hạnh tốt của bậc làm cha mẹ, bậc làm cha mẹ của dân (là vua có hạnh tốt đó), nên có thể hưng khởi những ích lợi cho thiên-hạ. Cái gọi là việc nghĩa, là có thể nhận rõ lý của sự vật, thông rõ được lý của sự vật, nên có thể trừ đi những mối hại của thiên-hạ. Việc hưng khởi những ích lợi, trừ đi những mối hại đó sự nghiệp của bậc hiền-nhân vậy.</t>
+  </si>
+  <si>
+    <t>Sách Hậu Hán Thư viết : Thường người sở dĩ tôn quý hơn cầm thú là có lòng nhân-ái, biết kính nhau trong công việc.</t>
+  </si>
+  <si>
+    <t>Sách Hậu Hán Thư viết : Lòng nhân là gốc của hạnh tốt, lòng trung là chủ của việc nghĩa. Người có lòng nhân chẳng bỏ bạn cũ, người có lòng trung chẳng quên vua, đó là những hạnh tốt cao quý vậy.</t>
+  </si>
+  <si>
+    <t>Sách Mao Thi viết : Nhà Chu trung hậu, lòng nhân từ đến cỏ cây, nên trong có thể hòa mục cửu-tộc, ngoài tôn trọng việc người già, nuôi dưỡng người già xin ý kiến họ, để thành công ấy là phúc-lộc vậy.</t>
+  </si>
+  <si>
+    <t>Sách Thuyết Uyển viết : Bậc thánh-nhân ở thiên-hạ giống như đứng trên một triều-đường. Nay triều-đường có đông người đang ăn uống, như có một người lẽ loi tự nhiên hướng vào tường mà khóc, thì hẳn người cả một triều-đường ấy đều chẳng vui vậy. Bậc thánh-nhân ở thiên-hạ cũng giống như đứng trên một triều-đường. Có một người chẳng được chỗ thích hợp, thì con hiếu chẳng dám lấy lễ vật mà dâng lên vậy.</t>
+  </si>
+  <si>
+    <t>Sách Thượng Thư viết : Đức độ của nhà vua không lẫm lỗi, đối với người rất giản dị, cai trị rất khoan hồng ; Phạt tội không phạt đến người nối dõi, ban thưởng thì đến cả đời sau. Người lỡ phạm tội không làm lớn ra, người cố ý phạm tội không làm nhỏ lại ; Tội còn nghi ngờ thì phạt nhẹ, công lao còn nghi ngờ thì trọng thưởng cho ; Như giết lầm một người vô tội, thì thà không làm vậy.</t>
+  </si>
+  <si>
+    <t>Sách Luận Ngữ viết : Thầy Tử-Cống hỏi (thầy) có một lời khuyên (nào cho con) mà có thể thực hành cho bản thân đến suốt đời không ?. Đức Khổng-Tử đáp “ là chữ thứ (suy bụng ta ra bụng người) ư !, điều gì mình không muốn, thì đừng làm cho người.</t>
+  </si>
+  <si>
+    <t>Sách Văn Tử viết : Bậc thánh-nhân lấy nhân-nghĩa làm mực thước, trúng mực thước thì gọi là người quân-tử, chẳng trúng thì gọi là kẻ tiểu-nhân. Người quân-tử tuy chết mà danh tiếng không mất, kẻ tiểu-nhân tuy có được thế lực mà tội lỗi không thể tiêu trừ. Tay trái chiếm giữ mưu tính việc thiên-hạ, mà tay phải dùng dao đâm vào cổ họng, dù kẻ ngu cũng chẳng làm vì họ quý bản thân huống hồ là người thiên-hạ. Chết vì vua, vì cha mẹ là việc khó, thấy cái chết giống như trở về đạo nghĩa, vì nó trọng hơn thân vậy. Xem cái lợi lớn của thiên-hạ so với bản thân thì nhỏ, bản thân rất quan trọng vậy mà so với đạo nghĩa vì sao lại xem nhẹ ?. Đó là lấy nhân-nghĩa làm chuẩn mực vậy.</t>
+  </si>
+  <si>
+    <t>Sách Thể Luận viết : Đức Khổng-Tử nói : (làm việc) bất nghĩa mà được giàu lại sang, đối với ta thì xem nó như mây bay vậy.</t>
+  </si>
+  <si>
+    <t>Sách Luận Ngữ viết : Đức Khổng-Tử nói người quân-tử không lìa xa lòng nhân dù trong một bữa ăn. Dẫu lúc vội vàng ắt giữ vững như thế, hay gặp cảnh nguy khốn ắt giữ vững như thế.</t>
+  </si>
+  <si>
+    <t>Sách Ngụy Chí viết : Thầy Mạnh-Kha (Mạnh-Tử) nói giết một người vô tội để chiếm lấy thiên-hạ, người nhân từ không làm vậy.</t>
+  </si>
+  <si>
+    <t>Thầy Mạnh Tử nói : Chưa có người có lòng nhân mà bỏ đi cha mẹ, chưa có người có đạo nghĩa mà để việc của vua ra sau.</t>
+  </si>
+  <si>
+    <t>Sách Văn Tử viết : Có công lao mà lìa nhân-nghĩa thì liền bị nghi ngờ, có tội mà không mất đi lòng nhân từ ắt được tín nhiệm. Vậy nhân-nghĩa là đạo thường nên thuận theo, là danh tước tôn quý của thiên-hạ. Dù có được mưu kế thích đáng, để lo toan giải trừ những tai họa trước mắt, hay suy tính cho đất nước trường tồn những công việc đó nếu lìa nhân-nghĩa thì dù có thành tích ắt sẽ không được toại nguyện vậy.</t>
+  </si>
+  <si>
+    <t>Sách Phó Tử viết : Mở đến con đường công bằng, giữ vững tấm lòng bình đẳng, thi hành hình mẫu lớn đến cùng, chỉ có chân thành mà thôi vậy. Dốc lòng chân thành thì trời đất cảm động huống hồ là người !.</t>
+  </si>
+  <si>
+    <t>Sách Phó Tử viết : Thường người làm bậc trên, mà dốc hết lòng chân thành, mở ra thành-tín để đối đãi cấp dưới thì người bụng thành-tín sẽ tự nhiên vui vẻ mà giúp sức, không thành-tín tự nhiên thẹn đỏ mặt mà (cấp dưới không) hồi đáp ý kiến vậy.</t>
+  </si>
+  <si>
+    <t>Sách Ngụy Chí viết : Lòng tin của dân là bảo vật lớn của quốc gia. Đức Trọng-Ni nói : xưa nay ai không chết, không có lòng tin (của dân thì) chẳng làm được gì.</t>
+  </si>
+  <si>
+    <t>Sách Điển Ngữ viết : Vua tín nhiệm bề tôi, như thân tin tưởng tay. Bề tôi phụng sự vua lại nên như tay buộc với thân. An định thì chung vui, đau khổ thì cùng buồn. Đến trên dưới đồng tâm để trị lý việc thế-sự, thì chẳng đợi mệnh trời mà tự siêng năng, chẳng cầu vẻ mặt mà tự thân thiết là sao ? là tin tưởng nhau hết lòng rõ rệt vậy.</t>
+  </si>
+  <si>
+    <t>Sách Luận Ngữ viết : Thầy Tử-Trương hỏi về cách đi lại cho trót lọt. Đức Khổng-Tử đáp : “Lời nói trung-tín, làm việc dốc sức cung kính, tuy ở nước mọi rợ vẫn đi lại trót lọt. Lời nói chẳng trung-tín, làm việc chẳng dốc sức cung kính, tuy ở quê hương há đi lại trót lọt.” Thầy Tử-Trương liền chép hai điều ấy vào đai áo.</t>
+  </si>
+  <si>
+    <t>Sách Luận Ngữ viết : Đức Khổng-Tử nói : người mà không có chữ tín (ta) chẳng biết họ làm được gì. Như xe bò lớn không có nghê (đòn ngang máng bò), như xe ngựa nhỏ không có ngột (đòn cong máng ngựa), như vậy làm sao có thể đi được ?.</t>
+  </si>
+  <si>
+    <t>Sách Tả Truyện viết : Chữ tín không được biết, đạo nghĩa không chổ đứng.</t>
+  </si>
+  <si>
+    <t>Sách Chu Dịch viết : Người quân tử cung kính để lấy sự thẳng thắng bên trong, làm việc nghĩa để lấy sự vuông-vắn bên ngoài. Cung kính và làm việc nghĩa được gây dựng mà đạo đức không lẻ loi.</t>
+  </si>
+  <si>
+    <t>Sách Luận Ngữ viết : Đức Khổng-Tử nói nếu giữ thân mình chánh, thì theo làm chính trị có khó gì ?. Còn thân mình không chánh, thì sao làm người khác chánh được ?.</t>
+  </si>
+  <si>
+    <t>Sách Thi Tử viết : Trời che phủ, đất nâng đỡ, bậc thánh-nhân sửa trị. Bậc thánh-nhân như mặt trời, mặt trời nhìn tròn một thước đo, ánh sáng chiếu tràn đầy cả trời đất. Bậc thánh-nhân thân thể nhỏ, mà soi sáng đến xa, bậc thánh-nhân làm mình chánh đáng mà bốn phương an trị vậy.</t>
+  </si>
+  <si>
+    <t>Sách Hán Thư viết : Đức Khổng-Tử là một người bình thường, lấy niềm vui trong học đạo, làm chánh bản thân không biếng nhác. Nên trong bốn biển, vua trong thiên-hạ nếu không có lời dạy của đức Khổng-Tử thì không thể chiết-trung (việc làm đúng đắn vừa phải).</t>
+  </si>
+  <si>
+    <t>Sách Hán Thư viết : Nên không có lòng nhân-ái thì không thể tụ hợp người, không thể tụ hợp người thì không thể thắng vạn vật (tự nhiên), không thể thắng vạn vật thì việc ăn uống không đầy đủ. Tụ hợp người mà không đầy đủ, lòng tranh nhau khởi lên, bậc thánh-nhân xưa kia rất cao siêu, nên trước thi hành đức kính-nhượng, bác-ái, nên lòng mọi người vui thích mà làm theo. Làm theo thì thành quần, thế rồi họ làm vua. Khắp nơi quy thuận, nhờ thế rồi họ làm đế-vương vậy.</t>
+  </si>
+  <si>
+    <t>Sách Thượng Thư viết : Làm vua biết sửa mình, đức tốt hòa hiệp cả người dưới, ấy là vị vua sáng suốt. Xưa tiên-vương coi kẻ khốn cùng như con, hay gia ơn cho, dân đều cảm phục không ai không vui lòng. Thờ tổ tiên phải có hiếu, tiếp người dưới phải cung kính. Coi việc xa rất minh sát, nghe lời nói hay rất tinh thông.</t>
+  </si>
+  <si>
+    <t>Sách Hán Thư viết : Chưa có (vua) thân sửa chánh đáng mà bề tôi, cấp dưới gian tà. Chưa có chốn khuê-môn an trị mà thiên-hạ loạn. Chưa có người thân cận trái phải chánh đáng mà trăm quan cong quẹo. Chưa có việc người có công được thưởng ở trước mặt, nhiều người hiền được xếp đặt ở các chức quan mà nước không an trị. Chưa có (vị vua) đức dầy quan lại lương thiện mà dân chúng làm phản.</t>
+  </si>
+  <si>
+    <t>Sách Ngụy Chí viết : Ngăn cái lạnh chẳng gì bằng mặc nhiều áo lông cừu, ngừa phỉ báng chẳng gì bằng tự tu dưỡng. Đó là lời nói đáng tin vậy.</t>
+  </si>
+  <si>
+    <t>Sách Tăng Tử viết : Bản thân người quân-tử thiện thì cũng vui với cái thiện của người. Bản thân tài giỏi thì cũng vui với sự tài giỏi của người. Người quân-tử thích người làm thiện mà chẳng thúc giục, người làm việc bất thiện mà chẳng ghét giận. Chẳng trước người làm ác, chằng nghi người không thành thật, chẳng vui lỗi người, mà thành tựu cái tốt đẹp của người.</t>
+  </si>
+  <si>
+    <t>Sách Thể Luận viết : Nên nói nhớ công lao của người, quên lầm lỗi của người mới xứng đáng làm vua vậy. Người có đức dầy không hỏi những tiểu-tiết nhỏ nhặt, người có danh dự lớn không chỉ trích những cớ nhỏ nhặt. Từ xưa đến nay chưa ai có thể có hạnh tốt vẹn toàn cả.</t>
+  </si>
+  <si>
+    <t>Sách Viên Tử Chính Thư viết : Hán Cao Tổ (Lưu Bang) chỉ là một người bình thường ở đất Sơn-Đông. Khởi binh trong một ngày mà các bậc anh hùng hiền đức trong thiên-hạ chạy vội cùng đến quy phục. Các bậc hiền-sĩ cùng tụ hợp lại cùng vui, vì họ được trọng dụng. Nên ngài được làm vua thiên-hạ mà chẳng ai có thể ngăn cản được. Chỉ vì ngài dùng chính sách đơn giản, mở lòng để tiếp nhận các bậc hiền tài trong thiên-hạ vậy.</t>
+  </si>
+  <si>
+    <t>Sách Lưu Dực Chính Luận viết : Thường tự cho đủ mà thật chẳng đủ, tự cho sáng suốt mà thật chẳng sáng suốt. Mặt trời, mặt trăng rất sáng, rất lớn mà có chổ không chiếu đến, bởi vì ở trên cao hơn mọi vật. Đèn đuốc rất bé, rất nhỏ mà không gì không thể chiếu đến, bởi vì ánh sáng ở dưới có thể chiếu đến những nơi mà mặt trời, mặt trăng không thể chiếu đến vậy.</t>
+  </si>
+  <si>
+    <t>Sách Chu Dịch viết : Đức Khổng-Tử nói : Lao nhọc mà không khoe công, có công mà không nhận có đức, thật là đến chổ dầy dặn. Nói đến công của mình là kẻ hèn hạ vậy.</t>
+  </si>
+  <si>
+    <t>Sách Khổng Tử Gia Ngữ viết : Thầy Tử-Lộ tiến đến nói : xin hỏi nắm giữ sự viên mãn theo đạo là sao ?. Đức Khổng-Tử đáp : thông minh, hiểu biết giữ lấy sự ngu muội. Công cao khắp thiên-hạ giữ lấy sự khiêm nhượng. Dũng mãnh cái thế giữ lấy sự sợ sệt. Giàu có khắp cả bốn biển giữ lấy sự nhún nhường. Đó gọi là bớt rồi lại bớt đi theo đạo vậy.</t>
+  </si>
+  <si>
+    <t>Sách Bão Phác Tử viết : Có công lao mà tự khiêm-hư thì người phụ giúp đông. Kiêu-mạn, ngang bướng thì người bỏ đi nhiều. Người phụ giúp đông thì điềm báo an ổn, người bỏ đi nhiều thì đoán là sắp nguy vong.</t>
+  </si>
+  <si>
+    <t>Sách Lão Tử viết : Biết đó vinh, giữ đó nhục, làm cái hang cho thiên-hạ.</t>
+  </si>
+  <si>
+    <t>Sách Lục Thao viết : Có tài đức mà làm như người hèn hạ, ai mà không theo ?. Có địa vị cao quý mà lắng nghe theo lời đúng sai của người, ai mà không phục ?.</t>
+  </si>
+  <si>
+    <t>Sách Ngụy Chí viết : Thường người có thể khuất phục để duỗi ra, khiêm nhượng để đạt được, nhu nhược để mạnh mẽ, ít khi không được thỏa lòng vậy.</t>
+  </si>
+  <si>
+    <t>Sách Ngụy Chí viết : Đạo lý của sự tự tôn-trọng, là ở chổ lấy sự tôn-quý đối với hèn-mọn, biết thấp kém để tự tu dưỡng mình. Còn sai trái cho đó là vậy, rồi suy kém tệ-tục, bị cao-manh đến tàn phế, cớ sao lại phải làm, thật bi ai vậy.</t>
+  </si>
+  <si>
+    <t>Sách Thượng Thư viết : Vua có nhiều đức tốt, thì không khinh nhờn ai. Nếu khinh nhờn bậc quân-tử, họ sẽ không hết lòng trung thành. Khinh nhờn kẻ thường dân, họ làm việc sẽ không tận hết sức.</t>
+  </si>
+  <si>
+    <t>Sách Thượng Thư viết : Có thể được thầy dạy bảo cho, thì làm vương. Tự cho mình không ai bằng, thì diệt vong. Thích học hỏi thì bụng dạ rộng rãi, tự đắc thì bụng dạ nhỏ nhen.</t>
+  </si>
+  <si>
+    <t>Sách Văn Tử viết : Cho nên thông minh hiểu rộng thì giữ lấy sự ngu muội, nghe nhiều nói giỏi thì giữ lấy sự thiếu kém, mạnh mẽ cương nghị thì giữ lấy sự sợ sệt, giàu sang rộng lớn giữ lấy sự ít nhỏ, đức bố thí khắp thiên-hạ giữ lấy sự khiêm nhượng. Năm điều đó bậc tiên-vương dùng để giữ thiên-hạ vậy.</t>
+  </si>
+  <si>
+    <t>Sách Thượng Thư viết : Lòng người thiên về vật dục rất nguy hiểm, cái đạo nơi tâm thì kính đáo, chỉ một lòng chuyên nhất, giữ theo đạo trung dung. Những lời nói vu vơ không có căn cứ thì chớ nghe, những mưu tính không bàn bạc trước thì chớ dùng.</t>
+  </si>
+  <si>
+    <t>Sách Chu Dịch viết : Đức Khổng-Tử nói : người quân-tử ở trong nhà nói ra một lời tốt thì ngoài ngàn dặm cũng hưởng ứng theo huống chi là gần sao ?, còn ở trong nhà nói ra một lời không tốt thì ngoài ngàn dặm cũng không theo huống chi là gần sao ?. Lời nói ở bản thân ra, dân chúng thêm vào, nói phát ra ở gần mà hiện ra xa. Lời nói là phần trọng yếu nhất của người quân-tử, phần trọng yếu phát ra là chủ của sự vinh nhục vậy. Lời nói của người quân tử có thể động đến trời đất, có thể không thận trọng sao ?.</t>
+  </si>
+  <si>
+    <t>Sách Mao Thi viết : Chẳng ham hùng mạnh hay sao. Bốn phương thiên hạ nhìn vào cùng noi ?. Hễ có đức sáng soi thẳng thắn. Nước bốn phương đều hẳn thuận tùng. Kế to hiệu lệnh định xong. Mưu xa thời lệnh mọi vùng truyền đi. Kính trọng lấy uy nghi tốt đẹp. Mới làm nên khuôn phép toàn dân. Cẩn thận khi lời nói phát ra. Uy nghi cung kính sâu xa. Không gì lại chẳng được là đẹp thay. Ngọc bạch khuê bị trầy bị mẻ. Mài láng trơn có thể thành công. Lời sai lầm trót nói xong. Chẳng làm gì được, răn lòng khắc ghi.</t>
+  </si>
+  <si>
+    <t>Sách Lễ Ký viết : Đức Khổng-tử nói : bậc quân-tử lấy lời nói chỉ dẫn người, cấm người dùng hành động. Nên nói ắt phải lo đến kết cuộc, làm việc ắt xem xét đến sự tệ hại, thế thì dân cẩn thận lời nói và thận trọng làm việc.</t>
+  </si>
+  <si>
+    <t>Sách Bão Phác Tử viết : Tia chớp bắn ra không thể đuổi kịp lời nói sai, ông Ban-Luân không thể mài trắng lời nói lầm. Dù không thể suy nghĩ nhiều khi nói ra những lời thấu tình đạt lý, nhưng có thể ngưng những lời nói bỡn cợt để ngăn chặn tại họa mới manh nha.</t>
+  </si>
+  <si>
+    <t>Sách Quản Tử viết : Lời nói mà không thể hồi lại, vua không nói. Việc làm mà không thể tiếp tục, vua không làm. Thường lời nói mà không thể hồi lại, việc làm mà không không thể tiếp tục, là việc cấm lớn của người có quốc gia.</t>
+  </si>
+  <si>
+    <t>Sách Hán Thư viết : Thiên-tử tôn quý nhất trong bốn biển, nghĩa là không ai chẳng phải là bề tôi của họ. Nhưng họ phải phụng dưỡng bậc Tam-Lão ở trường Thái-Học, tiến cử người hiền để phò tá, tìm kẻ sĩ giúp trị lý để đưa ra lời can gián thẳng. Nên tôn trọng, phụng dưỡng bậc Tam-Lão là biểu thị hiếu vậy. Lập bề tôi (hiền) phò tá vì sợ tính kiêu ngạo vậy. Bố trí kẻ sĩ can gián là sợ không được nghe lỗi lầm (của mình) vậy.</t>
+  </si>
+  <si>
+    <t>Sách Lưu Dực Chính Luận viết : Thường làm chính trị, khinh xuất một lỗi mà không cẩn thận thì như ngồi xe mà không có chốt, lúc an vui tiến lên ít, nên không trông thấy cái họa, để chỉnh đốn lại những trở ngại. Cái họa của xe thì gần, nên không ai chẳng thấy. Cái họa của quốc gia thì xa, nên không ai chẳng coi thường. Biết cái thể của nó, thì nên sớm hôm cảnh giác, giống như dũng mãnh giữ gìn (bảo vật) sợ mất đi vậy.</t>
+  </si>
+  <si>
+    <t>Sách Chu Dịch viết : Cùng loại thì tụ hợp nhau, vạn vật lấy đó để phân ra bầy đàn. Việc tốt xấu sinh ra vậy.</t>
+  </si>
+  <si>
+    <t>Sách Trung Luận viết : Đức Khổng-Tử nói nơi sống mà có được bạn hiền đức là được phước tới vậy.</t>
+  </si>
+  <si>
+    <t>Sách Tôn Khanh Tử viết : Thường người dù có bản chất tốt đẹp và lòng biện biệt sáng suốt ắt phải tìm thầy giỏi, tìm bạn hiền để kết giao. Được thầy giỏi dạy dỗ thì nghe được đạo lý của vua Nghiêu, Thuấn, Vũ, Thang. Tìm được bạn hiền để kết giao thì thấy được nết trung, tín, kính, nhượng. Bản thân mỗi ngày tiến đến nhân-nghĩa mà tự mình không biết, rồi chuyển theo hồi nào không hay vậy.</t>
+  </si>
+  <si>
+    <t>Sách Xương Ngôn viết : Người kết giao với kẻ sĩ, (thì biết) lòng nhân ái, trung hậu, khoan thứ, khiêm tốn, kính nhượng, trung thành phát ra từ bên trong, sự tín nhiệm phát rõ ra ở bên ngoài. Những lời nói đồn đại không nhận lấy, yêu ghét không thiên vị, ở nơi kính đáo (không) công kích chổ yếu của người, hội hợp bạn bè kể lại cái hay của người. Có người phụ bạc ta lại càng đối đãi trọng hậu hơn, có người hoài nghi ta phải càng thành tín hơn. Hoạn nạn ắt đến giúp đỡ, hành động lặng lẽ tích đức mà không cầu báo đáp, âm thầm làm việc mà không cầu danh tiếng. Cứ cần mẫn làm thế, cho bản thân đến hết đời vậy có ai ở cùng người ấy mà chán ghét bao giờ ?</t>
+  </si>
+  <si>
+    <t>Sách Thi Tử viết : Người thời nay đều biết mài giũa thanh kiếm mà chẳng biết mài giũa bản thân. Việc học tập là dùi mài bản thân vậy.</t>
+  </si>
+  <si>
+    <t>Sách Tôn Khanh Tử viết : Người quân-tử học rộng mà hàng ngày có ba lần phản tỉnh chính mình, thì hiểu biết rõ ràng và hành động không lầm lỗi vậy. Nên chẳng lên núi cao không biết được trời cao hơn, chẳng vào hang sâu thì không biết được đất sâu hơn, chẳng nghe được di-ngôn của bậc tiên-vương thì không biết học vấn nó rộng lớn thế nào.</t>
+  </si>
+  <si>
+    <t>Sách Hán Thư viết : Bậc học-giả xưa kia tự cày nuôi sống mình, ba năm thì tinh thông một kỹ năng, vì họ biết được cái đại thể, và nhiều lần vui đùa trong kinh văn mà thôi. Cho nên tuy hàng ngày dụng công rất ít, mà họ bồi dưỡng đức hạnh rất nhiều, ba mươi năm thì thông thạo Ngũ-Kinh vậy.</t>
+  </si>
+  <si>
+    <t>Sách Tăng Tử viết : Người quân-tử đã học thì lo không thông suốt. Đã thông suốt thì lo không được luyện tập. Đã luyện tập thì lo không hiểu biết. Đã hiểu biết thì lo không thể thực hành. Đã có thể thực hành thì lo không thể khiêm nhượng. Cái học của người quân-tử chỉ có năm điều đó mà thôi vậy.</t>
+  </si>
+  <si>
+    <t>Sách Chu Dịch viết : Thoán viết : đạo của trời đất thường lâu bền mà không thôi vậy. Mặt trời, mặt trăng được ở trên trời mà có thể chiếu sáng, bốn mùa biến hóa mà có thể thành tựu lâu bền, bậc thánh-nhân ở lâu trong đạo mà thiên-hạ hóa thành công. Xem chổ thường hằng mà cái tình của vạn vật có thể thấy vậy.</t>
+  </si>
+  <si>
+    <t>Sách Viên Tử Chính Thư viết : Bậc thánh-nhân quý ở sự lâu bền, lâu bền thì đức kiêng cố vậy. Bậc thánh-nhân lâu dài với đạo mà thiên-hạ hóa thành công. Chưa từng có việc không lâu bền mà có thể thành tựu đạo đức, và việc không đạo đức mà có thể gìn giữ lâu dài vậy.</t>
+  </si>
+  <si>
+    <t>Sách Bão Phác Tử viết : Kẻ sĩ có khí tiết không thể khiến người cung kính mình và cũng không thể đoạt đi ý chí của họ vậy. Không thể khiến người không ghét bỏ mình và bắt họ theo một đường lối vậy. Không thể khiến người không nhục mạ mình và bắt họ mang lại vẻ vang cho ta vậy. Không thể khiến người gạt bỏ mình và bắt họ làm những việc không thể thay đổi vậy.</t>
+  </si>
+  <si>
+    <t>Sách Chu Dịch viết : Người quân-tử thể hội lòng nhân đủ để đứng đầu người, đãi tiệc lớn đầy đủ để hợp lễ, lợi ích vật đủ để hòa nghĩa, trinh bền đủ để làm việc.</t>
+  </si>
+  <si>
+    <t>Sách Luận Ngữ viết : Đức Khổng-Tử nói về ông Tử-Sản có bốn đạo của người quân-tử. Giao thiệp với người thì giữ mình rất khiêm cung. Phụng sự bậc trên thì rất cung kính. Nuôi nấng dân thì ban ơn huệ. Sai khiến dân thì theo lẽ phải.</t>
+  </si>
+  <si>
+    <t>Sách Chu Dịch viết : Đức Khổng-Tử nói : cùng tiếng ứng nhau, cùng khí tìm nhau, nước chảy xuống chổ thấp, lửa cháy chổ khô ráo, mây theo rồng, gió theo hổ, bậc thánh-nhân khởi lên mà vạn vật đều thấy.</t>
+  </si>
+  <si>
+    <t>Sách Chu Dịch viết : Quẻ Cấn, người quân-tử coi đó mà suy tư, chẳng ra khỏi chức vị của mình.</t>
+  </si>
+  <si>
+    <t>Sách Hàn Thi Ngoại Truyện viết : Tôn quý mà xem như hạ-tiện thì mọi người không ghét bỏ. Giàu có chịu phân chia cho người nghèo khổ thì kẻ sĩ nghèo cùng không ghét bỏ. Có trí huệ mà dạy kẻ ngu muội thì trẻ con thất học không ghét vậy.</t>
+  </si>
+  <si>
+    <t>Sách Khổng Tử Gia Ngữ viết : Đức Khổng-Tử nói : Số giàu sang mà hạ mình trước người, thì ai mà chẳng mong ở cùng chứ ?. Số giàu sang mà biết yêu người, thì ai mà chẳng thân cận chứ ?. Phát ngôn không trái nghịch có thể gọi là biết nói chuyện vậy.</t>
+  </si>
+  <si>
+    <t>Sách Luận Ngữ viết : Trong một lúc tức giận (làm bậy), quên cả bản thân để liên lụy đến cha mẹ, như thế chẳng phải là không phân biệt được tốt xấu sao ?.</t>
+  </si>
+  <si>
+    <t>Sách Doãn Văn Tử viết : Nên có lý mà vô-ích với việc cai trị, thì người quân-tử không nói. Có thể làm mà vô-ích với công việc, thì người quân-tử không làm. Người quân-tử không thích nói nhiều, nhưng nói những lời có ích cho việc cai trị, nếu không được gì thì chẳng nói. Người quân-tử không thích làm nhiều, nhưng làm thì làm những chuyện hữu-ích cho công việc, nếu không được gì thì chẳng làm.</t>
+  </si>
+  <si>
+    <t>Sách Văn Tử viết : Văn-Tử hỏi đạo với Đức Lão-Tử rằng : Đạo thực hành nhỏ thì được phúc nhỏ, thực hành lớn thì được phúc lớn, tận lực thực hành thì thiên-hạ quy phục.</t>
+  </si>
+  <si>
+    <t>Sách Văn Tử viết : Quốc gia sở dĩ tồn tại là có đường lối phù hợp, còn sở dĩ diệt vong là do đường lối bị bế tắc. Nên được tồn tại do có đường lối đúng, dù nhỏ ắt thành lớn. Còn (không có đường lối tốt là) dấu hiệu của diệt vong, tuy thành công ắt thất bại. Quốc gia bị diệt vong, dẫu lớn chẳng đủ nương dựa. Đường lối thi hành được, dù nhỏ cũng không thể xem thường. Nên tồn tại là có được đường lối đúng, không phải tại (quốc gia) nhỏ . Còn diệt vong là tại đánh mất đường lối đúng, không phải tại (quốc gia) lớn.</t>
+  </si>
+  <si>
+    <t>Sách Hán Thư viết : Vua Kiệt, vua Trụ làm ác nhận lãnh trừng phạt của trời. Vua Vũ, vua Thang nhân vì tích đức nên làm vua thiên-hạ. Xem kỹ thì đức trời không riêng tư, tùy thuận thì khởi lên yên ổn, trái nghịch thì tai hại sinh. Đó là phép tắc xem thiên-văn, địa-lý, nhân-sự vậy.</t>
+  </si>
+  <si>
+    <t>Sách Lã Thị Xuân Thu viết : Tình người mong trường thọ mà ghét chết yểu, mong an ổn mà ghét nguy hiểm, mong vinh quang mà ghét nhục nhã, mong an nhàn mà ghét lao khổ. Như bốn lòng mong đó đạt được, thì bốn cái ghét sẽ tiêu trừ, lòng dạ sẽ dễ chịu vậy. Bốn lòng mong đó đạt được là ở làm đúng đạo lý. Làm đúng đạo lý để trị thân thì sinh mệnh bảo toàn, sinh mệnh bảo toàn thì sống lâu. Làm đúng đạo lý để trị quốc thì luật pháp gây dựng, luật pháp gây dựng thì thiên-hạ phục. Nên lòng dạ dễ chịu nên lo việc làm đúng theo đạo lý vậy.</t>
+  </si>
+  <si>
+    <t>Sách Tả Truyện viết : Chuyện quái dị dấy lên là do con người. Con người không lầm lỗi, thì chuyện quái dị không tự khởi lên. Con người bỏ đi đạo-thường thì những chuyện quái dị nổi lên vậy.</t>
+  </si>
+  <si>
+    <t>Sách Mạnh Tử viết : Không có lòng trắc-ẩn không phải là người. Không có lòng xấu hổ việc ác không phải là người. Không có lòng từ-nhượng không phải là người. Không có lòng phân biệt thị-phi không phải là người. Lòng trắc-ẩn là đầu mối của Nhân. lòng xấu hổ việc ác là đầu mối của Nghĩa. Lòng từ-nhượng là đầu mối của Lễ. Lòng phân biệt thị-phi là đầu mối của Trí. Người mà có đủ bốn đầu mối trên giống như cơ thể có đủ tứ-chi vậy. Người mà có đủ bốn đầu mối trên mà tự nói không thể làm, là tự làm hại mình vậy. Còn nói vị vua nào mà không thể làm, là tự làm hại vua vậy.</t>
+  </si>
+  <si>
+    <t>Sách Chu Dịch viết : Xưa kia bậc thánh-nhân làm ra sách Dịch, đều lấy theo cái lý thuận tính-mệnh, thế cho nên lập ra đạo trời gọi là Âm và Dương, lập ra đạo đất gọi là Nhu và Cương, lập ra đạo người gọi là Nhân và Nghĩa.</t>
+  </si>
+  <si>
+    <t>Sách Thi Tử viết : Vua-tôi, cha-con, trên-dưới, lớn-nhỏ, sang-hèn, thân-sơ làm đúng phận thì an trị. Yêu đúng phận gọi là Nhân. Cho đúng phận gọi là Nghĩa. Lo đúng phận gọi là Trí. Hành động đúng phận gọi là Thích. Nói đúng phận gọi là Tín. Khi các nơi đều đúng phận mà sau mới thành người.</t>
+  </si>
+  <si>
+    <t>Sách Trang Tử viết : Đến trời đất rất linh thiên, mà vẫn có thứ tự tôn-ty, trước-sau huống chi là đạo người !. Nơi tông-miếu tôn trọng thân tộc, chốn triều-đình tôn trọng bậc cao quý, ở làng quê tôn trọng người già cả, khi làm việc tôn trọng bậc hiền-nhân, đó là thứ tự của đạo lớn vậy.</t>
+  </si>
+  <si>
+    <t>Sách Chu Dịch viết : Đạo của trời-đất là xem xét sự trinh bền. Đạo của mặt trời, mặt trăng tỏa sáng trinh bền. Cái động của thiên-hạ là một cách trinh bền vậy.</t>
+  </si>
+  <si>
+    <t>Sách Chu Dịch viết : Đức Khổng-Tử nói : quẻ Lý là nền móng của đức, quẻ Khiêm là cái cán của đức, quẻ Phục là gốc của đức, quẻ Hằng là sự kiên cố của đức, quẻ Tổn là sự tu sửa của đức, quẻ Ích là sự thừa thãi của đức, quẻ Khốn là sự biện luận của đức.</t>
+  </si>
+  <si>
+    <t>Sách Chu Dịch viết : Quẻ Tùy Tượng viết : trong đầm có sấm là quẻ Tùy, người quân-tử lấy đó gần tối vào (nhà) nghỉ ngơi.</t>
+  </si>
+  <si>
+    <t>Sách Trang Tử viết : Người học đạo thì mỗi ngày một bớt đi rồi lại bớt đi để đến cảnh giới vô vi, vô vi mà không gì chẳng làm được vậy. Trời đất có cái đẹp lớn mà chẳng nói, bốn mùa có quy luật rõ ràng mà chẳng bàn luận, vạn vật có được lý mà chẳng nói, đến con người không làm gì, bậc đại-thánh chẳng tạo nên, đó gọi là xem xét trời đất vậy.</t>
+  </si>
+  <si>
+    <t>Sách Văn Tử viết : Cái gọi là vô-vi, không phải cho là dẫn không đến, mời không đi, bức bách mà không ứng lại, cảm hóa mà không lay động, cố chấp mà không ứng biến, uống nắn mà không giãn ra. Mà đó là không đem ý riêng để xen vào lẽ công bằng, không đem thị-dục để bẻ cong phương pháp đúng đắn, tuân theo đạo lý mà làm việc, dựa vào điều kiện có sẵn mà làm nên công nghiệp, tìm lẽ tự nhiên của tình thế vậy.</t>
+  </si>
+  <si>
+    <t>Sách Lễ Ký viết : Ông Nhạc-Chính-Tử từ nhà xuống bị thương ở chân, rất nhiều tháng chẳng ra khỏi nhà, nên có sắc mặt rất ưu buồn. Người đệ tử hỏi : chân của thầy khỏi rồi, sao nhiều tháng chẳng ra khỏi nhà, lại có sắc mặt ưu buồn đến thế ?. Nhạc-Chính-Tử đáp : ta nghe thầy Tăng-Tử dạy : cha mẹ sinh ra toàn vẹn, khi chết cũng phải toàn vẹn vậy mới gọi là hiếu. Không hủy hoại thân thể, không để tấm thân này màng nhục mới gọi là toàn vẹn. Nên người quân-tử đi nữa bước chân chẳng dám quên hiếu. Nay ta đã quên đạo hiếu, bởi vậy ta có sắc mặt ưu buồn vậy.</t>
+  </si>
+  <si>
+    <t>Sách Tăng Tử viết : Người sinh ra, trong một đời đều có tật bệnh. Nên người quân-tử lo lắng về cái không thể trở về mà làm trước vậy. Khi người thân-thích đã chết dù muốn báo hiếu thì sao hiếu được đây ?. Khi tuổi đã lớn dù muốn kính nhường thì sao kính nhường được đây ?. Nên làm trọn đạo hiếu có lúc chẳng đủ, còn việc kính nhường có lúc đã trễ thời. Điều đó nói lên thế ư !.</t>
+  </si>
+  <si>
+    <t>Sách Lễ Ký viết : Đức Khổng-Tử nói : vua Võ-Vương, Chu-Công đã thông đạt Hiếu ư !. Hiếu vì khéo kế thừa chí nguyện cha ông, khéo noi theo công việc của cha ông vậy.</t>
+  </si>
+  <si>
+    <t>Sách Hiếu Kinh viết : Đức Khổng-Tử nói : xưa kia các vi vua sáng suốt phụng sự cha hiếu nên thờ trời sáng tỏ, phụng sự mẹ hiếu nên thờ đất rõ ràng, lớn nhỏ thuận hòa nên trên dưới an trị, trời-đất rõ ràng, thần-minh rõ rệt vậy. Nên dù thiên-tử ắt được chổ tôn quý, lời nói của cha ắt có được chổ được trước, và lời nói của anh vậy.</t>
+  </si>
+  <si>
+    <t>Sách Xương Ngôn viết : Cha mẹ trách móc lỗi người, dù không đúng, thì chỉ xét hỏi rõ không nên làm trái lại mà không nói chuyện. Cha mẹ muốn cùng người lấy quan-vị, tước-lộc mà tài năng thật không đủ, thì có thể làm trái mà không theo. cha mẹ muốn làm việc xa xỉ, thái quá, hào hoa để cho thỏa lòng, khoái ý, thì có thể làm trái mà không hứa hẹn. Cha mẹ không thích học-vấn, ghét con cháu làm thế, thì có thể làm trái mà vẫn học tập. Cha mẹ không thích bậc học vấn tài giỏi, ghét con cháu giao du với họ, thì có thể trái mà vẫn giao hữu với họ. Khi bạn bè có hoạn nạn đợi mình đến giúp đỡ, cha mẹ không muốn làm vậy, thì có thể làm trái mà vẫn đến. Nên không thể làm trái mà vẫn làm trái là không hiếu, có thể làm trái mà không thể làm trái lại là không hiếu, thích không làm trái là không hiếu, thích làm trái lại không hiếu, nên xét cho đạt nghĩa lý mà thôi vậy.</t>
+  </si>
+  <si>
+    <t>Sách Tăng Tử viết : Thầy Tăng-Tử nói : Người quân-tử gây dựng nết hiếu là ở chổ dụng của lòng trung, là chổ quý của lễ. Nên người làm con mà không thể hiếu với cha, thì không dám nói với cha người về việc không thể nuôi con. Người làm em mà không thể kính phụng anh, thì không dám nói anh người về việc không thể hòa thuận với em. Người làm bề tôi mà không thể phụng sự vua, thì không dám nói vua người về việc không thể sai khiến bề tôi. Nên cùng với cha người nói, thì nói về việc nuôi con. Cùng với con người nói, thì nói về việc hiếu thảo cha. Cùng với anh người nói, thì nói về việc thuận hòa em. Cùng với em người nói, thì nói về việc kính phụng anh. Cùng với vua người nói, thì nói về việc sai khiến bề tôi. Cùng với bề tôi người nói, thì nói về việc phụng sự vua. Nết hiếu của người quân-tử là lòng trung-ái để cung kính mọi người, làm trái lại thì loạn vậy.</t>
+  </si>
+  <si>
+    <t>Sách Lễ Ký viết : Hiếu đạo được gây dựng mà trời đất được lấp đầy dẫy, mở rộng mà ngang dọc đến bốn biển, lưu truyền cho hậu-thế mà không mất đi. Kinh Thi viết : “ Từ đông, từ tây. Từ nam, từ bắc. Không (ai) nghĩ chẳng phục.” Đó đang là nói (hiếu đạo) vậy.</t>
+  </si>
+  <si>
+    <t>Sách Mao Thi viết : Hoa thường-lệ tưng bừng đua nở. Há lại không rực rỡ xinh tươi. Giờ đây tất cả những người. Thì chẳng gì bằng anh em ơi. Trên gò cao tích-linh đậu lại. Anh em đang gặp phải gian nguy. Bạn bè tốt thì có thiếu gì. Bạn thì thở dài cứu được chi. Tuy trong tường anh em chống đối. Ngăn nhục ngoài đã vội hợp nhau.</t>
+  </si>
+  <si>
+    <t>Sách Tả Truyện viết : Ông Huệ-Bá nói : tang sự là việc cuối cùng đối với người thân. Tuy không thể có bắt đầu tốt nhưng kết thúc (tốt) thì có thể vậy. Ông Sử-Dật có nói : Anh em rất tốt đẹp, cứu giúp lúc thiếu thốn, chúc mừng việc tốt, thăm hỏi khi có nạn, cúng tế cung kính, có tang thì thương xót, dù tình cảm bất-đồng không mất đi lòng yêu thương. Đó là đạo lý với người thân vậy.</t>
+  </si>
+  <si>
+    <t>Sách Tôn Khanh Tử viết : Người nhân yêu người, người nghĩa noi theo đạo lý.</t>
+  </si>
+  <si>
+    <t>Sách Mạnh Tử viết : Thầy Mạnh-tử nói : ba triều đại (Hạ, Thương, Chu) có được thiên-hạ là nhờ có lòng nhân-từ, mà mất đi thiên-hạ cũng bởi mất đi lòng nhân-từ. Quốc-gia sở dĩ suy bại, hưng thịnh, tồn tại, mất đi đều cũng như thế. Thiên-tử không nhân-từ không bảo vệ được bốn biển trong thiên-hạ. Chư-hầu không nhân-từ không bảo vệ được xã-tắc. Quan Khanh, Đại-Phu, không nhân-từ không bảo về được tông-miếu. Kẻ sĩ và thứ dân không nhân-từ không bảo toàn được thân thể. Người thời nay ghét sự chết chóc mà thích bất nhân, giống như ghét say mà cố uống rượu vậy.</t>
+  </si>
+  <si>
+    <t>Sách Phó Tử viết : Ngày xưa bậc thánh-nhân tôn sùng đức nhân từ, lấy đó làm hưng thịnh những lợi ích cho người trong thiên-hạ. Những lợi ích hoặc không thi hành được, thì phải dùng đức nhân từ để cứu tế thiên-hạ. Như có chổ chẳng làm được, thì giống như mình xô đẩy họ xuống ngòi rãnh vậy. Người nhân từ sẽ suy mình ra người. Nên mình có chổ không muốn thì chẳng làm cho người. Suy ra điều mình muốn đều mong người thiên-hạ có được. Suy ra lòng mình hiếu thảo cha mẹ để đối với người thiên-hạ, thì những người làm con trong thiên-hạ chẳng đánh mất đạo lý phụng sự người thân vậy. Suy ra lòng mình có vui vẻ với vợ con để đối với người thiên-hạ, thì những người làm cha trong thiên-hạ chẳng đánh mất quan điểm về gia đình vậy. Suy ra mình không nhẫn tâm thấy cảnh đói rét để đối với người thiên-hạ thì những sinh linh không còn cái lo về đói rét vậy. Ba quan điểm đó không khó thấy cái lý, không khó để thực hành, chỉ là không suy lòng mình đối với người đó ư !, như không suy tư, thì chẳng phải xa (đạo) lắm sao ?.</t>
+  </si>
+  <si>
+    <t>Sách Chu Dịch viết : Quẻ Lôi Thủy Giải, Tượng viết : sấm mưa nổi lên, là quẻ Giải, người quân-tử lấy đó mà ân xá lỗi lầm, tha thứ tội lỗi.</t>
+  </si>
+  <si>
+    <t>Sách Chu Lễ viết : Thiện-phu (đầu bếp) là người giữ chức quan dâng đồ ăn uống ngon cho vua. Khi có tang lễ lớn thì không dâng lên (đồ ngon), năm mất mùa lớn thì không dâng lên, gặp ôn dịch lớn thì không dâng lên, trời đất có tai ương thì không dâng lên, nước nguyên nhân có việc lớn thì không dâng lên.</t>
+  </si>
+  <si>
+    <t>Sách Lễ Ký viết : Vào tháng trọng-xuân, nuôi sưỡng trẻ nhỏ, bảo bọc các trẻ mồ côi. Lệnh cho quan hữu-tư coi xét nhà tù, bỏ đi gông cùm, không phạt đánh roi, không tháo cạn nước sông hồ, không để nước hồ chứa khô cạn, không đốt phá rừng.</t>
+  </si>
+  <si>
+    <t>Sách Lễ Ký viết : Quốc-quân săn bắn vào mùa xuân không vây hết một đồng. Quan đại-phu không bắt hết cả bầy thú. Kẻ sĩ không bắt lấy thú con và trứng.</t>
+  </si>
+  <si>
+    <t>Sách Lễ Ký viết : Đức Khổng-Tử nói : lòng nhân có ba điều. Cùng lòng nhân đồng công lao mà khác tình cảm, cùng người đồng công lao còn lòng nhân chưa có thể biết được, cùng lòng nhân đồng lỗi lầm mà sau lòng nhân có thể biết được. Người nhân-từ an trong lòng nhân từ, người trí lợi ích lòng nhân, người sợ tội mạnh mẽ trong lòng nhân.</t>
+  </si>
+  <si>
+    <t>Sách Yến Tử viết : (Tề) Cảnh-Công hỏi ông Yến-Tử rằng : Mưu tính ắt đạt được, làm việc ắt thành công có phương pháp đó không ?. Yến-Tử đáp : thưa có . Cảnh-Công hỏi : thế phương pháp như thế nào ?. Yến-Tử đáp : thưa mưu tính theo đạo nghĩa ắt đạt được, làm việc tùy theo người dân ắt thành công, còn trái đạo nghĩa mà mưu tính, bỏ đi dân mà hành động, thần chưa từng nghe có chuyện đó. Ngày xưa ba triều đại (Hạ, Thương, Chu) được hưng thịnh, thì mưu tính ắt theo đạo nghĩa, làm việc ắt tùy theo người dân. Đến thời kỳ suy bại, thì mưu tính trái đạo nghĩa, bắt đầu làm việc thì tổn thương người dân. Nên theo đạo nghĩa, tùy theo người dân là phương pháp mưu tính và làm việc vậy.</t>
+  </si>
+  <si>
+    <t>Sách Hạt Quan Tử viết : Thường người quân-tử dễ thân cận mà khó đùa bỡn, họ lo sợ tai vạ mà khó bức ép, họ ham thích lợi mà không làm việc sai trái, thời buổi động loạn thì họ an định mà không làm việc tùy tiện. Thân thể cho dù an ổn mà họ chẳng dám xử trí (tùy tiện) rồi sau lễ sinh ra vậy. Lòng tùy theo dục vọng mà chẳng dám nói (sai trái) rồi sau nghĩa sinh ra vậy. Thường nghĩa thì tiết chế dục vọng mà sửa trị, lễ thì làm trái lại tình cảm mà biện biệt (rõ).</t>
+  </si>
+  <si>
+    <t>Sách Tả Truyện viết : Thiên tai hoành hành khắp nơi, quốc gia đại diện cứu tai giúp đỡ nước láng giềng đó là đạo. Làm theo đạo thì có phúc.</t>
+  </si>
+  <si>
+    <t>Sách Thể Luận viết : Người quân-tử tu dưỡng lòng chẳng gì tốt bằng (chân) thành. Có thành vì thế người quân-tử bao dung hết vạn vật vậy. Trời chẳng nói mà người khen cao lớn, đất chẳng nói mà người khen dày dặn, bốn mùa chẳng nói mà người vẫn mong mỏi. Đó là dùng lòng chí-thành vậy.</t>
+  </si>
+  <si>
+    <t>Sách Phó Tử viết : Trời đất thành tín rõ rệt mà bốn mùa chẳng loạn. Mặt trời, mặt trăng thành tín rõ rệt mà sáng tối có thường. Bậc vương làm theo thành tín mà vạn-quốc lấy đó để an định. Chư-hầu theo thành tín mà nội bộ lấy đó để hòa hợp. Người quân-tử thực hiện thành tín mà bản thân lấy đó để đứng vững. Ngay xưa vua thánh, bề tôi hiền đức phò tá, muốn biến đổi thế tục cho tốt đẹp, bỏ đi thành tín trong chốc lát mà có thể an định trên và cai trị dân được là chưa có vậy.</t>
+  </si>
+  <si>
+    <t>Sách Hàn Tử viết : Vợ thầy Tăng-Tử đi chợ, đứa con chạy theo khóc, người mẹ nói : “con về nhà đi rồi mẹ sẽ giết lợn cho con ăn”. Người vợ đi chợ về, thầy Tăng-Tử muốn bắt lợn giết, người vợ dừng lại nói : “ tôi và con nhỏ chỉ giỡn thôi.” Thầy Tăng-Tử nói : “ đối với con nhỏ không được làm như thế.” Cha mẹ làm như thế nào thì con sẽ học theo thế đấy. Nay nàng lừa dối con, thế là dạy con lừa dối. Mẹ lừa con, con không tin, thì mẹ không thể dạy con nên người được. Thầy Tăng-Tử liền giết lợn.</t>
+  </si>
+  <si>
+    <t>Sách Thi Tử viết : Chữ Thứ (suy bụng ta ra bụng người) là bản thân phải độ lượng. Điều gì mình không muốn thì không làm cho mọi người. Ghét cái xấu của mọi người thì trước bỏ đi mọi cái xấu của mình. Muốn mọi người điều gì thì trước cầu ở mình. Đó là chữ Thứ vậy.</t>
+  </si>
+  <si>
+    <t>Sách Xương Ngôn viết : Phụng sự cha mẹ mà cha mẹ không thân thiết, là biết được hiếu đạo chưa tới nơi vậy. Phụng sự vua mà vua không theo, là biết được lòng trung chưa tới nơi vậy. Cùng người kết giao mà người không thân, là biết được tín-nghĩa chưa tới nơi vậy.</t>
+  </si>
+  <si>
+    <t>Sách Tả Truyện viết : Người quân-tử tại vị nên lo sợ, thí-xả nên yêu thích, tiến-thoái có mức độ, qua lại có phép tắc, dung nghi dễ nhìn, làm việc tuân theo pháp luật, đức-hạnh làm hình tượng mẫu, giọng nói vui vẻ, động-tác có văn vẻ, ngôn-ngữ có trật tự mạch lạc, lấy đó để đối đãi cấp dưới thì gọi là có uy-nghi vậy.</t>
+  </si>
+  <si>
+    <t>Sách Văn Tử viết : Không thờ ơ sự thật, không thể sáng tánh đức. Không yên tĩnh, không thể suy tính xa. Không có lòng khoan dung lớn, không thể che chở mọi vật. Không công bình chánh trực, không thể đưa ra phán đoán đúng.</t>
+  </si>
+  <si>
+    <t>Sách Lễ Ký viết : Bậc đại-nhân không nói lời phù phiếm. Có thể nói, không thể làm, người quân-tử chẳng nói. Có thể làm, không thể nói, người quân-tử chẳng làm. Thế thì dân biết, nói không nguy lúc làm, và làm không nguy lúc nói vậy.</t>
+  </si>
+  <si>
+    <t>Sách Hàn Tử viết : Trên lòng dạ không như trời thì dưới chẳng dốc hết sức. Lòng dạ không như đại địa thì không che chở hết vạn vật. Núi Thái-Sơn không tạo nên sự ưa ghét, nên có thể thành cao lớn. Sông biển không kén chọn dòng chảy nhỏ, nên có thể thành giàu có. Nên bậc đại-nhân gửi hình hài mình như trời đất mà vạn-vật hoàn bị. Đặt lòng mình như núi biển mà quốc-gia giàu có.</t>
+  </si>
+  <si>
+    <t>Sách Tả Truyện viết : Vua (Sở Chiêu Vương) thưởng cho ông Đấu-Tân, Vương Tôn Do Vu, Thân Bao Tự, Đấu Hoài. Ông Tử Tây nói : “xin đại vương không thưởng cho Đấu Hoài.” Vua nói : lấy đức lớn diệt đi oán nhỏ là đạo.</t>
+  </si>
+  <si>
+    <t>Sách Văn Tử viết : Tình của con người cảm phục ở đức độ, chẳng cảm phục ở vũ lực. Nên thời xưa bậc thánh-vương lúc nói năng ở dưới người, thân đứng sau người, thì người thiên-hạ nghĩ nhớ đến mà chẳng ghét bỏ, quý trọng mà không cho là nặng nề. Đó là đức có dư và hòa khí thuận. Nên biết cùng người đạt được, biết đứng sau mà được ra trước thì đã gần đạo vậy.</t>
+  </si>
+  <si>
+    <t>Sách Khổng Tử Gia Ngữ viết : Bậc học-giả phải giảm bớt tính tự cao, để lòng rỗng không tiếp nhận sự vật. Đạo trời thành tựu thì ắt biến đổi. Thường giữ sự tự mãn mà có thế dài lâu là chư từng có. Nên nói rằng tự cho mình hiền, thì những lời tốt đẹp trong thiên-hạ không nghe được vào tai vậy.</t>
+  </si>
+  <si>
+    <t>Sách Lão Tử viết : Không xem mình là sáng, nên sáng. Không cho mình là phải, nên chói. Không cho mình có công, nên có công. Không khoe mình, nên đứng đầu. Chỉ vì không tranh, nên thiên-hạ không ai tranh nổi với mình.</t>
+  </si>
+  <si>
+    <t>Sách Thể Luận viết : Người quân-tử lo tu sửa hết ở bên trong mà khiêm nhượng hiện ra ở ngoài, lo tích lũy đức hạnh cho bản thân mà cảm thấy xử thế chẳng đủ.</t>
+  </si>
+  <si>
+    <t>Sách Chu Dịch viết : Quẻ Địa Sơn Khiêm, Tượng viết : trong đất có núi là quẻ Khiêm, người quân-tử lấy chổ nhiều bù chổ ít, thí xả công bình xứng đáng cho người vật.</t>
+  </si>
+  <si>
+    <t>Sách Hậu Hán Thư viết : Thường đức khiêm là sáng, sách Chu-Dịch cho là đẹp. Ở tại vị mà phóng túng, đó là giới cấm của đạo-gia. Nên người quân-tử phúc lớn thì lo sợ, tước vị cao thì khiêm cung. Xét xa nhìn gần thì cử chỉ động tác đều có phép tắc, họ lấy đó ghi hết vào ghế gậy, khắc hết vào mâm gỗ, bồn tắm, đau đáu sợ hãi không yên, không bỏ đi như thế thì trăm phúc đến, tiếp nối không dứt vậy.</t>
+  </si>
+  <si>
+    <t>Sách Thể Luận viết : Thường cái họa của việc lấy bỏ, ở chổ thấy được rồi tham mà không lo nghĩ đến thất bại, thấy được lợi mà không lo nghĩ đến cái hại. Nên cử động gần với nguy hiểm nhục nhã. Xưa kia Tôn-Thúc-Ngao ba lần làm thừa tướng nước Sở mà lòng thấy thấp hèn, mỗi khi được ban nhiều bỗng lộc thì đem tặng người rộng hơn, khi chức vị càng cao thì lễ mạo rất khiêm cung. Ngài Chánh-Khảo-Phụ khúm núm mà đi bộ. Ông Yến-Bình-Trọng từ chối thành ấp được ban tặng. Đó là giữ sự tràn đầy để lặng lẽ làm một người bề tôi mẫu mực vậy.</t>
+  </si>
+  <si>
+    <t>Sách Ngụy Chí viết : Vua Thuấn răn ông Vũ rằng : “gần thay ! , gần thay !.” Lời nói thận trọng với người thân cận vậy. Chu-Công răn vua Thành-Vương rằng : “ ấy bằng hữu, ấy bằng hữu.” Lời nói thận trọng khi ở cùng với người vậy.</t>
+  </si>
+  <si>
+    <t>Sách Thi Tử viết : Đức Khổng-Tử nói : “gặp việc mà không sợ sệt, ít khi chẳng nên việc”. Kinh Dịch viết : “dẵm đuôi cọp, (lo sợ) chung cuộc tốt lành”. Như quần-thần mọi người đều răn giữ thận trọng, sợ sệt như dẫm đuôi cọp thì có việc gì chẳng nên ?</t>
+  </si>
+  <si>
+    <t>Sách Trung Luận viết : Cho nên người quân-tử kính trọng người cô-độc và thận trọng nơi hoang vu vắng vẻ. Dù ở nơi ẩn khuất quỷ-thần chẳng lẽ không thấy được, huống chi ở chốn ăn chơi ư !.</t>
+  </si>
+  <si>
+    <t>Sách Thượng Thư viết : Lúc được yêu mến nghĩ đến lúc nguy, không điều gì không kính sợ. Nếu không biết kính sợ, thế nào cũng lâm vào cảnh đáng sợ.</t>
+  </si>
+  <si>
+    <t>Sách Trung Luận viết : Người quân-tử đối với chính mình, không việc gì mà chẳng e sợ. Ta được thiện lành, nhưng chỉ sợ người chưa thích ta. Ta có điều bất thiện, thì sợ người sẽ ghét ta. Thấy người thiện lành, thì sợ ta không có thể làm theo. Thấy người bất thiện, thì sợ ta sẽ giống như họ.</t>
+  </si>
+  <si>
+    <t>Sách Hoài Nam Tử viết : Mắt xem bậy thì buông thả, tai nghe bậy thì mê hoặc, miệng nói bậy thì rối loạn. Ba cửa ải này không thể không giữ gìn cẩn thận vậy.</t>
+  </si>
+  <si>
+    <t>Sách Lưu Dực Chính Luận viết : Giỏi làm chính trị thì phải biết dù một việc cũng không thể khuyết thiếu. Nên không việc gì mà không chuẩn bị, biết một việc đúng thì không thể để mất nó đi vậy. Nên mọi ý kiến dù không đúng cũng nên cùng nhau lắng nghe. Như không biết gì, rồi xem nhẹ một việc cho rằng là nhỏ rồi lơ là mà khuyết thiếu đi, không biết được đông đảo sự việc kết hợp cùng nhau mà thành nhiều. Thấy một sai lầm rồi làm nhỏ đi, xem nhẹ nó mà lao vào. Đó là không biết cái đúng theo số nhiều, rồi cùng nhau phạm sai lầm vậy.</t>
+  </si>
+  <si>
+    <t>Sách Chu Dịch viết : Quẻ Sơn Lôi Di, Tượng viết : Dưới núi có sấm là quẻ Di, người quân-tử phải thận trọng nói năng, ăn uống phải chừng mực.</t>
+  </si>
+  <si>
+    <t>Sách Ngụy Chí viết : Ông Văn-Học và Ông Phòng-Phụ cùng nhau tấu trình khen ngợi sự tốt đẹp của Tào-Cổn. Tào-Cổn nghe được thì rất sợ hãi mà trách Văn-Học rằng : “sửa mình, là việc giữ gìn của người thường làm thôi, mà các ông lại tấu trình lên trên, việc này nghe được thì chỉ khiến tôi tăng thêm lo lắng. Như tôi có sự tốt đẹp lẽ nào sợ người không nghe biết ? mà sao các ông vội vàng cùng làm như thế, nói chuyện thị phi để giúp tôi. “ Khuyên răn thận trọng khi làm như thế.</t>
+  </si>
+  <si>
+    <t>Sách Tăng Tử viết : Người quân-tử thận trọng khi chọn nơi đi tới. Cùng người quân-tử vui chơi như ngày dày thêm ích lợi mà không tự biết vậy. Cùng kẻ tiểu-nhân vui chơi như đi qua băng mỏng, mỗi bước thì chỉ rớt xuống, bao nhiêu người không rơi vào cảnh đó đây !.</t>
+  </si>
+  <si>
+    <t>Sách Luận Ngữ viết : Người sinh ra đã hiểu biết, đó là bậc thượng (1). Người học rồi mới hiểu biết, đó là bậc thứ (2). Gặp cảnh khốn khó mới chịu học, đó là hạng dưới bậc thứ (3). Còn gặp cảnh khốn khó mà không chịu học, đó là hạng thấp nhất rồi (4) !.</t>
+  </si>
+  <si>
+    <t>Sách Ngô Chí viết : Nghe nói người quân-tử thấy sỉ nhục vào thời trẻ mà không tạo lập được công danh gì. Giận đến lúc chết mà danh tiếng không xứng đáng. Nên nói học như chẳng đủ, cảm thấy sợ khi mất đi. Vì thế thời xưa kẻ chí-sĩ tiếc thời gian trôi qua sẽ già đi và sợ danh tiếng không được gây dựng. Nên họ chuyên cần rèn luyện bản thân đến không có thời gian nghỉ ngơi. Như thấy bậc thánh-nhân Tây-Bá, tài năng của Cơ-Phát, Chu-Công mà còn lao lực đến khi mặt trời lặn. Nên họ có thể làm tốt đẹp sự nghiệp vương-đạo lưu truyền danh tiếng đến ngàn năm. Huống hồ là một bề tôi thường mà không gắng sức ư !.</t>
+  </si>
+  <si>
+    <t>Sách Luận Ngữ viết : Thầy Tử-Hạ nói : Hầu hạ cha mẹ tận tâm hết sức lực, làm việc cho vua tận hết khả năng của bản thân, cùng bạn bè giao tiếp nói lời giữ chữ tín. Người làm được vậy tuy nói là chưa được học, ta ắt xem người đó có học rồi vậy.</t>
+  </si>
+  <si>
+    <t>Sách Viên Tử Chính Thư viết : Người khéo học sẽ nương theo bậc tiên-vương để suy xét đạo lý. Người khéo noi theo sẽ lợi dụng trí huệ của người để sử lý công việc. Nên nương theo mắt người để thấy, đâu chỉ thấy việc từ hai phía. Nương theo tai người để nghe, đâu chỉ nghe việc từ hai phía. Nương theo trí huệ của người để mưu toan, đâu chỉ điều tra việc từ hai phía.</t>
+  </si>
+  <si>
+    <t>Sách Chu Dịch viết : Sở dĩ bậc thánh-nhân lấy sự cùng cực, thâm xâu để tìm tòi cái cơ vi. Chỉ khi tìm tòi thâm sâu, nên có thể thông cái chí của thiên-hạ. Chỉ khi tìm tòi cái cơ vi, nên có thể lo thành công việc của thiên-hạ. Chỉ khi có thần, nên không lẹ mà nhanh, không đi mà đến.</t>
+  </si>
+  <si>
+    <t>Sách Hoài Nam Tử viết : Người chẳng ai không biết học là việc hữu ích cho mình. Tuy nhiên họ chẳng thể làm được, chỉ vì đùa nghịch mà làm hại vậy. Người đều lấy nhiều việc vô-dụng để hại việc hữu-dụng, nên sự hiểu biết không rộng mà thời gian lại chẳng đủ dùng. Lấy việc so sánh khi dùng sức đào ao hồ và cày ruộng, việc cày ruộng thì đất hoang ắt sẽ được mở mang vậy. Lấy việc so sánh đấp đất thành núi cao và tu phòng đê đập, việc tu phong đê đập thì nước dùng ắt đầy đủ vậy. Lấy việc so sánh chi phí nuôi chó, ngựa, chim hồng, chim nhạn để nuôi kẻ sĩ, việc nuôi kẻ sĩ thì danh dự ắt vẻ vang vậy. Lấy việc so sánh hàng ngày vui chơi săn bắn và đọc tụng Thi-Thư, việc đọc tụng Thi-Thư thì khiến thức ắt rộng vậy.</t>
+  </si>
+  <si>
+    <t>Sách Luận Ngữ viết : Đức Khổng-Tử nói : Đạo đức mà không biết tu dưỡng. Học tập mà không biết giảng giải. Nghe thấy việc nghĩa mà không làm. Có điều bất thiện mà không sửa đỗi. Đó là những mối lo của ta.</t>
+  </si>
+  <si>
+    <t>Sách Viên Tử Chính Thư viết : Bậc thánh-nhân thường thường quý ở đức vững bền. Bậc thánh-nhân lâu dài ở đạo mà thiên-hạ hóa thành tựu. Chưa có việc không lâu bền mà có thể thành tựu đạo đức, và không đạo đức mà có thể gìn giữ lâu dài vậy.</t>
+  </si>
+  <si>
+    <t>Sách Xương Ngôn viết : Như 15 tuổi đặt chí hướng vào việc học, cùng bạn bè giảng giả, tập luyện, nỗ lực không ngừng nghỉ thì đạo đức và tuổi tiến lên dần. Đến 70 tuổi thì tự nhiên tùy lòng mình mà không ra khỏi quy củ. Huống hồ ở việc không đạt trúng quy củ, vậy mà không tự cố gắng ư ?.</t>
+  </si>
+  <si>
+    <t>Sách Tôn Khanh Tử viết : Khiến hết lòng người trong thiên-hạ phục. Là cao-thượng, tôn-quý không kiêu ngạo với người. Thông-minh, thánh-trí không lấy đó để ép người. Ban tặng, nhanh nhẹn không tranh trước người. Cương-nghị, dũng-cảm không lấy đó để tổn thương người. Không biết thì hỏi. Không giỏi thi học. Tuy giỏi cũng phải khiêm nhượng.</t>
+  </si>
+  <si>
+    <t>Sách Doãn Văn Tử viết : Đã thiện mà khiến đại chúng cùng làm theo. Đã khéo giỏi mà khiến đại chúng cùng giỏi theo. Đó là thiện trong thiện, khéo trong khéo vậy. Nên cái quý của bậc thánh-nhân ở việc trị nước, không quý ở một mình trị nước, mà quý có thể cùng mọi người cùng trị nước vậy. Cái quý của người thợ Thùy khéo léo, không quý ở chổ một mình khéo léo, mà quý ở chổ cùng mọi người chung khéo léo vậy.</t>
+  </si>
+  <si>
+    <t>Sách Chu Dịch viết : Cùng người trước gào khóc sau tươi cười. Đức Khổng-Tử nói : đạo của người quân-tử, hoặc ra, hoặc ở, hoặc lặng yên, hoặc nói chuyện. Hai người đồng lòng thì như dao bén chặt đứt sắt thép. Nói là đồng lòng, cái mùi nó như hoa lan vậy.</t>
+  </si>
+  <si>
+    <t>Sách Lễ Ký viết : Không lấy miệng khen người (quá đáng) thì dân khởi lên trung thành. Nên người quân-tử hỏi khi người bị lạnh, thì ban áo. Khi hỏi người bị đói, thì ban thức ăn. Khi khen cái đẹp của người, thì ban tước vị.</t>
+  </si>
+  <si>
+    <t>Sách Hoài Nam Tử viết : Có người đi thuyền mà gặp gió lớn, rồi cơn sóng đến, người ấy sợ sệt liền nhảy xuống nước chết. Việc đó chẳng phải tham sống sợ chết, mà ở chổ người ấy hỗn loạn sợ chết mà quên mất cơ hội sống sót. Nên người có thị-dục lại cũng như thế. Cho nên người đạt-đạo không tùy tiện lấy, không nhường phúc phần, cái có được không bỏ đi, cái không có được không đòi hỏi. Thường đầy mà không tràn, thường trống rỗng mà không dễ đủ.</t>
+  </si>
+  <si>
+    <t>Sách Tấn Thư viết : Bậc thánh nhân vua Đại-Vũ, còn quý tiếc từng tấc thời gian, đến như mọi người, đáng lẽ phải tiếc thời gian, há lại có thể vui chơi, hưởng lạc trong rượu chè. Sống vô-ích, đến thời chết đi hậu-thế không ai biết đến. Đó là tự vứt bỏ mình vậy.</t>
+  </si>
+  <si>
+    <t>Sách Chính Yếu Luận viết : Việc làm ra kinh sách là muốn mở rộng truyền đạt đạo lớn, thuật lại rõ lời dạy của thánh hiền, suy diễn sự việc và nghĩa lý, đến hết mức thấu tình đạt lý, ghi chép điều phải, phê bình việc sai trái để làm phép tắc khuôn mẫu cho đương thời có thể làm, và đời sau có thể học tập theo.</t>
   </si>
 </sst>
 </file>
